--- a/BackTest/2019-10-27 BackTest OMG.xlsx
+++ b/BackTest/2019-10-27 BackTest OMG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N111"/>
+  <dimension ref="A1:M140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="C2" t="n">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="D2" t="n">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="E2" t="n">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="F2" t="n">
-        <v>220.5</v>
+        <v>959.712</v>
       </c>
       <c r="G2" t="n">
-        <v>981.5333333333333</v>
+        <v>-5924.277400000001</v>
       </c>
       <c r="H2" t="n">
-        <v>977.1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,40 +468,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="C3" t="n">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D3" t="n">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E3" t="n">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="F3" t="n">
-        <v>24.8822</v>
+        <v>552.505</v>
       </c>
       <c r="G3" t="n">
-        <v>981.8</v>
+        <v>-5371.772400000001</v>
       </c>
       <c r="H3" t="n">
-        <v>977.5166666666667</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>984</v>
-      </c>
-      <c r="L3" t="n">
-        <v>984</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+        <v>980</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,7 +509,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="C4" t="n">
         <v>984</v>
@@ -527,33 +518,28 @@
         <v>984</v>
       </c>
       <c r="E4" t="n">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="F4" t="n">
-        <v>3.6877</v>
+        <v>12.1</v>
       </c>
       <c r="G4" t="n">
-        <v>982</v>
+        <v>-5359.6724</v>
       </c>
       <c r="H4" t="n">
-        <v>977.8</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>984</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -562,42 +548,37 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="C5" t="n">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="D5" t="n">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="E5" t="n">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="F5" t="n">
-        <v>8.726000000000001</v>
+        <v>612.569</v>
       </c>
       <c r="G5" t="n">
-        <v>982.2666666666667</v>
+        <v>-5972.241400000001</v>
       </c>
       <c r="H5" t="n">
-        <v>978.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>984</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -606,42 +587,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="C6" t="n">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="D6" t="n">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="E6" t="n">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>15.4696</v>
       </c>
       <c r="G6" t="n">
-        <v>982.6666666666666</v>
+        <v>-5972.241400000001</v>
       </c>
       <c r="H6" t="n">
-        <v>978.5333333333333</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>984</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -650,42 +626,37 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="C7" t="n">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="D7" t="n">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="E7" t="n">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="F7" t="n">
-        <v>319.5</v>
+        <v>38.0944</v>
       </c>
       <c r="G7" t="n">
-        <v>983.1333333333333</v>
+        <v>-5934.147000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>978.85</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>984</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -694,42 +665,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="C8" t="n">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="D8" t="n">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="E8" t="n">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="F8" t="n">
-        <v>74.76009999999999</v>
+        <v>150.6593</v>
       </c>
       <c r="G8" t="n">
-        <v>983.6</v>
+        <v>-6084.806300000001</v>
       </c>
       <c r="H8" t="n">
-        <v>979.15</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>984</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,42 +704,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="C9" t="n">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="D9" t="n">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="E9" t="n">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="F9" t="n">
-        <v>15.7195</v>
+        <v>2.4787</v>
       </c>
       <c r="G9" t="n">
-        <v>984.2</v>
+        <v>-6084.806300000001</v>
       </c>
       <c r="H9" t="n">
-        <v>979.45</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>984</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -782,44 +743,37 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="C10" t="n">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="D10" t="n">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="E10" t="n">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="F10" t="n">
-        <v>7.7443</v>
+        <v>3.3948</v>
       </c>
       <c r="G10" t="n">
-        <v>984.3333333333334</v>
+        <v>-6084.806300000001</v>
       </c>
       <c r="H10" t="n">
-        <v>979.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>986</v>
-      </c>
-      <c r="L10" t="n">
-        <v>984</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -828,44 +782,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="C11" t="n">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="D11" t="n">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="E11" t="n">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="F11" t="n">
-        <v>46.4917</v>
+        <v>2.0342</v>
       </c>
       <c r="G11" t="n">
-        <v>984.6</v>
+        <v>-6084.806300000001</v>
       </c>
       <c r="H11" t="n">
-        <v>979.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>986</v>
-      </c>
-      <c r="L11" t="n">
-        <v>984</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -874,44 +821,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="C12" t="n">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="D12" t="n">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="E12" t="n">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="F12" t="n">
-        <v>47.947</v>
+        <v>16.4</v>
       </c>
       <c r="G12" t="n">
-        <v>984.9333333333333</v>
+        <v>-6084.806300000001</v>
       </c>
       <c r="H12" t="n">
-        <v>980.0833333333334</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>986</v>
-      </c>
-      <c r="L12" t="n">
-        <v>984</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -920,42 +860,37 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="C13" t="n">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="D13" t="n">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="E13" t="n">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="F13" t="n">
-        <v>38.8</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>985.1333333333333</v>
+        <v>-6083.806300000001</v>
       </c>
       <c r="H13" t="n">
-        <v>980.2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>984</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -964,42 +899,37 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="C14" t="n">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="D14" t="n">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="E14" t="n">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="F14" t="n">
-        <v>172.4512</v>
+        <v>262.7167</v>
       </c>
       <c r="G14" t="n">
-        <v>985.4</v>
+        <v>-5821.089600000001</v>
       </c>
       <c r="H14" t="n">
-        <v>980.3333333333334</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>984</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,44 +938,37 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="C15" t="n">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="D15" t="n">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="E15" t="n">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>636.2447</v>
       </c>
       <c r="G15" t="n">
-        <v>985.2666666666667</v>
+        <v>-5184.844900000001</v>
       </c>
       <c r="H15" t="n">
-        <v>980.45</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>987</v>
-      </c>
-      <c r="L15" t="n">
-        <v>984</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1054,44 +977,37 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C16" t="n">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="D16" t="n">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E16" t="n">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="F16" t="n">
-        <v>2.7272</v>
+        <v>2.0387</v>
       </c>
       <c r="G16" t="n">
-        <v>985</v>
+        <v>-5186.883600000001</v>
       </c>
       <c r="H16" t="n">
-        <v>980.55</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>982</v>
-      </c>
-      <c r="L16" t="n">
-        <v>984</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,44 +1016,37 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C17" t="n">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="D17" t="n">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="E17" t="n">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="F17" t="n">
-        <v>89.5</v>
+        <v>50</v>
       </c>
       <c r="G17" t="n">
-        <v>985.2</v>
+        <v>-5236.883600000001</v>
       </c>
       <c r="H17" t="n">
-        <v>980.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>980</v>
-      </c>
-      <c r="L17" t="n">
-        <v>984</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1146,44 +1055,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C18" t="n">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="D18" t="n">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="E18" t="n">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F18" t="n">
-        <v>934.9802</v>
+        <v>97.96250000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>984.8666666666667</v>
+        <v>-5138.921100000001</v>
       </c>
       <c r="H18" t="n">
-        <v>980.85</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>987</v>
-      </c>
-      <c r="L18" t="n">
-        <v>984</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1192,44 +1094,37 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="C19" t="n">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="D19" t="n">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="E19" t="n">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="F19" t="n">
-        <v>182</v>
+        <v>194.7607</v>
       </c>
       <c r="G19" t="n">
-        <v>985.1333333333333</v>
+        <v>-5138.921100000001</v>
       </c>
       <c r="H19" t="n">
-        <v>981.0833333333334</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>979</v>
-      </c>
-      <c r="L19" t="n">
-        <v>984</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1250,32 +1145,25 @@
         <v>981</v>
       </c>
       <c r="F20" t="n">
-        <v>50.0288</v>
+        <v>8.1821</v>
       </c>
       <c r="G20" t="n">
-        <v>984.8666666666667</v>
+        <v>-5138.921100000001</v>
       </c>
       <c r="H20" t="n">
-        <v>981.2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>988</v>
-      </c>
-      <c r="L20" t="n">
-        <v>984</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1284,44 +1172,37 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="C21" t="n">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="D21" t="n">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="E21" t="n">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="F21" t="n">
-        <v>42.431</v>
+        <v>50</v>
       </c>
       <c r="G21" t="n">
-        <v>984.8666666666667</v>
+        <v>-5188.921100000001</v>
       </c>
       <c r="H21" t="n">
-        <v>981.45</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>981</v>
-      </c>
-      <c r="L21" t="n">
-        <v>984</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1330,44 +1211,37 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="C22" t="n">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="D22" t="n">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="E22" t="n">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="F22" t="n">
-        <v>6.3335</v>
+        <v>250.9041</v>
       </c>
       <c r="G22" t="n">
-        <v>984.9333333333333</v>
+        <v>-5439.825200000001</v>
       </c>
       <c r="H22" t="n">
-        <v>981.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>987</v>
-      </c>
-      <c r="L22" t="n">
-        <v>984</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1376,44 +1250,37 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="C23" t="n">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="D23" t="n">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="E23" t="n">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="F23" t="n">
-        <v>377.8027</v>
+        <v>1029.4067</v>
       </c>
       <c r="G23" t="n">
-        <v>985.0666666666667</v>
+        <v>-6469.231900000001</v>
       </c>
       <c r="H23" t="n">
-        <v>981.9</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>987</v>
-      </c>
-      <c r="L23" t="n">
-        <v>984</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1422,44 +1289,37 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="C24" t="n">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="D24" t="n">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="E24" t="n">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="F24" t="n">
-        <v>2.5746</v>
+        <v>56.6016</v>
       </c>
       <c r="G24" t="n">
-        <v>985.2</v>
+        <v>-6412.630300000001</v>
       </c>
       <c r="H24" t="n">
-        <v>982.15</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>987</v>
-      </c>
-      <c r="L24" t="n">
-        <v>984</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1468,44 +1328,37 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="C25" t="n">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="D25" t="n">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="E25" t="n">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="F25" t="n">
-        <v>44.2215</v>
+        <v>33.3218</v>
       </c>
       <c r="G25" t="n">
-        <v>985.3333333333334</v>
+        <v>-6445.9521</v>
       </c>
       <c r="H25" t="n">
-        <v>982.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>988</v>
-      </c>
-      <c r="L25" t="n">
-        <v>984</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1514,44 +1367,37 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="C26" t="n">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="D26" t="n">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="E26" t="n">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="F26" t="n">
-        <v>350.0521</v>
+        <v>188.3645</v>
       </c>
       <c r="G26" t="n">
-        <v>985.5333333333333</v>
+        <v>-6445.9521</v>
       </c>
       <c r="H26" t="n">
-        <v>982.55</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>988</v>
-      </c>
-      <c r="L26" t="n">
-        <v>984</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1560,44 +1406,37 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="C27" t="n">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="D27" t="n">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="E27" t="n">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="F27" t="n">
-        <v>300.0018</v>
+        <v>665.0402</v>
       </c>
       <c r="G27" t="n">
-        <v>985.6666666666666</v>
+        <v>-5780.9119</v>
       </c>
       <c r="H27" t="n">
-        <v>982.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>989</v>
-      </c>
-      <c r="L27" t="n">
-        <v>984</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1606,44 +1445,37 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="C28" t="n">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="D28" t="n">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="E28" t="n">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="F28" t="n">
-        <v>3.3144</v>
+        <v>478.6138</v>
       </c>
       <c r="G28" t="n">
-        <v>985.9333333333333</v>
+        <v>-5780.9119</v>
       </c>
       <c r="H28" t="n">
-        <v>982.9666666666667</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>989</v>
-      </c>
-      <c r="L28" t="n">
-        <v>984</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1652,44 +1484,37 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="C29" t="n">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="D29" t="n">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="E29" t="n">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="F29" t="n">
-        <v>96.1442</v>
+        <v>1045.1708</v>
       </c>
       <c r="G29" t="n">
-        <v>986.1333333333333</v>
+        <v>-4735.7411</v>
       </c>
       <c r="H29" t="n">
-        <v>983.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>990</v>
-      </c>
-      <c r="L29" t="n">
-        <v>984</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1698,44 +1523,37 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="C30" t="n">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="D30" t="n">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="E30" t="n">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="F30" t="n">
-        <v>779.3949</v>
+        <v>1.7732</v>
       </c>
       <c r="G30" t="n">
-        <v>986.8</v>
+        <v>-4735.7411</v>
       </c>
       <c r="H30" t="n">
-        <v>983.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>990</v>
-      </c>
-      <c r="L30" t="n">
-        <v>984</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1744,44 +1562,37 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="C31" t="n">
-        <v>999</v>
+        <v>984</v>
       </c>
       <c r="D31" t="n">
-        <v>999</v>
+        <v>984</v>
       </c>
       <c r="E31" t="n">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="F31" t="n">
-        <v>1682.6839</v>
+        <v>220.5</v>
       </c>
       <c r="G31" t="n">
-        <v>988.0666666666667</v>
+        <v>-4735.7411</v>
       </c>
       <c r="H31" t="n">
-        <v>983.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>992</v>
-      </c>
-      <c r="L31" t="n">
-        <v>984</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1790,42 +1601,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>999</v>
+        <v>984</v>
       </c>
       <c r="C32" t="n">
-        <v>999</v>
+        <v>984</v>
       </c>
       <c r="D32" t="n">
-        <v>999</v>
+        <v>984</v>
       </c>
       <c r="E32" t="n">
-        <v>999</v>
+        <v>984</v>
       </c>
       <c r="F32" t="n">
-        <v>282.2377</v>
+        <v>24.8822</v>
       </c>
       <c r="G32" t="n">
-        <v>988.8666666666667</v>
+        <v>-4735.7411</v>
       </c>
       <c r="H32" t="n">
-        <v>983.7</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>984</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1834,42 +1640,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>999</v>
+        <v>984</v>
       </c>
       <c r="C33" t="n">
-        <v>1000</v>
+        <v>984</v>
       </c>
       <c r="D33" t="n">
-        <v>1000</v>
+        <v>984</v>
       </c>
       <c r="E33" t="n">
-        <v>999</v>
+        <v>984</v>
       </c>
       <c r="F33" t="n">
-        <v>1850.9596</v>
+        <v>3.6877</v>
       </c>
       <c r="G33" t="n">
-        <v>990.2666666666667</v>
+        <v>-4735.7411</v>
       </c>
       <c r="H33" t="n">
-        <v>984.0333333333333</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>984</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1878,42 +1679,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1000</v>
+        <v>984</v>
       </c>
       <c r="C34" t="n">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="D34" t="n">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="E34" t="n">
-        <v>1000</v>
+        <v>984</v>
       </c>
       <c r="F34" t="n">
-        <v>524.3314</v>
+        <v>8.726000000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>991.0666666666667</v>
+        <v>-4727.015100000001</v>
       </c>
       <c r="H34" t="n">
-        <v>984.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>984</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1922,42 +1718,37 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1000</v>
+        <v>987</v>
       </c>
       <c r="C35" t="n">
-        <v>1000</v>
+        <v>987</v>
       </c>
       <c r="D35" t="n">
-        <v>1000</v>
+        <v>987</v>
       </c>
       <c r="E35" t="n">
-        <v>1000</v>
+        <v>987</v>
       </c>
       <c r="F35" t="n">
-        <v>573.9779</v>
+        <v>3</v>
       </c>
       <c r="G35" t="n">
-        <v>992.3333333333334</v>
+        <v>-4724.015100000001</v>
       </c>
       <c r="H35" t="n">
-        <v>984.5833333333334</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>984</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1966,42 +1757,37 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="C36" t="n">
-        <v>1002</v>
+        <v>986</v>
       </c>
       <c r="D36" t="n">
-        <v>1002</v>
+        <v>986</v>
       </c>
       <c r="E36" t="n">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F36" t="n">
-        <v>2032.9401</v>
+        <v>319.5</v>
       </c>
       <c r="G36" t="n">
-        <v>993.3333333333334</v>
+        <v>-5043.515100000001</v>
       </c>
       <c r="H36" t="n">
-        <v>985</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>984</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2010,42 +1796,37 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1003</v>
+        <v>982</v>
       </c>
       <c r="C37" t="n">
-        <v>1002</v>
+        <v>985</v>
       </c>
       <c r="D37" t="n">
-        <v>1003</v>
+        <v>985</v>
       </c>
       <c r="E37" t="n">
-        <v>1002</v>
+        <v>982</v>
       </c>
       <c r="F37" t="n">
-        <v>335.311</v>
+        <v>74.76009999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>994.3333333333334</v>
+        <v>-5118.275200000001</v>
       </c>
       <c r="H37" t="n">
-        <v>985.4166666666666</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>984</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2054,42 +1835,37 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1002</v>
+        <v>986</v>
       </c>
       <c r="C38" t="n">
-        <v>1002</v>
+        <v>986</v>
       </c>
       <c r="D38" t="n">
-        <v>1002</v>
+        <v>986</v>
       </c>
       <c r="E38" t="n">
-        <v>1002</v>
+        <v>986</v>
       </c>
       <c r="F38" t="n">
-        <v>111.477</v>
+        <v>15.7195</v>
       </c>
       <c r="G38" t="n">
-        <v>995.3333333333334</v>
+        <v>-5102.555700000001</v>
       </c>
       <c r="H38" t="n">
-        <v>985.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>984</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2098,42 +1874,37 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1003</v>
+        <v>986</v>
       </c>
       <c r="C39" t="n">
-        <v>1008</v>
+        <v>986</v>
       </c>
       <c r="D39" t="n">
-        <v>1008</v>
+        <v>986</v>
       </c>
       <c r="E39" t="n">
-        <v>1003</v>
+        <v>986</v>
       </c>
       <c r="F39" t="n">
-        <v>938.1069631944445</v>
+        <v>7.7443</v>
       </c>
       <c r="G39" t="n">
-        <v>996.6666666666666</v>
+        <v>-5102.555700000001</v>
       </c>
       <c r="H39" t="n">
-        <v>986.3333333333334</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>984</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2142,42 +1913,37 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1007</v>
+        <v>986</v>
       </c>
       <c r="C40" t="n">
-        <v>1007</v>
+        <v>986</v>
       </c>
       <c r="D40" t="n">
-        <v>1007</v>
+        <v>986</v>
       </c>
       <c r="E40" t="n">
-        <v>1007</v>
+        <v>986</v>
       </c>
       <c r="F40" t="n">
-        <v>1.4583</v>
+        <v>46.4917</v>
       </c>
       <c r="G40" t="n">
-        <v>997.9333333333333</v>
+        <v>-5102.555700000001</v>
       </c>
       <c r="H40" t="n">
-        <v>986.8333333333334</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>984</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,42 +1952,37 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1001</v>
+        <v>986</v>
       </c>
       <c r="C41" t="n">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="D41" t="n">
-        <v>1001</v>
+        <v>987</v>
       </c>
       <c r="E41" t="n">
-        <v>996</v>
+        <v>986</v>
       </c>
       <c r="F41" t="n">
-        <v>1075.0456</v>
+        <v>47.947</v>
       </c>
       <c r="G41" t="n">
-        <v>998.4</v>
+        <v>-5054.608700000001</v>
       </c>
       <c r="H41" t="n">
-        <v>987.15</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>984</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2230,42 +1991,37 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1000</v>
+        <v>986</v>
       </c>
       <c r="C42" t="n">
-        <v>1003</v>
+        <v>986</v>
       </c>
       <c r="D42" t="n">
-        <v>1003</v>
+        <v>986</v>
       </c>
       <c r="E42" t="n">
-        <v>1000</v>
+        <v>986</v>
       </c>
       <c r="F42" t="n">
-        <v>20.672</v>
+        <v>38.8</v>
       </c>
       <c r="G42" t="n">
-        <v>999.3333333333334</v>
+        <v>-5093.408700000001</v>
       </c>
       <c r="H42" t="n">
-        <v>987.5833333333334</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>984</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2274,42 +2030,37 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1004</v>
+        <v>985</v>
       </c>
       <c r="C43" t="n">
-        <v>1004</v>
+        <v>987</v>
       </c>
       <c r="D43" t="n">
-        <v>1004</v>
+        <v>987</v>
       </c>
       <c r="E43" t="n">
-        <v>1004</v>
+        <v>985</v>
       </c>
       <c r="F43" t="n">
-        <v>321.5653</v>
+        <v>172.4512</v>
       </c>
       <c r="G43" t="n">
-        <v>1000.266666666667</v>
+        <v>-4920.9575</v>
       </c>
       <c r="H43" t="n">
-        <v>988.0333333333333</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>984</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2318,42 +2069,37 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1004</v>
+        <v>987</v>
       </c>
       <c r="C44" t="n">
-        <v>1004</v>
+        <v>982</v>
       </c>
       <c r="D44" t="n">
-        <v>1004</v>
+        <v>987</v>
       </c>
       <c r="E44" t="n">
-        <v>1004</v>
+        <v>982</v>
       </c>
       <c r="F44" t="n">
-        <v>144.7043</v>
+        <v>3</v>
       </c>
       <c r="G44" t="n">
-        <v>1001.2</v>
+        <v>-4923.9575</v>
       </c>
       <c r="H44" t="n">
-        <v>988.45</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>984</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2362,42 +2108,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1004</v>
+        <v>980</v>
       </c>
       <c r="C45" t="n">
-        <v>1004</v>
+        <v>980</v>
       </c>
       <c r="D45" t="n">
-        <v>1004</v>
+        <v>980</v>
       </c>
       <c r="E45" t="n">
-        <v>1004</v>
+        <v>980</v>
       </c>
       <c r="F45" t="n">
-        <v>11.1654</v>
+        <v>2.7272</v>
       </c>
       <c r="G45" t="n">
-        <v>1002</v>
+        <v>-4926.684700000001</v>
       </c>
       <c r="H45" t="n">
-        <v>988.8333333333334</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>982</v>
       </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>984</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2406,42 +2149,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1007</v>
+        <v>987</v>
       </c>
       <c r="C46" t="n">
-        <v>1007</v>
+        <v>987</v>
       </c>
       <c r="D46" t="n">
-        <v>1007</v>
+        <v>987</v>
       </c>
       <c r="E46" t="n">
-        <v>1007</v>
+        <v>987</v>
       </c>
       <c r="F46" t="n">
-        <v>468.5451</v>
+        <v>89.5</v>
       </c>
       <c r="G46" t="n">
-        <v>1002.533333333333</v>
+        <v>-4837.184700000001</v>
       </c>
       <c r="H46" t="n">
-        <v>989.2333333333333</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>984</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2450,42 +2190,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1007</v>
+        <v>979</v>
       </c>
       <c r="C47" t="n">
-        <v>1007</v>
+        <v>979</v>
       </c>
       <c r="D47" t="n">
-        <v>1007</v>
+        <v>979</v>
       </c>
       <c r="E47" t="n">
-        <v>1007</v>
+        <v>979</v>
       </c>
       <c r="F47" t="n">
-        <v>654.8625</v>
+        <v>934.9802</v>
       </c>
       <c r="G47" t="n">
-        <v>1003.066666666667</v>
+        <v>-5772.164900000001</v>
       </c>
       <c r="H47" t="n">
-        <v>989.6666666666666</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>984</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2494,42 +2229,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1007</v>
+        <v>987</v>
       </c>
       <c r="C48" t="n">
-        <v>1007</v>
+        <v>988</v>
       </c>
       <c r="D48" t="n">
-        <v>1007</v>
+        <v>988</v>
       </c>
       <c r="E48" t="n">
-        <v>1007</v>
+        <v>987</v>
       </c>
       <c r="F48" t="n">
-        <v>6.5389</v>
+        <v>182</v>
       </c>
       <c r="G48" t="n">
-        <v>1003.533333333333</v>
+        <v>-5590.164900000001</v>
       </c>
       <c r="H48" t="n">
-        <v>990.1166666666667</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>979</v>
       </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>984</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2538,42 +2270,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1007</v>
+        <v>981</v>
       </c>
       <c r="C49" t="n">
-        <v>1007</v>
+        <v>981</v>
       </c>
       <c r="D49" t="n">
-        <v>1007</v>
+        <v>981</v>
       </c>
       <c r="E49" t="n">
-        <v>1007</v>
+        <v>981</v>
       </c>
       <c r="F49" t="n">
-        <v>1352.6154</v>
+        <v>50.0288</v>
       </c>
       <c r="G49" t="n">
-        <v>1004</v>
+        <v>-5640.193700000001</v>
       </c>
       <c r="H49" t="n">
-        <v>990.55</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>988</v>
       </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>984</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2582,42 +2311,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1007</v>
+        <v>987</v>
       </c>
       <c r="C50" t="n">
-        <v>1010</v>
+        <v>987</v>
       </c>
       <c r="D50" t="n">
-        <v>1010</v>
+        <v>987</v>
       </c>
       <c r="E50" t="n">
-        <v>1007</v>
+        <v>987</v>
       </c>
       <c r="F50" t="n">
-        <v>2203.7552</v>
+        <v>42.431</v>
       </c>
       <c r="G50" t="n">
-        <v>1004.666666666667</v>
+        <v>-5597.762700000001</v>
       </c>
       <c r="H50" t="n">
-        <v>991.0333333333333</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>981</v>
       </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>984</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2626,42 +2352,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1011</v>
+        <v>987</v>
       </c>
       <c r="C51" t="n">
-        <v>1013</v>
+        <v>987</v>
       </c>
       <c r="D51" t="n">
-        <v>1013</v>
+        <v>987</v>
       </c>
       <c r="E51" t="n">
-        <v>1011</v>
+        <v>987</v>
       </c>
       <c r="F51" t="n">
-        <v>210.1605</v>
+        <v>6.3335</v>
       </c>
       <c r="G51" t="n">
-        <v>1005.4</v>
+        <v>-5597.762700000001</v>
       </c>
       <c r="H51" t="n">
-        <v>991.5666666666667</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>987</v>
       </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>984</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2670,42 +2393,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1013</v>
+        <v>984</v>
       </c>
       <c r="C52" t="n">
-        <v>1015</v>
+        <v>987</v>
       </c>
       <c r="D52" t="n">
-        <v>1015</v>
+        <v>987</v>
       </c>
       <c r="E52" t="n">
-        <v>1013</v>
+        <v>984</v>
       </c>
       <c r="F52" t="n">
-        <v>1538.5972</v>
+        <v>377.8027</v>
       </c>
       <c r="G52" t="n">
-        <v>1006.266666666667</v>
+        <v>-5597.762700000001</v>
       </c>
       <c r="H52" t="n">
-        <v>992.1666666666666</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>987</v>
       </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>984</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2714,42 +2434,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1015</v>
+        <v>988</v>
       </c>
       <c r="C53" t="n">
-        <v>1015</v>
+        <v>988</v>
       </c>
       <c r="D53" t="n">
-        <v>1015</v>
+        <v>988</v>
       </c>
       <c r="E53" t="n">
-        <v>1015</v>
+        <v>988</v>
       </c>
       <c r="F53" t="n">
-        <v>17.2832</v>
+        <v>2.5746</v>
       </c>
       <c r="G53" t="n">
-        <v>1007.133333333333</v>
+        <v>-5595.188100000001</v>
       </c>
       <c r="H53" t="n">
-        <v>992.7833333333333</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>987</v>
       </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>984</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,42 +2475,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1015</v>
+        <v>988</v>
       </c>
       <c r="C54" t="n">
-        <v>1015</v>
+        <v>988</v>
       </c>
       <c r="D54" t="n">
-        <v>1015</v>
+        <v>988</v>
       </c>
       <c r="E54" t="n">
-        <v>1015</v>
+        <v>988</v>
       </c>
       <c r="F54" t="n">
-        <v>1.2021</v>
+        <v>44.2215</v>
       </c>
       <c r="G54" t="n">
-        <v>1007.6</v>
+        <v>-5595.188100000001</v>
       </c>
       <c r="H54" t="n">
-        <v>993.4166666666666</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>988</v>
       </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>984</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2802,42 +2516,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1018</v>
+        <v>988</v>
       </c>
       <c r="C55" t="n">
-        <v>1018</v>
+        <v>989</v>
       </c>
       <c r="D55" t="n">
-        <v>1018</v>
+        <v>989</v>
       </c>
       <c r="E55" t="n">
-        <v>1018</v>
+        <v>988</v>
       </c>
       <c r="F55" t="n">
-        <v>14</v>
+        <v>350.0521</v>
       </c>
       <c r="G55" t="n">
-        <v>1008.333333333333</v>
+        <v>-5245.136000000001</v>
       </c>
       <c r="H55" t="n">
-        <v>993.9833333333333</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>988</v>
       </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>984</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2846,42 +2557,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1018</v>
+        <v>989</v>
       </c>
       <c r="C56" t="n">
-        <v>1020</v>
+        <v>989</v>
       </c>
       <c r="D56" t="n">
-        <v>1020</v>
+        <v>989</v>
       </c>
       <c r="E56" t="n">
-        <v>1018</v>
+        <v>989</v>
       </c>
       <c r="F56" t="n">
-        <v>53.8315</v>
+        <v>300.0018</v>
       </c>
       <c r="G56" t="n">
-        <v>1009.933333333333</v>
+        <v>-5245.136000000001</v>
       </c>
       <c r="H56" t="n">
-        <v>994.6166666666667</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>989</v>
       </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>984</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2890,42 +2598,37 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1020</v>
+        <v>990</v>
       </c>
       <c r="C57" t="n">
-        <v>1021</v>
+        <v>990</v>
       </c>
       <c r="D57" t="n">
-        <v>1021</v>
+        <v>990</v>
       </c>
       <c r="E57" t="n">
-        <v>1020</v>
+        <v>990</v>
       </c>
       <c r="F57" t="n">
-        <v>62</v>
+        <v>3.3144</v>
       </c>
       <c r="G57" t="n">
-        <v>1011.133333333333</v>
+        <v>-5241.821600000001</v>
       </c>
       <c r="H57" t="n">
-        <v>995.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>984</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2934,42 +2637,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1021</v>
+        <v>990</v>
       </c>
       <c r="C58" t="n">
-        <v>1021</v>
+        <v>990</v>
       </c>
       <c r="D58" t="n">
-        <v>1021</v>
+        <v>990</v>
       </c>
       <c r="E58" t="n">
-        <v>1021</v>
+        <v>990</v>
       </c>
       <c r="F58" t="n">
-        <v>4.8747</v>
+        <v>96.1442</v>
       </c>
       <c r="G58" t="n">
-        <v>1012.266666666667</v>
+        <v>-5241.821600000001</v>
       </c>
       <c r="H58" t="n">
-        <v>995.9</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>984</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2978,42 +2678,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1021</v>
+        <v>990</v>
       </c>
       <c r="C59" t="n">
-        <v>1022</v>
+        <v>992</v>
       </c>
       <c r="D59" t="n">
-        <v>1022</v>
+        <v>992</v>
       </c>
       <c r="E59" t="n">
-        <v>1021</v>
+        <v>990</v>
       </c>
       <c r="F59" t="n">
-        <v>207.5987</v>
+        <v>779.3949</v>
       </c>
       <c r="G59" t="n">
-        <v>1013.466666666667</v>
+        <v>-4462.426700000001</v>
       </c>
       <c r="H59" t="n">
-        <v>996.55</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>984</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,42 +2719,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1023</v>
+        <v>992</v>
       </c>
       <c r="C60" t="n">
-        <v>1025</v>
+        <v>999</v>
       </c>
       <c r="D60" t="n">
-        <v>1025</v>
+        <v>999</v>
       </c>
       <c r="E60" t="n">
-        <v>1023</v>
+        <v>992</v>
       </c>
       <c r="F60" t="n">
-        <v>288.6718</v>
+        <v>1682.6839</v>
       </c>
       <c r="G60" t="n">
-        <v>1014.866666666667</v>
+        <v>-2779.742800000001</v>
       </c>
       <c r="H60" t="n">
-        <v>997.2333333333333</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>992</v>
       </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>984</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3066,42 +2760,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1025</v>
+        <v>999</v>
       </c>
       <c r="C61" t="n">
-        <v>1025</v>
+        <v>999</v>
       </c>
       <c r="D61" t="n">
-        <v>1025</v>
+        <v>999</v>
       </c>
       <c r="E61" t="n">
-        <v>1025</v>
+        <v>999</v>
       </c>
       <c r="F61" t="n">
-        <v>861.7903</v>
+        <v>282.2377</v>
       </c>
       <c r="G61" t="n">
-        <v>1016.066666666667</v>
+        <v>-2779.742800000001</v>
       </c>
       <c r="H61" t="n">
-        <v>997.9166666666666</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>984</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3110,42 +2801,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1025</v>
+        <v>999</v>
       </c>
       <c r="C62" t="n">
-        <v>1028</v>
+        <v>1000</v>
       </c>
       <c r="D62" t="n">
-        <v>1029</v>
+        <v>1000</v>
       </c>
       <c r="E62" t="n">
-        <v>1025</v>
+        <v>999</v>
       </c>
       <c r="F62" t="n">
-        <v>1555.2175</v>
+        <v>1850.9596</v>
       </c>
       <c r="G62" t="n">
-        <v>1017.466666666667</v>
+        <v>-928.783200000001</v>
       </c>
       <c r="H62" t="n">
-        <v>998.65</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>984</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3154,42 +2842,37 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1028</v>
+        <v>1000</v>
       </c>
       <c r="C63" t="n">
-        <v>1028</v>
+        <v>1000</v>
       </c>
       <c r="D63" t="n">
-        <v>1028</v>
+        <v>1000</v>
       </c>
       <c r="E63" t="n">
-        <v>1028</v>
+        <v>1000</v>
       </c>
       <c r="F63" t="n">
-        <v>28.931</v>
+        <v>524.3314</v>
       </c>
       <c r="G63" t="n">
-        <v>1018.866666666667</v>
+        <v>-928.783200000001</v>
       </c>
       <c r="H63" t="n">
-        <v>999.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>984</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3198,42 +2881,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1028</v>
+        <v>1000</v>
       </c>
       <c r="C64" t="n">
-        <v>1030</v>
+        <v>1000</v>
       </c>
       <c r="D64" t="n">
-        <v>1030</v>
+        <v>1000</v>
       </c>
       <c r="E64" t="n">
-        <v>1028</v>
+        <v>1000</v>
       </c>
       <c r="F64" t="n">
-        <v>595.8453</v>
+        <v>573.9779</v>
       </c>
       <c r="G64" t="n">
-        <v>1020.4</v>
+        <v>-928.783200000001</v>
       </c>
       <c r="H64" t="n">
-        <v>1000.15</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>984</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3242,42 +2920,37 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1028</v>
+        <v>1000</v>
       </c>
       <c r="C65" t="n">
-        <v>1028</v>
+        <v>1002</v>
       </c>
       <c r="D65" t="n">
-        <v>1028</v>
+        <v>1002</v>
       </c>
       <c r="E65" t="n">
-        <v>1028</v>
+        <v>1000</v>
       </c>
       <c r="F65" t="n">
-        <v>415.3651</v>
+        <v>2032.9401</v>
       </c>
       <c r="G65" t="n">
-        <v>1021.6</v>
+        <v>1104.156899999999</v>
       </c>
       <c r="H65" t="n">
-        <v>1000.866666666667</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>984</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3286,42 +2959,37 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1020</v>
+        <v>1003</v>
       </c>
       <c r="C66" t="n">
-        <v>1041</v>
+        <v>1002</v>
       </c>
       <c r="D66" t="n">
-        <v>1045</v>
+        <v>1003</v>
       </c>
       <c r="E66" t="n">
-        <v>1019</v>
+        <v>1002</v>
       </c>
       <c r="F66" t="n">
-        <v>2937.3556</v>
+        <v>335.311</v>
       </c>
       <c r="G66" t="n">
-        <v>1023.466666666667</v>
+        <v>1104.156899999999</v>
       </c>
       <c r="H66" t="n">
-        <v>1001.766666666667</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>984</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3330,42 +2998,37 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1040</v>
+        <v>1002</v>
       </c>
       <c r="C67" t="n">
-        <v>1046</v>
+        <v>1002</v>
       </c>
       <c r="D67" t="n">
-        <v>1046</v>
+        <v>1002</v>
       </c>
       <c r="E67" t="n">
-        <v>1040</v>
+        <v>1002</v>
       </c>
       <c r="F67" t="n">
-        <v>2117.186382217973</v>
+        <v>111.477</v>
       </c>
       <c r="G67" t="n">
-        <v>1025.533333333333</v>
+        <v>1104.156899999999</v>
       </c>
       <c r="H67" t="n">
-        <v>1002.766666666667</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>984</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3374,42 +3037,37 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1047</v>
+        <v>1003</v>
       </c>
       <c r="C68" t="n">
-        <v>1047</v>
+        <v>1008</v>
       </c>
       <c r="D68" t="n">
-        <v>1047</v>
+        <v>1008</v>
       </c>
       <c r="E68" t="n">
-        <v>1047</v>
+        <v>1003</v>
       </c>
       <c r="F68" t="n">
-        <v>447.918</v>
+        <v>938.1069631944445</v>
       </c>
       <c r="G68" t="n">
-        <v>1027.666666666667</v>
+        <v>2042.263863194444</v>
       </c>
       <c r="H68" t="n">
-        <v>1003.8</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>984</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3418,42 +3076,37 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1042</v>
+        <v>1007</v>
       </c>
       <c r="C69" t="n">
-        <v>1050</v>
+        <v>1007</v>
       </c>
       <c r="D69" t="n">
-        <v>1050</v>
+        <v>1007</v>
       </c>
       <c r="E69" t="n">
-        <v>1042</v>
+        <v>1007</v>
       </c>
       <c r="F69" t="n">
-        <v>677.9824</v>
+        <v>1.4583</v>
       </c>
       <c r="G69" t="n">
-        <v>1030</v>
+        <v>2040.805563194443</v>
       </c>
       <c r="H69" t="n">
-        <v>1004.866666666667</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>984</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3462,42 +3115,37 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1050</v>
+        <v>1001</v>
       </c>
       <c r="C70" t="n">
-        <v>1046</v>
+        <v>996</v>
       </c>
       <c r="D70" t="n">
-        <v>1050</v>
+        <v>1001</v>
       </c>
       <c r="E70" t="n">
-        <v>1046</v>
+        <v>996</v>
       </c>
       <c r="F70" t="n">
-        <v>1845.6438</v>
+        <v>1075.0456</v>
       </c>
       <c r="G70" t="n">
-        <v>1031.866666666667</v>
+        <v>965.7599631944436</v>
       </c>
       <c r="H70" t="n">
-        <v>1005.866666666667</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>984</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3506,42 +3154,37 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1054</v>
+        <v>1000</v>
       </c>
       <c r="C71" t="n">
-        <v>1056</v>
+        <v>1003</v>
       </c>
       <c r="D71" t="n">
-        <v>1056</v>
+        <v>1003</v>
       </c>
       <c r="E71" t="n">
-        <v>1054</v>
+        <v>1000</v>
       </c>
       <c r="F71" t="n">
-        <v>1053.9807</v>
+        <v>20.672</v>
       </c>
       <c r="G71" t="n">
-        <v>1034.266666666667</v>
+        <v>986.4319631944436</v>
       </c>
       <c r="H71" t="n">
-        <v>1007.033333333333</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>984</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3550,42 +3193,37 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1051</v>
+        <v>1004</v>
       </c>
       <c r="C72" t="n">
-        <v>1051</v>
+        <v>1004</v>
       </c>
       <c r="D72" t="n">
-        <v>1051</v>
+        <v>1004</v>
       </c>
       <c r="E72" t="n">
-        <v>1051</v>
+        <v>1004</v>
       </c>
       <c r="F72" t="n">
-        <v>30.6355</v>
+        <v>321.5653</v>
       </c>
       <c r="G72" t="n">
-        <v>1036.266666666667</v>
+        <v>1307.997263194444</v>
       </c>
       <c r="H72" t="n">
-        <v>1008.1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>984</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3594,43 +3232,38 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1052</v>
+        <v>1004</v>
       </c>
       <c r="C73" t="n">
-        <v>1040</v>
+        <v>1004</v>
       </c>
       <c r="D73" t="n">
-        <v>1052</v>
+        <v>1004</v>
       </c>
       <c r="E73" t="n">
-        <v>1040</v>
+        <v>1004</v>
       </c>
       <c r="F73" t="n">
-        <v>380.6762</v>
+        <v>144.7043</v>
       </c>
       <c r="G73" t="n">
-        <v>1037.533333333333</v>
+        <v>1307.997263194444</v>
       </c>
       <c r="H73" t="n">
-        <v>1009</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>1</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>984</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
-        <v>1.051910569105691</v>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -3638,36 +3271,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1042</v>
+        <v>1004</v>
       </c>
       <c r="C74" t="n">
-        <v>1042</v>
+        <v>1004</v>
       </c>
       <c r="D74" t="n">
-        <v>1042</v>
+        <v>1004</v>
       </c>
       <c r="E74" t="n">
-        <v>1042</v>
+        <v>1004</v>
       </c>
       <c r="F74" t="n">
-        <v>1225.4302</v>
+        <v>11.1654</v>
       </c>
       <c r="G74" t="n">
-        <v>1038.866666666667</v>
+        <v>1307.997263194444</v>
       </c>
       <c r="H74" t="n">
-        <v>1009.916666666667</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3676,36 +3310,37 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1042</v>
+        <v>1007</v>
       </c>
       <c r="C75" t="n">
-        <v>1040</v>
+        <v>1007</v>
       </c>
       <c r="D75" t="n">
-        <v>1042</v>
+        <v>1007</v>
       </c>
       <c r="E75" t="n">
-        <v>1040</v>
+        <v>1007</v>
       </c>
       <c r="F75" t="n">
-        <v>1468.0038</v>
+        <v>468.5451</v>
       </c>
       <c r="G75" t="n">
-        <v>1039.866666666667</v>
+        <v>1776.542363194444</v>
       </c>
       <c r="H75" t="n">
-        <v>1010.883333333333</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3714,36 +3349,37 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1043</v>
+        <v>1007</v>
       </c>
       <c r="C76" t="n">
-        <v>1042</v>
+        <v>1007</v>
       </c>
       <c r="D76" t="n">
-        <v>1043</v>
+        <v>1007</v>
       </c>
       <c r="E76" t="n">
-        <v>1042</v>
+        <v>1007</v>
       </c>
       <c r="F76" t="n">
-        <v>648.2537</v>
+        <v>654.8625</v>
       </c>
       <c r="G76" t="n">
-        <v>1041</v>
+        <v>1776.542363194444</v>
       </c>
       <c r="H76" t="n">
-        <v>1011.916666666667</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3752,36 +3388,37 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1044</v>
+        <v>1007</v>
       </c>
       <c r="C77" t="n">
-        <v>1044</v>
+        <v>1007</v>
       </c>
       <c r="D77" t="n">
-        <v>1044</v>
+        <v>1007</v>
       </c>
       <c r="E77" t="n">
-        <v>1044</v>
+        <v>1007</v>
       </c>
       <c r="F77" t="n">
-        <v>1468.0038</v>
+        <v>6.5389</v>
       </c>
       <c r="G77" t="n">
-        <v>1042.066666666667</v>
+        <v>1776.542363194444</v>
       </c>
       <c r="H77" t="n">
-        <v>1012.866666666667</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3790,36 +3427,37 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1055</v>
+        <v>1007</v>
       </c>
       <c r="C78" t="n">
-        <v>1055</v>
+        <v>1007</v>
       </c>
       <c r="D78" t="n">
-        <v>1055</v>
+        <v>1007</v>
       </c>
       <c r="E78" t="n">
-        <v>1055</v>
+        <v>1007</v>
       </c>
       <c r="F78" t="n">
-        <v>105.9185</v>
+        <v>1352.6154</v>
       </c>
       <c r="G78" t="n">
-        <v>1043.866666666667</v>
+        <v>1776.542363194444</v>
       </c>
       <c r="H78" t="n">
-        <v>1014.133333333333</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3828,36 +3466,37 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1046</v>
+        <v>1007</v>
       </c>
       <c r="C79" t="n">
-        <v>1058</v>
+        <v>1010</v>
       </c>
       <c r="D79" t="n">
-        <v>1058</v>
+        <v>1010</v>
       </c>
       <c r="E79" t="n">
-        <v>1046</v>
+        <v>1007</v>
       </c>
       <c r="F79" t="n">
-        <v>2027.3717</v>
+        <v>2203.7552</v>
       </c>
       <c r="G79" t="n">
-        <v>1045.733333333333</v>
+        <v>3980.297563194444</v>
       </c>
       <c r="H79" t="n">
-        <v>1015.3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>1</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3866,36 +3505,37 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1058</v>
+        <v>1011</v>
       </c>
       <c r="C80" t="n">
-        <v>1059</v>
+        <v>1013</v>
       </c>
       <c r="D80" t="n">
-        <v>1059</v>
+        <v>1013</v>
       </c>
       <c r="E80" t="n">
-        <v>1058</v>
+        <v>1011</v>
       </c>
       <c r="F80" t="n">
-        <v>584.5315000000001</v>
+        <v>210.1605</v>
       </c>
       <c r="G80" t="n">
-        <v>1047.8</v>
+        <v>4190.458063194444</v>
       </c>
       <c r="H80" t="n">
-        <v>1016.6</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>1</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3904,36 +3544,37 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1057</v>
+        <v>1013</v>
       </c>
       <c r="C81" t="n">
-        <v>1052</v>
+        <v>1015</v>
       </c>
       <c r="D81" t="n">
-        <v>1057</v>
+        <v>1015</v>
       </c>
       <c r="E81" t="n">
-        <v>1052</v>
+        <v>1013</v>
       </c>
       <c r="F81" t="n">
-        <v>449.8863</v>
+        <v>1538.5972</v>
       </c>
       <c r="G81" t="n">
-        <v>1048.533333333333</v>
+        <v>5729.055263194444</v>
       </c>
       <c r="H81" t="n">
-        <v>1017.683333333333</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>1</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3942,36 +3583,37 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1054</v>
+        <v>1015</v>
       </c>
       <c r="C82" t="n">
-        <v>1053</v>
+        <v>1015</v>
       </c>
       <c r="D82" t="n">
-        <v>1057</v>
+        <v>1015</v>
       </c>
       <c r="E82" t="n">
-        <v>1053</v>
+        <v>1015</v>
       </c>
       <c r="F82" t="n">
-        <v>878.7430000000001</v>
+        <v>17.2832</v>
       </c>
       <c r="G82" t="n">
-        <v>1049</v>
+        <v>5729.055263194444</v>
       </c>
       <c r="H82" t="n">
-        <v>1018.783333333333</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>1</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3980,36 +3622,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1057</v>
+        <v>1015</v>
       </c>
       <c r="C83" t="n">
-        <v>1052</v>
+        <v>1015</v>
       </c>
       <c r="D83" t="n">
-        <v>1057</v>
+        <v>1015</v>
       </c>
       <c r="E83" t="n">
-        <v>1052</v>
+        <v>1015</v>
       </c>
       <c r="F83" t="n">
-        <v>331.62</v>
+        <v>1.2021</v>
       </c>
       <c r="G83" t="n">
-        <v>1049.333333333333</v>
+        <v>5729.055263194444</v>
       </c>
       <c r="H83" t="n">
-        <v>1019.866666666667</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>1</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,36 +3661,37 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1052</v>
+        <v>1018</v>
       </c>
       <c r="C84" t="n">
-        <v>1052</v>
+        <v>1018</v>
       </c>
       <c r="D84" t="n">
-        <v>1052</v>
+        <v>1018</v>
       </c>
       <c r="E84" t="n">
-        <v>1052</v>
+        <v>1018</v>
       </c>
       <c r="F84" t="n">
-        <v>1.2393</v>
+        <v>14</v>
       </c>
       <c r="G84" t="n">
-        <v>1049.466666666667</v>
+        <v>5743.055263194444</v>
       </c>
       <c r="H84" t="n">
-        <v>1020.933333333333</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>1</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4056,36 +3700,37 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1050</v>
+        <v>1018</v>
       </c>
       <c r="C85" t="n">
-        <v>1050</v>
+        <v>1020</v>
       </c>
       <c r="D85" t="n">
-        <v>1050</v>
+        <v>1020</v>
       </c>
       <c r="E85" t="n">
-        <v>1050</v>
+        <v>1018</v>
       </c>
       <c r="F85" t="n">
-        <v>3.7128</v>
+        <v>53.8315</v>
       </c>
       <c r="G85" t="n">
-        <v>1049.733333333333</v>
+        <v>5796.886763194444</v>
       </c>
       <c r="H85" t="n">
-        <v>1021.966666666667</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>1</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4094,36 +3739,37 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1051</v>
+        <v>1020</v>
       </c>
       <c r="C86" t="n">
-        <v>1051</v>
+        <v>1021</v>
       </c>
       <c r="D86" t="n">
-        <v>1051</v>
+        <v>1021</v>
       </c>
       <c r="E86" t="n">
-        <v>1051</v>
+        <v>1020</v>
       </c>
       <c r="F86" t="n">
-        <v>329.6194</v>
+        <v>62</v>
       </c>
       <c r="G86" t="n">
-        <v>1049.4</v>
+        <v>5858.886763194444</v>
       </c>
       <c r="H86" t="n">
-        <v>1023</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>1</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4132,36 +3778,37 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1049</v>
+        <v>1021</v>
       </c>
       <c r="C87" t="n">
-        <v>1050</v>
+        <v>1021</v>
       </c>
       <c r="D87" t="n">
-        <v>1050</v>
+        <v>1021</v>
       </c>
       <c r="E87" t="n">
-        <v>1049</v>
+        <v>1021</v>
       </c>
       <c r="F87" t="n">
-        <v>202.8671</v>
+        <v>4.8747</v>
       </c>
       <c r="G87" t="n">
-        <v>1049.333333333333</v>
+        <v>5858.886763194444</v>
       </c>
       <c r="H87" t="n">
-        <v>1024.016666666667</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>1</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4170,36 +3817,37 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1045</v>
+        <v>1021</v>
       </c>
       <c r="C88" t="n">
-        <v>1042</v>
+        <v>1022</v>
       </c>
       <c r="D88" t="n">
-        <v>1045</v>
+        <v>1022</v>
       </c>
       <c r="E88" t="n">
-        <v>1042</v>
+        <v>1021</v>
       </c>
       <c r="F88" t="n">
-        <v>272.2119</v>
+        <v>207.5987</v>
       </c>
       <c r="G88" t="n">
-        <v>1049.466666666667</v>
+        <v>6066.485463194444</v>
       </c>
       <c r="H88" t="n">
-        <v>1024.883333333333</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>1</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4208,36 +3856,37 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1044</v>
+        <v>1023</v>
       </c>
       <c r="C89" t="n">
-        <v>1043</v>
+        <v>1025</v>
       </c>
       <c r="D89" t="n">
-        <v>1044</v>
+        <v>1025</v>
       </c>
       <c r="E89" t="n">
-        <v>1043</v>
+        <v>1023</v>
       </c>
       <c r="F89" t="n">
-        <v>441.9281</v>
+        <v>288.6718</v>
       </c>
       <c r="G89" t="n">
-        <v>1049.533333333333</v>
+        <v>6355.157263194444</v>
       </c>
       <c r="H89" t="n">
-        <v>1025.766666666667</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>1</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4246,36 +3895,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1045</v>
+        <v>1025</v>
       </c>
       <c r="C90" t="n">
-        <v>1052</v>
+        <v>1025</v>
       </c>
       <c r="D90" t="n">
-        <v>1052</v>
+        <v>1025</v>
       </c>
       <c r="E90" t="n">
-        <v>1045</v>
+        <v>1025</v>
       </c>
       <c r="F90" t="n">
-        <v>200.9649</v>
+        <v>861.7903</v>
       </c>
       <c r="G90" t="n">
-        <v>1050.333333333333</v>
+        <v>6355.157263194444</v>
       </c>
       <c r="H90" t="n">
-        <v>1026.766666666667</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>1</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4284,36 +3934,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1053</v>
+        <v>1025</v>
       </c>
       <c r="C91" t="n">
-        <v>1053</v>
+        <v>1028</v>
       </c>
       <c r="D91" t="n">
-        <v>1053</v>
+        <v>1029</v>
       </c>
       <c r="E91" t="n">
-        <v>1053</v>
+        <v>1025</v>
       </c>
       <c r="F91" t="n">
-        <v>689.6488000000001</v>
+        <v>1555.2175</v>
       </c>
       <c r="G91" t="n">
-        <v>1051.066666666667</v>
+        <v>7910.374763194443</v>
       </c>
       <c r="H91" t="n">
-        <v>1027.666666666667</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>1</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4322,36 +3973,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1053</v>
+        <v>1028</v>
       </c>
       <c r="C92" t="n">
-        <v>1053</v>
+        <v>1028</v>
       </c>
       <c r="D92" t="n">
-        <v>1053</v>
+        <v>1028</v>
       </c>
       <c r="E92" t="n">
-        <v>1053</v>
+        <v>1028</v>
       </c>
       <c r="F92" t="n">
-        <v>284.6641</v>
+        <v>28.931</v>
       </c>
       <c r="G92" t="n">
-        <v>1051.666666666667</v>
+        <v>7910.374763194443</v>
       </c>
       <c r="H92" t="n">
-        <v>1028.566666666667</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>1</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4360,36 +4012,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1048</v>
+        <v>1028</v>
       </c>
       <c r="C93" t="n">
-        <v>1047</v>
+        <v>1030</v>
       </c>
       <c r="D93" t="n">
-        <v>1048</v>
+        <v>1030</v>
       </c>
       <c r="E93" t="n">
-        <v>1047</v>
+        <v>1028</v>
       </c>
       <c r="F93" t="n">
-        <v>219.7906</v>
+        <v>595.8453</v>
       </c>
       <c r="G93" t="n">
-        <v>1051.133333333333</v>
+        <v>8506.220063194443</v>
       </c>
       <c r="H93" t="n">
-        <v>1029.35</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>1</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4398,36 +4051,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1047</v>
+        <v>1028</v>
       </c>
       <c r="C94" t="n">
-        <v>1048</v>
+        <v>1028</v>
       </c>
       <c r="D94" t="n">
-        <v>1048</v>
+        <v>1028</v>
       </c>
       <c r="E94" t="n">
-        <v>1047</v>
+        <v>1028</v>
       </c>
       <c r="F94" t="n">
-        <v>23.9629</v>
+        <v>415.3651</v>
       </c>
       <c r="G94" t="n">
-        <v>1050.466666666667</v>
+        <v>8090.854963194443</v>
       </c>
       <c r="H94" t="n">
-        <v>1030.15</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>1</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4436,36 +4090,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1040</v>
+        <v>1020</v>
       </c>
       <c r="C95" t="n">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D95" t="n">
-        <v>1040</v>
+        <v>1045</v>
       </c>
       <c r="E95" t="n">
-        <v>1040</v>
+        <v>1019</v>
       </c>
       <c r="F95" t="n">
-        <v>6</v>
+        <v>2937.3556</v>
       </c>
       <c r="G95" t="n">
-        <v>1049.2</v>
+        <v>11028.21056319444</v>
       </c>
       <c r="H95" t="n">
-        <v>1030.816666666667</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>1</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4474,36 +4129,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C96" t="n">
-        <v>1039</v>
+        <v>1046</v>
       </c>
       <c r="D96" t="n">
-        <v>1039</v>
+        <v>1046</v>
       </c>
       <c r="E96" t="n">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="F96" t="n">
-        <v>78.5754</v>
+        <v>2117.186382217973</v>
       </c>
       <c r="G96" t="n">
-        <v>1048.333333333333</v>
+        <v>13145.39694541242</v>
       </c>
       <c r="H96" t="n">
-        <v>1031.433333333333</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>1</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4512,36 +4168,37 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1039</v>
+        <v>1047</v>
       </c>
       <c r="C97" t="n">
-        <v>1039</v>
+        <v>1047</v>
       </c>
       <c r="D97" t="n">
-        <v>1039</v>
+        <v>1047</v>
       </c>
       <c r="E97" t="n">
-        <v>1039</v>
+        <v>1047</v>
       </c>
       <c r="F97" t="n">
-        <v>1.6571</v>
+        <v>447.918</v>
       </c>
       <c r="G97" t="n">
-        <v>1047.4</v>
+        <v>13593.31494541242</v>
       </c>
       <c r="H97" t="n">
-        <v>1032.05</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>1</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4550,36 +4207,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="C98" t="n">
-        <v>1039</v>
+        <v>1050</v>
       </c>
       <c r="D98" t="n">
-        <v>1039</v>
+        <v>1050</v>
       </c>
       <c r="E98" t="n">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="F98" t="n">
-        <v>466.0804</v>
+        <v>677.9824</v>
       </c>
       <c r="G98" t="n">
-        <v>1046.533333333333</v>
+        <v>14271.29734541242</v>
       </c>
       <c r="H98" t="n">
-        <v>1032.666666666667</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>1</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4588,36 +4246,37 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1039</v>
+        <v>1050</v>
       </c>
       <c r="C99" t="n">
-        <v>1039</v>
+        <v>1046</v>
       </c>
       <c r="D99" t="n">
-        <v>1039</v>
+        <v>1050</v>
       </c>
       <c r="E99" t="n">
-        <v>1039</v>
+        <v>1046</v>
       </c>
       <c r="F99" t="n">
-        <v>23.7437</v>
+        <v>1845.6438</v>
       </c>
       <c r="G99" t="n">
-        <v>1045.666666666667</v>
+        <v>12425.65354541242</v>
       </c>
       <c r="H99" t="n">
-        <v>1033.183333333333</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>1</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4626,36 +4285,37 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1044</v>
+        <v>1054</v>
       </c>
       <c r="C100" t="n">
-        <v>1044</v>
+        <v>1056</v>
       </c>
       <c r="D100" t="n">
-        <v>1045</v>
+        <v>1056</v>
       </c>
       <c r="E100" t="n">
-        <v>1044</v>
+        <v>1054</v>
       </c>
       <c r="F100" t="n">
-        <v>254.0493</v>
+        <v>1053.9807</v>
       </c>
       <c r="G100" t="n">
-        <v>1045.266666666667</v>
+        <v>13479.63424541242</v>
       </c>
       <c r="H100" t="n">
-        <v>1033.8</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4664,7 +4324,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1046</v>
+        <v>1051</v>
       </c>
       <c r="C101" t="n">
         <v>1051</v>
@@ -4673,27 +4333,28 @@
         <v>1051</v>
       </c>
       <c r="E101" t="n">
-        <v>1046</v>
+        <v>1051</v>
       </c>
       <c r="F101" t="n">
-        <v>1344.4263</v>
+        <v>30.6355</v>
       </c>
       <c r="G101" t="n">
-        <v>1045.266666666667</v>
+        <v>13448.99874541242</v>
       </c>
       <c r="H101" t="n">
-        <v>1034.716666666667</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4702,36 +4363,37 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C102" t="n">
-        <v>1051</v>
+        <v>1040</v>
       </c>
       <c r="D102" t="n">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="E102" t="n">
-        <v>1051</v>
+        <v>1040</v>
       </c>
       <c r="F102" t="n">
-        <v>7.8051</v>
+        <v>380.6762</v>
       </c>
       <c r="G102" t="n">
-        <v>1045.333333333333</v>
+        <v>13068.32254541242</v>
       </c>
       <c r="H102" t="n">
-        <v>1035.516666666667</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4740,36 +4402,37 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1051</v>
+        <v>1042</v>
       </c>
       <c r="C103" t="n">
-        <v>1057</v>
+        <v>1042</v>
       </c>
       <c r="D103" t="n">
-        <v>1057</v>
+        <v>1042</v>
       </c>
       <c r="E103" t="n">
-        <v>1051</v>
+        <v>1042</v>
       </c>
       <c r="F103" t="n">
-        <v>271.2757</v>
+        <v>1225.4302</v>
       </c>
       <c r="G103" t="n">
-        <v>1046.333333333333</v>
+        <v>14293.75274541242</v>
       </c>
       <c r="H103" t="n">
-        <v>1036.4</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>1</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4778,36 +4441,37 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1059</v>
+        <v>1042</v>
       </c>
       <c r="C104" t="n">
-        <v>1059</v>
+        <v>1040</v>
       </c>
       <c r="D104" t="n">
-        <v>1059</v>
+        <v>1042</v>
       </c>
       <c r="E104" t="n">
-        <v>1059</v>
+        <v>1040</v>
       </c>
       <c r="F104" t="n">
-        <v>871.4217</v>
+        <v>1468.0038</v>
       </c>
       <c r="G104" t="n">
-        <v>1047.4</v>
+        <v>12825.74894541242</v>
       </c>
       <c r="H104" t="n">
-        <v>1037.316666666667</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>1</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4816,36 +4480,37 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1062</v>
+        <v>1043</v>
       </c>
       <c r="C105" t="n">
-        <v>1062</v>
+        <v>1042</v>
       </c>
       <c r="D105" t="n">
-        <v>1062</v>
+        <v>1043</v>
       </c>
       <c r="E105" t="n">
-        <v>1062</v>
+        <v>1042</v>
       </c>
       <c r="F105" t="n">
-        <v>11.0542</v>
+        <v>648.2537</v>
       </c>
       <c r="G105" t="n">
-        <v>1048.066666666667</v>
+        <v>13474.00264541242</v>
       </c>
       <c r="H105" t="n">
-        <v>1038.283333333333</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>1</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4854,36 +4519,37 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1063</v>
+        <v>1044</v>
       </c>
       <c r="C106" t="n">
-        <v>1064</v>
+        <v>1044</v>
       </c>
       <c r="D106" t="n">
-        <v>1064</v>
+        <v>1044</v>
       </c>
       <c r="E106" t="n">
-        <v>1063</v>
+        <v>1044</v>
       </c>
       <c r="F106" t="n">
-        <v>636.9061</v>
+        <v>1468.0038</v>
       </c>
       <c r="G106" t="n">
-        <v>1048.8</v>
+        <v>14942.00644541242</v>
       </c>
       <c r="H106" t="n">
-        <v>1039.233333333333</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>1</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4892,36 +4558,37 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1064</v>
+        <v>1055</v>
       </c>
       <c r="C107" t="n">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="D107" t="n">
-        <v>1064</v>
+        <v>1055</v>
       </c>
       <c r="E107" t="n">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="F107" t="n">
-        <v>2511.1453</v>
+        <v>105.9185</v>
       </c>
       <c r="G107" t="n">
-        <v>1049.266666666667</v>
+        <v>15047.92494541242</v>
       </c>
       <c r="H107" t="n">
-        <v>1040.116666666667</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>1</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4930,36 +4597,37 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1060</v>
+        <v>1046</v>
       </c>
       <c r="C108" t="n">
         <v>1058</v>
       </c>
       <c r="D108" t="n">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="E108" t="n">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="F108" t="n">
-        <v>1518.9036</v>
+        <v>2027.3717</v>
       </c>
       <c r="G108" t="n">
-        <v>1050</v>
+        <v>17075.29664541242</v>
       </c>
       <c r="H108" t="n">
-        <v>1040.966666666667</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>1</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4971,33 +4639,34 @@
         <v>1058</v>
       </c>
       <c r="C109" t="n">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="D109" t="n">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="E109" t="n">
         <v>1058</v>
       </c>
       <c r="F109" t="n">
-        <v>50</v>
+        <v>584.5315000000001</v>
       </c>
       <c r="G109" t="n">
-        <v>1050.666666666667</v>
+        <v>17659.82814541242</v>
       </c>
       <c r="H109" t="n">
-        <v>1041.816666666667</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>1</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5006,36 +4675,37 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C110" t="n">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="D110" t="n">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E110" t="n">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="F110" t="n">
-        <v>47.8473</v>
+        <v>449.8863</v>
       </c>
       <c r="G110" t="n">
-        <v>1051.866666666667</v>
+        <v>17209.94184541242</v>
       </c>
       <c r="H110" t="n">
-        <v>1042.616666666667</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5044,36 +4714,1138 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>1054</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1053</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1057</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1053</v>
+      </c>
+      <c r="F111" t="n">
+        <v>878.7430000000001</v>
+      </c>
+      <c r="G111" t="n">
+        <v>18088.68484541242</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1057</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1052</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1057</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1052</v>
+      </c>
+      <c r="F112" t="n">
+        <v>331.62</v>
+      </c>
+      <c r="G112" t="n">
+        <v>17757.06484541242</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1052</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1052</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1052</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1052</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1.2393</v>
+      </c>
+      <c r="G113" t="n">
+        <v>17757.06484541242</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1050</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1050</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1050</v>
+      </c>
+      <c r="F114" t="n">
+        <v>3.7128</v>
+      </c>
+      <c r="G114" t="n">
+        <v>17753.35204541242</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1051</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1051</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1051</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1051</v>
+      </c>
+      <c r="F115" t="n">
+        <v>329.6194</v>
+      </c>
+      <c r="G115" t="n">
+        <v>18082.97144541242</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1049</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1050</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1049</v>
+      </c>
+      <c r="F116" t="n">
+        <v>202.8671</v>
+      </c>
+      <c r="G116" t="n">
+        <v>17880.10434541242</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1045</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1042</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1045</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1042</v>
+      </c>
+      <c r="F117" t="n">
+        <v>272.2119</v>
+      </c>
+      <c r="G117" t="n">
+        <v>17607.89244541242</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1044</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1043</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1044</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1043</v>
+      </c>
+      <c r="F118" t="n">
+        <v>441.9281</v>
+      </c>
+      <c r="G118" t="n">
+        <v>18049.82054541242</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1045</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1052</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1052</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1045</v>
+      </c>
+      <c r="F119" t="n">
+        <v>200.9649</v>
+      </c>
+      <c r="G119" t="n">
+        <v>18250.78544541242</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1053</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1053</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1053</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1053</v>
+      </c>
+      <c r="F120" t="n">
+        <v>689.6488000000001</v>
+      </c>
+      <c r="G120" t="n">
+        <v>18940.43424541242</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1053</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1053</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1053</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1053</v>
+      </c>
+      <c r="F121" t="n">
+        <v>284.6641</v>
+      </c>
+      <c r="G121" t="n">
+        <v>18940.43424541242</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1048</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1047</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1048</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1047</v>
+      </c>
+      <c r="F122" t="n">
+        <v>219.7906</v>
+      </c>
+      <c r="G122" t="n">
+        <v>18720.64364541242</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1047</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1048</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1048</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1047</v>
+      </c>
+      <c r="F123" t="n">
+        <v>23.9629</v>
+      </c>
+      <c r="G123" t="n">
+        <v>18744.60654541242</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1040</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1040</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1040</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1040</v>
+      </c>
+      <c r="F124" t="n">
+        <v>6</v>
+      </c>
+      <c r="G124" t="n">
+        <v>18738.60654541242</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1039</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1039</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1039</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1039</v>
+      </c>
+      <c r="F125" t="n">
+        <v>78.5754</v>
+      </c>
+      <c r="G125" t="n">
+        <v>18660.03114541242</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1039</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1039</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1039</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1039</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1.6571</v>
+      </c>
+      <c r="G126" t="n">
+        <v>18660.03114541242</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1039</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1039</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1039</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1039</v>
+      </c>
+      <c r="F127" t="n">
+        <v>466.0804</v>
+      </c>
+      <c r="G127" t="n">
+        <v>18660.03114541242</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1039</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1039</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1039</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1039</v>
+      </c>
+      <c r="F128" t="n">
+        <v>23.7437</v>
+      </c>
+      <c r="G128" t="n">
+        <v>18660.03114541242</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1044</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1044</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1045</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1044</v>
+      </c>
+      <c r="F129" t="n">
+        <v>254.0493</v>
+      </c>
+      <c r="G129" t="n">
+        <v>18914.08044541242</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1046</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1051</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1051</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1046</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1344.4263</v>
+      </c>
+      <c r="G130" t="n">
+        <v>20258.50674541241</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1051</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1051</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1051</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1051</v>
+      </c>
+      <c r="F131" t="n">
+        <v>7.8051</v>
+      </c>
+      <c r="G131" t="n">
+        <v>20258.50674541241</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1051</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1057</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1057</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1051</v>
+      </c>
+      <c r="F132" t="n">
+        <v>271.2757</v>
+      </c>
+      <c r="G132" t="n">
+        <v>20529.78244541241</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1059</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1059</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1059</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1059</v>
+      </c>
+      <c r="F133" t="n">
+        <v>871.4217</v>
+      </c>
+      <c r="G133" t="n">
+        <v>21401.20414541241</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1062</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1062</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1062</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1062</v>
+      </c>
+      <c r="F134" t="n">
+        <v>11.0542</v>
+      </c>
+      <c r="G134" t="n">
+        <v>21412.25834541241</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1063</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1064</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1064</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1063</v>
+      </c>
+      <c r="F135" t="n">
+        <v>636.9061</v>
+      </c>
+      <c r="G135" t="n">
+        <v>22049.16444541241</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1064</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1060</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1064</v>
+      </c>
+      <c r="E136" t="n">
         <v>1058</v>
       </c>
-      <c r="C111" t="n">
+      <c r="F136" t="n">
+        <v>2511.1453</v>
+      </c>
+      <c r="G136" t="n">
+        <v>19538.01914541241</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1060</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1058</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1065</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1049</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1518.9036</v>
+      </c>
+      <c r="G137" t="n">
+        <v>18019.11554541241</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1058</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1058</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1058</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1058</v>
+      </c>
+      <c r="F138" t="n">
+        <v>50</v>
+      </c>
+      <c r="G138" t="n">
+        <v>18019.11554541241</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1058</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1058</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1058</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1058</v>
+      </c>
+      <c r="F139" t="n">
+        <v>47.8473</v>
+      </c>
+      <c r="G139" t="n">
+        <v>18019.11554541241</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1058</v>
+      </c>
+      <c r="C140" t="n">
         <v>1063</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D140" t="n">
         <v>1063</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E140" t="n">
         <v>1058</v>
       </c>
-      <c r="F111" t="n">
+      <c r="F140" t="n">
         <v>291.1185</v>
       </c>
-      <c r="G111" t="n">
-        <v>1053.466666666667</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1043.45</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>1</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="G140" t="n">
+        <v>18310.23404541241</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-27 BackTest OMG.xlsx
+++ b/BackTest/2019-10-27 BackTest OMG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M140"/>
+  <dimension ref="A1:N140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,7 +453,7 @@
         <v>959.712</v>
       </c>
       <c r="G2" t="n">
-        <v>-5924.277400000001</v>
+        <v>983.3333333333334</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,7 +489,7 @@
         <v>552.505</v>
       </c>
       <c r="G3" t="n">
-        <v>-5371.772400000001</v>
+        <v>982.6666666666666</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -503,6 +509,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -524,7 +531,7 @@
         <v>12.1</v>
       </c>
       <c r="G4" t="n">
-        <v>-5359.6724</v>
+        <v>982.3333333333334</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -542,6 +549,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -563,7 +571,7 @@
         <v>612.569</v>
       </c>
       <c r="G5" t="n">
-        <v>-5972.241400000001</v>
+        <v>981.3333333333334</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -581,6 +589,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,7 +611,7 @@
         <v>15.4696</v>
       </c>
       <c r="G6" t="n">
-        <v>-5972.241400000001</v>
+        <v>979.3333333333334</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,6 +629,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -641,7 +651,7 @@
         <v>38.0944</v>
       </c>
       <c r="G7" t="n">
-        <v>-5934.147000000001</v>
+        <v>977.3333333333334</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -659,6 +669,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -680,7 +691,7 @@
         <v>150.6593</v>
       </c>
       <c r="G8" t="n">
-        <v>-6084.806300000001</v>
+        <v>977.3333333333334</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -698,6 +709,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -719,7 +731,7 @@
         <v>2.4787</v>
       </c>
       <c r="G9" t="n">
-        <v>-6084.806300000001</v>
+        <v>977.3333333333334</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -737,6 +749,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -758,7 +771,7 @@
         <v>3.3948</v>
       </c>
       <c r="G10" t="n">
-        <v>-6084.806300000001</v>
+        <v>977</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -776,6 +789,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -797,7 +811,7 @@
         <v>2.0342</v>
       </c>
       <c r="G11" t="n">
-        <v>-6084.806300000001</v>
+        <v>977</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -815,6 +829,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -836,7 +851,7 @@
         <v>16.4</v>
       </c>
       <c r="G12" t="n">
-        <v>-6084.806300000001</v>
+        <v>977</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -854,6 +869,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -875,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>-6083.806300000001</v>
+        <v>977.6666666666666</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -893,6 +909,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -914,7 +931,7 @@
         <v>262.7167</v>
       </c>
       <c r="G14" t="n">
-        <v>-5821.089600000001</v>
+        <v>979</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -932,6 +949,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -953,7 +971,7 @@
         <v>636.2447</v>
       </c>
       <c r="G15" t="n">
-        <v>-5184.844900000001</v>
+        <v>981</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -971,6 +989,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -992,7 +1011,7 @@
         <v>2.0387</v>
       </c>
       <c r="G16" t="n">
-        <v>-5186.883600000001</v>
+        <v>981.6666666666666</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1010,6 +1029,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1031,7 +1051,7 @@
         <v>50</v>
       </c>
       <c r="G17" t="n">
-        <v>-5236.883600000001</v>
+        <v>981.3333333333334</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1049,6 +1069,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1070,7 +1091,7 @@
         <v>97.96250000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>-5138.921100000001</v>
+        <v>980.6666666666666</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1088,6 +1109,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1109,7 +1131,7 @@
         <v>194.7607</v>
       </c>
       <c r="G19" t="n">
-        <v>-5138.921100000001</v>
+        <v>980.6666666666666</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1127,6 +1149,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1148,7 +1171,7 @@
         <v>8.1821</v>
       </c>
       <c r="G20" t="n">
-        <v>-5138.921100000001</v>
+        <v>981</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1166,6 +1189,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1187,7 +1211,7 @@
         <v>50</v>
       </c>
       <c r="G21" t="n">
-        <v>-5188.921100000001</v>
+        <v>980.3333333333334</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1205,6 +1229,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1226,7 +1251,7 @@
         <v>250.9041</v>
       </c>
       <c r="G22" t="n">
-        <v>-5439.825200000001</v>
+        <v>979.3333333333334</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1244,6 +1269,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1265,7 +1291,7 @@
         <v>1029.4067</v>
       </c>
       <c r="G23" t="n">
-        <v>-6469.231900000001</v>
+        <v>978</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1283,6 +1309,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1304,7 +1331,7 @@
         <v>56.6016</v>
       </c>
       <c r="G24" t="n">
-        <v>-6412.630300000001</v>
+        <v>979.6666666666666</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1322,6 +1349,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1343,7 +1371,7 @@
         <v>33.3218</v>
       </c>
       <c r="G25" t="n">
-        <v>-6445.9521</v>
+        <v>981</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1361,6 +1389,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1382,7 +1411,7 @@
         <v>188.3645</v>
       </c>
       <c r="G26" t="n">
-        <v>-6445.9521</v>
+        <v>982.6666666666666</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1400,6 +1429,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1421,7 +1451,7 @@
         <v>665.0402</v>
       </c>
       <c r="G27" t="n">
-        <v>-5780.9119</v>
+        <v>982.3333333333334</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1439,6 +1469,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1460,7 +1491,7 @@
         <v>478.6138</v>
       </c>
       <c r="G28" t="n">
-        <v>-5780.9119</v>
+        <v>982.6666666666666</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1478,6 +1509,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1499,7 +1531,7 @@
         <v>1045.1708</v>
       </c>
       <c r="G29" t="n">
-        <v>-4735.7411</v>
+        <v>983.3333333333334</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1517,6 +1549,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1538,7 +1571,7 @@
         <v>1.7732</v>
       </c>
       <c r="G30" t="n">
-        <v>-4735.7411</v>
+        <v>983.6666666666666</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1556,6 +1589,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1577,7 +1611,7 @@
         <v>220.5</v>
       </c>
       <c r="G31" t="n">
-        <v>-4735.7411</v>
+        <v>984</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1595,6 +1629,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1616,7 +1651,7 @@
         <v>24.8822</v>
       </c>
       <c r="G32" t="n">
-        <v>-4735.7411</v>
+        <v>984</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1634,6 +1669,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1655,7 +1691,7 @@
         <v>3.6877</v>
       </c>
       <c r="G33" t="n">
-        <v>-4735.7411</v>
+        <v>984</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1673,6 +1709,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1694,7 +1731,7 @@
         <v>8.726000000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>-4727.015100000001</v>
+        <v>984.3333333333334</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1712,6 +1749,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1733,7 +1771,7 @@
         <v>3</v>
       </c>
       <c r="G35" t="n">
-        <v>-4724.015100000001</v>
+        <v>985.3333333333334</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1751,6 +1789,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1772,7 +1811,7 @@
         <v>319.5</v>
       </c>
       <c r="G36" t="n">
-        <v>-5043.515100000001</v>
+        <v>986</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1790,6 +1829,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1811,7 +1851,7 @@
         <v>74.76009999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>-5118.275200000001</v>
+        <v>986</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1829,6 +1869,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1850,7 +1891,7 @@
         <v>15.7195</v>
       </c>
       <c r="G38" t="n">
-        <v>-5102.555700000001</v>
+        <v>985.6666666666666</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1868,6 +1909,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1889,7 +1931,7 @@
         <v>7.7443</v>
       </c>
       <c r="G39" t="n">
-        <v>-5102.555700000001</v>
+        <v>985.6666666666666</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1907,6 +1949,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1928,7 +1971,7 @@
         <v>46.4917</v>
       </c>
       <c r="G40" t="n">
-        <v>-5102.555700000001</v>
+        <v>986</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1946,6 +1989,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1967,7 +2011,7 @@
         <v>47.947</v>
       </c>
       <c r="G41" t="n">
-        <v>-5054.608700000001</v>
+        <v>986.3333333333334</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1985,6 +2029,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2006,7 +2051,7 @@
         <v>38.8</v>
       </c>
       <c r="G42" t="n">
-        <v>-5093.408700000001</v>
+        <v>986.3333333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2024,6 +2069,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2045,7 +2091,7 @@
         <v>172.4512</v>
       </c>
       <c r="G43" t="n">
-        <v>-4920.9575</v>
+        <v>986.6666666666666</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2063,6 +2109,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2084,7 +2131,7 @@
         <v>3</v>
       </c>
       <c r="G44" t="n">
-        <v>-4923.9575</v>
+        <v>985</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2102,6 +2149,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2123,7 +2171,7 @@
         <v>2.7272</v>
       </c>
       <c r="G45" t="n">
-        <v>-4926.684700000001</v>
+        <v>983</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
@@ -2143,6 +2191,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2164,7 +2213,7 @@
         <v>89.5</v>
       </c>
       <c r="G46" t="n">
-        <v>-4837.184700000001</v>
+        <v>983</v>
       </c>
       <c r="H46" t="n">
         <v>1</v>
@@ -2184,6 +2233,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2205,7 +2255,7 @@
         <v>934.9802</v>
       </c>
       <c r="G47" t="n">
-        <v>-5772.164900000001</v>
+        <v>982</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2223,6 +2273,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2244,7 +2295,7 @@
         <v>182</v>
       </c>
       <c r="G48" t="n">
-        <v>-5590.164900000001</v>
+        <v>984.6666666666666</v>
       </c>
       <c r="H48" t="n">
         <v>1</v>
@@ -2264,6 +2315,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2285,7 +2337,7 @@
         <v>50.0288</v>
       </c>
       <c r="G49" t="n">
-        <v>-5640.193700000001</v>
+        <v>982.6666666666666</v>
       </c>
       <c r="H49" t="n">
         <v>1</v>
@@ -2305,6 +2357,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2326,7 +2379,7 @@
         <v>42.431</v>
       </c>
       <c r="G50" t="n">
-        <v>-5597.762700000001</v>
+        <v>985.3333333333334</v>
       </c>
       <c r="H50" t="n">
         <v>1</v>
@@ -2346,6 +2399,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2367,7 +2421,7 @@
         <v>6.3335</v>
       </c>
       <c r="G51" t="n">
-        <v>-5597.762700000001</v>
+        <v>985</v>
       </c>
       <c r="H51" t="n">
         <v>1</v>
@@ -2387,6 +2441,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2408,7 +2463,7 @@
         <v>377.8027</v>
       </c>
       <c r="G52" t="n">
-        <v>-5597.762700000001</v>
+        <v>987</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
@@ -2428,6 +2483,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2449,7 +2505,7 @@
         <v>2.5746</v>
       </c>
       <c r="G53" t="n">
-        <v>-5595.188100000001</v>
+        <v>987.3333333333334</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
@@ -2469,6 +2525,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2490,7 +2547,7 @@
         <v>44.2215</v>
       </c>
       <c r="G54" t="n">
-        <v>-5595.188100000001</v>
+        <v>987.6666666666666</v>
       </c>
       <c r="H54" t="n">
         <v>1</v>
@@ -2510,6 +2567,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2531,7 +2589,7 @@
         <v>350.0521</v>
       </c>
       <c r="G55" t="n">
-        <v>-5245.136000000001</v>
+        <v>988.3333333333334</v>
       </c>
       <c r="H55" t="n">
         <v>1</v>
@@ -2551,6 +2609,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2572,7 +2631,7 @@
         <v>300.0018</v>
       </c>
       <c r="G56" t="n">
-        <v>-5245.136000000001</v>
+        <v>988.6666666666666</v>
       </c>
       <c r="H56" t="n">
         <v>1</v>
@@ -2592,6 +2651,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2613,7 +2673,7 @@
         <v>3.3144</v>
       </c>
       <c r="G57" t="n">
-        <v>-5241.821600000001</v>
+        <v>989.3333333333334</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2631,6 +2691,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2652,7 +2713,7 @@
         <v>96.1442</v>
       </c>
       <c r="G58" t="n">
-        <v>-5241.821600000001</v>
+        <v>989.6666666666666</v>
       </c>
       <c r="H58" t="n">
         <v>1</v>
@@ -2672,6 +2733,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2693,7 +2755,7 @@
         <v>779.3949</v>
       </c>
       <c r="G59" t="n">
-        <v>-4462.426700000001</v>
+        <v>990.6666666666666</v>
       </c>
       <c r="H59" t="n">
         <v>1</v>
@@ -2713,6 +2775,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2734,7 +2797,7 @@
         <v>1682.6839</v>
       </c>
       <c r="G60" t="n">
-        <v>-2779.742800000001</v>
+        <v>993.6666666666666</v>
       </c>
       <c r="H60" t="n">
         <v>1</v>
@@ -2754,6 +2817,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2775,7 +2839,7 @@
         <v>282.2377</v>
       </c>
       <c r="G61" t="n">
-        <v>-2779.742800000001</v>
+        <v>996.6666666666666</v>
       </c>
       <c r="H61" t="n">
         <v>1</v>
@@ -2795,6 +2859,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2816,7 +2881,7 @@
         <v>1850.9596</v>
       </c>
       <c r="G62" t="n">
-        <v>-928.783200000001</v>
+        <v>999.3333333333334</v>
       </c>
       <c r="H62" t="n">
         <v>1</v>
@@ -2836,6 +2901,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2857,7 +2923,7 @@
         <v>524.3314</v>
       </c>
       <c r="G63" t="n">
-        <v>-928.783200000001</v>
+        <v>999.6666666666666</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2875,6 +2941,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2896,7 +2963,7 @@
         <v>573.9779</v>
       </c>
       <c r="G64" t="n">
-        <v>-928.783200000001</v>
+        <v>1000</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2914,6 +2981,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2935,7 +3003,7 @@
         <v>2032.9401</v>
       </c>
       <c r="G65" t="n">
-        <v>1104.156899999999</v>
+        <v>1000.666666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2953,6 +3021,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2974,7 +3043,7 @@
         <v>335.311</v>
       </c>
       <c r="G66" t="n">
-        <v>1104.156899999999</v>
+        <v>1001.333333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2992,6 +3061,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3013,7 +3083,7 @@
         <v>111.477</v>
       </c>
       <c r="G67" t="n">
-        <v>1104.156899999999</v>
+        <v>1002</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3031,6 +3101,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3052,7 +3123,7 @@
         <v>938.1069631944445</v>
       </c>
       <c r="G68" t="n">
-        <v>2042.263863194444</v>
+        <v>1004</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3070,6 +3141,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3091,7 +3163,7 @@
         <v>1.4583</v>
       </c>
       <c r="G69" t="n">
-        <v>2040.805563194443</v>
+        <v>1005.666666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3109,6 +3181,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3130,7 +3203,7 @@
         <v>1075.0456</v>
       </c>
       <c r="G70" t="n">
-        <v>965.7599631944436</v>
+        <v>1003.666666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3148,6 +3221,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3169,7 +3243,7 @@
         <v>20.672</v>
       </c>
       <c r="G71" t="n">
-        <v>986.4319631944436</v>
+        <v>1002</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3187,6 +3261,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3208,7 +3283,7 @@
         <v>321.5653</v>
       </c>
       <c r="G72" t="n">
-        <v>1307.997263194444</v>
+        <v>1001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3226,6 +3301,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3247,7 +3323,7 @@
         <v>144.7043</v>
       </c>
       <c r="G73" t="n">
-        <v>1307.997263194444</v>
+        <v>1003.666666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3265,6 +3341,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3286,7 +3363,7 @@
         <v>11.1654</v>
       </c>
       <c r="G74" t="n">
-        <v>1307.997263194444</v>
+        <v>1004</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3304,6 +3381,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3325,7 +3403,7 @@
         <v>468.5451</v>
       </c>
       <c r="G75" t="n">
-        <v>1776.542363194444</v>
+        <v>1005</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3343,6 +3421,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3364,7 +3443,7 @@
         <v>654.8625</v>
       </c>
       <c r="G76" t="n">
-        <v>1776.542363194444</v>
+        <v>1006</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3382,6 +3461,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3403,7 +3483,7 @@
         <v>6.5389</v>
       </c>
       <c r="G77" t="n">
-        <v>1776.542363194444</v>
+        <v>1007</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3421,6 +3501,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3442,7 +3523,7 @@
         <v>1352.6154</v>
       </c>
       <c r="G78" t="n">
-        <v>1776.542363194444</v>
+        <v>1007</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3460,6 +3541,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3481,7 +3563,7 @@
         <v>2203.7552</v>
       </c>
       <c r="G79" t="n">
-        <v>3980.297563194444</v>
+        <v>1008</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3499,6 +3581,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3520,7 +3603,7 @@
         <v>210.1605</v>
       </c>
       <c r="G80" t="n">
-        <v>4190.458063194444</v>
+        <v>1010</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3538,6 +3621,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3559,7 +3643,7 @@
         <v>1538.5972</v>
       </c>
       <c r="G81" t="n">
-        <v>5729.055263194444</v>
+        <v>1012.666666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3577,6 +3661,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3598,7 +3683,7 @@
         <v>17.2832</v>
       </c>
       <c r="G82" t="n">
-        <v>5729.055263194444</v>
+        <v>1014.333333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3616,6 +3701,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3637,7 +3723,7 @@
         <v>1.2021</v>
       </c>
       <c r="G83" t="n">
-        <v>5729.055263194444</v>
+        <v>1015</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3655,6 +3741,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3676,7 +3763,7 @@
         <v>14</v>
       </c>
       <c r="G84" t="n">
-        <v>5743.055263194444</v>
+        <v>1016</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3694,6 +3781,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3715,7 +3803,7 @@
         <v>53.8315</v>
       </c>
       <c r="G85" t="n">
-        <v>5796.886763194444</v>
+        <v>1017.666666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3733,6 +3821,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3754,7 +3843,7 @@
         <v>62</v>
       </c>
       <c r="G86" t="n">
-        <v>5858.886763194444</v>
+        <v>1019.666666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3772,6 +3861,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3793,7 +3883,7 @@
         <v>4.8747</v>
       </c>
       <c r="G87" t="n">
-        <v>5858.886763194444</v>
+        <v>1020.666666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3811,6 +3901,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3832,7 +3923,7 @@
         <v>207.5987</v>
       </c>
       <c r="G88" t="n">
-        <v>6066.485463194444</v>
+        <v>1021.333333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3850,6 +3941,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3871,7 +3963,7 @@
         <v>288.6718</v>
       </c>
       <c r="G89" t="n">
-        <v>6355.157263194444</v>
+        <v>1022.666666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3889,6 +3981,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3910,7 +4003,7 @@
         <v>861.7903</v>
       </c>
       <c r="G90" t="n">
-        <v>6355.157263194444</v>
+        <v>1024</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3928,6 +4021,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3949,7 +4043,7 @@
         <v>1555.2175</v>
       </c>
       <c r="G91" t="n">
-        <v>7910.374763194443</v>
+        <v>1026</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3967,6 +4061,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3988,7 +4083,7 @@
         <v>28.931</v>
       </c>
       <c r="G92" t="n">
-        <v>7910.374763194443</v>
+        <v>1027</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4006,6 +4101,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4027,7 +4123,7 @@
         <v>595.8453</v>
       </c>
       <c r="G93" t="n">
-        <v>8506.220063194443</v>
+        <v>1028.666666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4045,6 +4141,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4066,7 +4163,7 @@
         <v>415.3651</v>
       </c>
       <c r="G94" t="n">
-        <v>8090.854963194443</v>
+        <v>1028.666666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4084,6 +4181,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4105,7 +4203,7 @@
         <v>2937.3556</v>
       </c>
       <c r="G95" t="n">
-        <v>11028.21056319444</v>
+        <v>1033</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4123,6 +4221,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4144,7 +4243,7 @@
         <v>2117.186382217973</v>
       </c>
       <c r="G96" t="n">
-        <v>13145.39694541242</v>
+        <v>1038.333333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4162,6 +4261,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4183,7 +4283,7 @@
         <v>447.918</v>
       </c>
       <c r="G97" t="n">
-        <v>13593.31494541242</v>
+        <v>1044.666666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4201,6 +4301,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4222,7 +4323,7 @@
         <v>677.9824</v>
       </c>
       <c r="G98" t="n">
-        <v>14271.29734541242</v>
+        <v>1047.666666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4240,6 +4341,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4261,7 +4363,7 @@
         <v>1845.6438</v>
       </c>
       <c r="G99" t="n">
-        <v>12425.65354541242</v>
+        <v>1047.666666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4279,6 +4381,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4300,7 +4403,7 @@
         <v>1053.9807</v>
       </c>
       <c r="G100" t="n">
-        <v>13479.63424541242</v>
+        <v>1050.666666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4318,6 +4421,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4339,7 +4443,7 @@
         <v>30.6355</v>
       </c>
       <c r="G101" t="n">
-        <v>13448.99874541242</v>
+        <v>1051</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4357,6 +4461,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4378,7 +4483,7 @@
         <v>380.6762</v>
       </c>
       <c r="G102" t="n">
-        <v>13068.32254541242</v>
+        <v>1049</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4396,6 +4501,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4417,7 +4523,7 @@
         <v>1225.4302</v>
       </c>
       <c r="G103" t="n">
-        <v>14293.75274541242</v>
+        <v>1044.333333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4435,6 +4541,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4456,7 +4563,7 @@
         <v>1468.0038</v>
       </c>
       <c r="G104" t="n">
-        <v>12825.74894541242</v>
+        <v>1040.666666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4474,6 +4581,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4495,7 +4603,7 @@
         <v>648.2537</v>
       </c>
       <c r="G105" t="n">
-        <v>13474.00264541242</v>
+        <v>1041.333333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4513,6 +4621,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4534,7 +4643,7 @@
         <v>1468.0038</v>
       </c>
       <c r="G106" t="n">
-        <v>14942.00644541242</v>
+        <v>1042</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4552,6 +4661,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4573,7 +4683,7 @@
         <v>105.9185</v>
       </c>
       <c r="G107" t="n">
-        <v>15047.92494541242</v>
+        <v>1047</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4591,6 +4701,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4612,7 +4723,7 @@
         <v>2027.3717</v>
       </c>
       <c r="G108" t="n">
-        <v>17075.29664541242</v>
+        <v>1052.333333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4630,6 +4741,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4651,7 +4763,7 @@
         <v>584.5315000000001</v>
       </c>
       <c r="G109" t="n">
-        <v>17659.82814541242</v>
+        <v>1057.333333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4669,6 +4781,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4690,7 +4803,7 @@
         <v>449.8863</v>
       </c>
       <c r="G110" t="n">
-        <v>17209.94184541242</v>
+        <v>1056.333333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4708,6 +4821,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4729,7 +4843,7 @@
         <v>878.7430000000001</v>
       </c>
       <c r="G111" t="n">
-        <v>18088.68484541242</v>
+        <v>1054.666666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4747,6 +4861,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4768,22 +4883,23 @@
         <v>331.62</v>
       </c>
       <c r="G112" t="n">
-        <v>17757.06484541242</v>
+        <v>1052.333333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4807,24 +4923,21 @@
         <v>1.2393</v>
       </c>
       <c r="G113" t="n">
-        <v>17757.06484541242</v>
+        <v>1052.333333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4846,24 +4959,21 @@
         <v>3.7128</v>
       </c>
       <c r="G114" t="n">
-        <v>17753.35204541242</v>
+        <v>1051.333333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4885,24 +4995,21 @@
         <v>329.6194</v>
       </c>
       <c r="G115" t="n">
-        <v>18082.97144541242</v>
+        <v>1051</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4924,24 +5031,21 @@
         <v>202.8671</v>
       </c>
       <c r="G116" t="n">
-        <v>17880.10434541242</v>
+        <v>1050.333333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4963,24 +5067,21 @@
         <v>272.2119</v>
       </c>
       <c r="G117" t="n">
-        <v>17607.89244541242</v>
+        <v>1047.666666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5002,7 +5103,7 @@
         <v>441.9281</v>
       </c>
       <c r="G118" t="n">
-        <v>18049.82054541242</v>
+        <v>1045</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5012,14 +5113,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5041,24 +5139,21 @@
         <v>200.9649</v>
       </c>
       <c r="G119" t="n">
-        <v>18250.78544541242</v>
+        <v>1045.666666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5080,24 +5175,21 @@
         <v>689.6488000000001</v>
       </c>
       <c r="G120" t="n">
-        <v>18940.43424541242</v>
+        <v>1049.333333333333</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5119,24 +5211,21 @@
         <v>284.6641</v>
       </c>
       <c r="G121" t="n">
-        <v>18940.43424541242</v>
+        <v>1052.666666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5158,24 +5247,21 @@
         <v>219.7906</v>
       </c>
       <c r="G122" t="n">
-        <v>18720.64364541242</v>
+        <v>1051</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5197,24 +5283,21 @@
         <v>23.9629</v>
       </c>
       <c r="G123" t="n">
-        <v>18744.60654541242</v>
+        <v>1049.333333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5236,24 +5319,21 @@
         <v>6</v>
       </c>
       <c r="G124" t="n">
-        <v>18738.60654541242</v>
+        <v>1045</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5275,24 +5355,21 @@
         <v>78.5754</v>
       </c>
       <c r="G125" t="n">
-        <v>18660.03114541242</v>
+        <v>1042.333333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5314,7 +5391,7 @@
         <v>1.6571</v>
       </c>
       <c r="G126" t="n">
-        <v>18660.03114541242</v>
+        <v>1039.333333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5324,14 +5401,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5353,24 +5427,21 @@
         <v>466.0804</v>
       </c>
       <c r="G127" t="n">
-        <v>18660.03114541242</v>
+        <v>1039</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5392,7 +5463,7 @@
         <v>23.7437</v>
       </c>
       <c r="G128" t="n">
-        <v>18660.03114541242</v>
+        <v>1039</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5402,14 +5473,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5431,24 +5499,21 @@
         <v>254.0493</v>
       </c>
       <c r="G129" t="n">
-        <v>18914.08044541242</v>
+        <v>1040.666666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5470,24 +5535,21 @@
         <v>1344.4263</v>
       </c>
       <c r="G130" t="n">
-        <v>20258.50674541241</v>
+        <v>1044.666666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5509,24 +5571,21 @@
         <v>7.8051</v>
       </c>
       <c r="G131" t="n">
-        <v>20258.50674541241</v>
+        <v>1048.666666666667</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5548,24 +5607,21 @@
         <v>271.2757</v>
       </c>
       <c r="G132" t="n">
-        <v>20529.78244541241</v>
+        <v>1053</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5587,7 +5643,7 @@
         <v>871.4217</v>
       </c>
       <c r="G133" t="n">
-        <v>21401.20414541241</v>
+        <v>1055.666666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5597,12 +5653,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5624,7 +5679,7 @@
         <v>11.0542</v>
       </c>
       <c r="G134" t="n">
-        <v>21412.25834541241</v>
+        <v>1059.333333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5638,6 +5693,7 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5659,7 +5715,7 @@
         <v>636.9061</v>
       </c>
       <c r="G135" t="n">
-        <v>22049.16444541241</v>
+        <v>1061.666666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5673,6 +5729,7 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5694,7 +5751,7 @@
         <v>2511.1453</v>
       </c>
       <c r="G136" t="n">
-        <v>19538.01914541241</v>
+        <v>1062</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5708,6 +5765,7 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5729,7 +5787,7 @@
         <v>1518.9036</v>
       </c>
       <c r="G137" t="n">
-        <v>18019.11554541241</v>
+        <v>1060.666666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5743,6 +5801,7 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5764,7 +5823,7 @@
         <v>50</v>
       </c>
       <c r="G138" t="n">
-        <v>18019.11554541241</v>
+        <v>1058.666666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5778,6 +5837,7 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5799,7 +5859,7 @@
         <v>47.8473</v>
       </c>
       <c r="G139" t="n">
-        <v>18019.11554541241</v>
+        <v>1058</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5813,6 +5873,7 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5834,7 +5895,7 @@
         <v>291.1185</v>
       </c>
       <c r="G140" t="n">
-        <v>18310.23404541241</v>
+        <v>1059.666666666667</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5848,6 +5909,7 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-27 BackTest OMG.xlsx
+++ b/BackTest/2019-10-27 BackTest OMG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N140"/>
+  <dimension ref="A1:N169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>980</v>
+        <v>967</v>
       </c>
       <c r="C2" t="n">
-        <v>980</v>
+        <v>967</v>
       </c>
       <c r="D2" t="n">
-        <v>980</v>
+        <v>967</v>
       </c>
       <c r="E2" t="n">
-        <v>980</v>
+        <v>967</v>
       </c>
       <c r="F2" t="n">
-        <v>959.712</v>
+        <v>16.7687</v>
       </c>
       <c r="G2" t="n">
-        <v>983.3333333333334</v>
+        <v>449.6988000000002</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>979</v>
+        <v>967</v>
       </c>
       <c r="C3" t="n">
-        <v>983</v>
+        <v>966</v>
       </c>
       <c r="D3" t="n">
-        <v>983</v>
+        <v>967</v>
       </c>
       <c r="E3" t="n">
-        <v>979</v>
+        <v>966</v>
       </c>
       <c r="F3" t="n">
-        <v>552.505</v>
+        <v>47.7817</v>
       </c>
       <c r="G3" t="n">
-        <v>982.6666666666666</v>
+        <v>401.9171000000002</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>980</v>
+        <v>967</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
@@ -516,30 +516,32 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>978</v>
+        <v>965</v>
       </c>
       <c r="C4" t="n">
-        <v>984</v>
+        <v>962</v>
       </c>
       <c r="D4" t="n">
-        <v>984</v>
+        <v>965</v>
       </c>
       <c r="E4" t="n">
-        <v>978</v>
+        <v>961</v>
       </c>
       <c r="F4" t="n">
-        <v>12.1</v>
+        <v>1296.1369</v>
       </c>
       <c r="G4" t="n">
-        <v>982.3333333333334</v>
+        <v>-894.2197999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>966</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
@@ -556,30 +558,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="C5" t="n">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="D5" t="n">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="E5" t="n">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="F5" t="n">
-        <v>612.569</v>
+        <v>8.9</v>
       </c>
       <c r="G5" t="n">
-        <v>981.3333333333334</v>
+        <v>-885.3197999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>962</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
@@ -596,30 +600,32 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>977</v>
+        <v>968</v>
       </c>
       <c r="C6" t="n">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="D6" t="n">
-        <v>977</v>
+        <v>968</v>
       </c>
       <c r="E6" t="n">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="F6" t="n">
-        <v>15.4696</v>
+        <v>312.3814</v>
       </c>
       <c r="G6" t="n">
-        <v>979.3333333333334</v>
+        <v>-885.3197999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>967</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
@@ -636,30 +642,32 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>978</v>
+        <v>968</v>
       </c>
       <c r="C7" t="n">
-        <v>978</v>
+        <v>968</v>
       </c>
       <c r="D7" t="n">
-        <v>978</v>
+        <v>968</v>
       </c>
       <c r="E7" t="n">
-        <v>978</v>
+        <v>968</v>
       </c>
       <c r="F7" t="n">
-        <v>38.0944</v>
+        <v>315.32</v>
       </c>
       <c r="G7" t="n">
-        <v>977.3333333333334</v>
+        <v>-569.9997999999998</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>967</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
@@ -676,30 +684,32 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="C8" t="n">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="D8" t="n">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="E8" t="n">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="F8" t="n">
-        <v>150.6593</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>977.3333333333334</v>
+        <v>-490.0997999999998</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>968</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
@@ -716,30 +726,32 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="C9" t="n">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="D9" t="n">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="E9" t="n">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="F9" t="n">
-        <v>2.4787</v>
+        <v>28.8296</v>
       </c>
       <c r="G9" t="n">
-        <v>977.3333333333334</v>
+        <v>-461.2701999999998</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>969</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
@@ -756,30 +768,32 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C10" t="n">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="D10" t="n">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E10" t="n">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F10" t="n">
-        <v>3.3948</v>
+        <v>1233.1835</v>
       </c>
       <c r="G10" t="n">
-        <v>977</v>
+        <v>771.9133000000003</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>974</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
@@ -796,30 +810,32 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="C11" t="n">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="D11" t="n">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="E11" t="n">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="F11" t="n">
-        <v>2.0342</v>
+        <v>18.0029</v>
       </c>
       <c r="G11" t="n">
-        <v>977</v>
+        <v>789.9162000000002</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>978</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
@@ -836,30 +852,32 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="C12" t="n">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="D12" t="n">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="E12" t="n">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="F12" t="n">
-        <v>16.4</v>
+        <v>3.0755</v>
       </c>
       <c r="G12" t="n">
-        <v>977</v>
+        <v>789.9162000000002</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>979</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
@@ -876,30 +894,32 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>975</v>
+      </c>
+      <c r="C13" t="n">
+        <v>975</v>
+      </c>
+      <c r="D13" t="n">
+        <v>975</v>
+      </c>
+      <c r="E13" t="n">
+        <v>975</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3.0755</v>
+      </c>
+      <c r="G13" t="n">
+        <v>786.8407000000002</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>979</v>
       </c>
-      <c r="C13" t="n">
-        <v>979</v>
-      </c>
-      <c r="D13" t="n">
-        <v>979</v>
-      </c>
-      <c r="E13" t="n">
-        <v>979</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>977.6666666666666</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
@@ -916,30 +936,32 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="C14" t="n">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="D14" t="n">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="E14" t="n">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="F14" t="n">
-        <v>262.7167</v>
+        <v>3873.5115</v>
       </c>
       <c r="G14" t="n">
-        <v>979</v>
+        <v>-3086.6708</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>975</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
@@ -956,22 +978,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="C15" t="n">
-        <v>983</v>
+        <v>974</v>
       </c>
       <c r="D15" t="n">
-        <v>983</v>
+        <v>974</v>
       </c>
       <c r="E15" t="n">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="F15" t="n">
-        <v>636.2447</v>
+        <v>320.5</v>
       </c>
       <c r="G15" t="n">
-        <v>981</v>
+        <v>-3086.6708</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -996,22 +1018,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="C16" t="n">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="D16" t="n">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="E16" t="n">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="F16" t="n">
-        <v>2.0387</v>
+        <v>766.3102</v>
       </c>
       <c r="G16" t="n">
-        <v>981.6666666666666</v>
+        <v>-3086.6708</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1036,22 +1058,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="C17" t="n">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="D17" t="n">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="E17" t="n">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="F17" t="n">
-        <v>50</v>
+        <v>1.6635</v>
       </c>
       <c r="G17" t="n">
-        <v>981.3333333333334</v>
+        <v>-3086.6708</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1076,22 +1098,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="C18" t="n">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="D18" t="n">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="E18" t="n">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="F18" t="n">
-        <v>97.96250000000001</v>
+        <v>0.3326</v>
       </c>
       <c r="G18" t="n">
-        <v>980.6666666666666</v>
+        <v>-3086.6708</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1116,22 +1138,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="C19" t="n">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="D19" t="n">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="E19" t="n">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="F19" t="n">
-        <v>194.7607</v>
+        <v>2251</v>
       </c>
       <c r="G19" t="n">
-        <v>980.6666666666666</v>
+        <v>-5337.6708</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1156,22 +1178,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="C20" t="n">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="D20" t="n">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="E20" t="n">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="F20" t="n">
-        <v>8.1821</v>
+        <v>35</v>
       </c>
       <c r="G20" t="n">
-        <v>981</v>
+        <v>-5302.6708</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1196,22 +1218,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="C21" t="n">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="D21" t="n">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="E21" t="n">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="F21" t="n">
-        <v>50</v>
+        <v>206.0811</v>
       </c>
       <c r="G21" t="n">
-        <v>980.3333333333334</v>
+        <v>-5096.5897</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1236,22 +1258,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="C22" t="n">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="D22" t="n">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="E22" t="n">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="F22" t="n">
-        <v>250.9041</v>
+        <v>400</v>
       </c>
       <c r="G22" t="n">
-        <v>979.3333333333334</v>
+        <v>-5496.5897</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1276,22 +1298,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>971</v>
+      </c>
+      <c r="C23" t="n">
         <v>978</v>
-      </c>
-      <c r="C23" t="n">
-        <v>977</v>
       </c>
       <c r="D23" t="n">
         <v>978</v>
       </c>
       <c r="E23" t="n">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="F23" t="n">
-        <v>1029.4067</v>
+        <v>575.3613</v>
       </c>
       <c r="G23" t="n">
-        <v>978</v>
+        <v>-4921.2284</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1316,30 +1338,32 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>984</v>
+        <v>975</v>
       </c>
       <c r="C24" t="n">
-        <v>984</v>
+        <v>975</v>
       </c>
       <c r="D24" t="n">
-        <v>984</v>
+        <v>975</v>
       </c>
       <c r="E24" t="n">
-        <v>984</v>
+        <v>975</v>
       </c>
       <c r="F24" t="n">
-        <v>56.6016</v>
+        <v>61.759</v>
       </c>
       <c r="G24" t="n">
-        <v>979.6666666666666</v>
+        <v>-4982.9874</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>978</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
@@ -1356,30 +1380,32 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="C25" t="n">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="D25" t="n">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="E25" t="n">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="F25" t="n">
-        <v>33.3218</v>
+        <v>264.241</v>
       </c>
       <c r="G25" t="n">
-        <v>981</v>
+        <v>-4982.9874</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>975</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
@@ -1396,30 +1422,32 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C26" t="n">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D26" t="n">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E26" t="n">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="F26" t="n">
-        <v>188.3645</v>
+        <v>0.5216</v>
       </c>
       <c r="G26" t="n">
-        <v>982.6666666666666</v>
+        <v>-4982.4658</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>975</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
@@ -1436,30 +1464,32 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="C27" t="n">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="D27" t="n">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="E27" t="n">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="F27" t="n">
-        <v>665.0402</v>
+        <v>40.7023</v>
       </c>
       <c r="G27" t="n">
-        <v>982.3333333333334</v>
+        <v>-4941.7635</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>979</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
@@ -1476,30 +1506,32 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="C28" t="n">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="D28" t="n">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="E28" t="n">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="F28" t="n">
-        <v>478.6138</v>
+        <v>27.1981</v>
       </c>
       <c r="G28" t="n">
-        <v>982.6666666666666</v>
+        <v>-4914.5654</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>980</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
@@ -1516,30 +1548,32 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="C29" t="n">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="D29" t="n">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="E29" t="n">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="F29" t="n">
-        <v>1045.1708</v>
+        <v>50</v>
       </c>
       <c r="G29" t="n">
-        <v>983.3333333333334</v>
+        <v>-4964.5654</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>986</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
@@ -1556,30 +1590,32 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C30" t="n">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="D30" t="n">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="E30" t="n">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="F30" t="n">
-        <v>1.7732</v>
+        <v>168</v>
       </c>
       <c r="G30" t="n">
-        <v>983.6666666666666</v>
+        <v>-4964.5654</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>985</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
@@ -1596,30 +1632,32 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="C31" t="n">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="D31" t="n">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="E31" t="n">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="F31" t="n">
-        <v>220.5</v>
+        <v>959.712</v>
       </c>
       <c r="G31" t="n">
-        <v>984</v>
+        <v>-5924.277400000001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>985</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
@@ -1636,30 +1674,32 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="C32" t="n">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D32" t="n">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E32" t="n">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="F32" t="n">
-        <v>24.8822</v>
+        <v>552.505</v>
       </c>
       <c r="G32" t="n">
-        <v>984</v>
+        <v>-5371.772400000001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>980</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
@@ -1676,7 +1716,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="C33" t="n">
         <v>984</v>
@@ -1685,21 +1725,23 @@
         <v>984</v>
       </c>
       <c r="E33" t="n">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="F33" t="n">
-        <v>3.6877</v>
+        <v>12.1</v>
       </c>
       <c r="G33" t="n">
-        <v>984</v>
+        <v>-5359.6724</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>983</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
@@ -1716,30 +1758,32 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>978</v>
+      </c>
+      <c r="C34" t="n">
+        <v>977</v>
+      </c>
+      <c r="D34" t="n">
+        <v>978</v>
+      </c>
+      <c r="E34" t="n">
+        <v>977</v>
+      </c>
+      <c r="F34" t="n">
+        <v>612.569</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-5972.241400000001</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
         <v>984</v>
       </c>
-      <c r="C34" t="n">
-        <v>985</v>
-      </c>
-      <c r="D34" t="n">
-        <v>985</v>
-      </c>
-      <c r="E34" t="n">
-        <v>984</v>
-      </c>
-      <c r="F34" t="n">
-        <v>8.726000000000001</v>
-      </c>
-      <c r="G34" t="n">
-        <v>984.3333333333334</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
@@ -1756,30 +1800,32 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="C35" t="n">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="D35" t="n">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="E35" t="n">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>15.4696</v>
       </c>
       <c r="G35" t="n">
-        <v>985.3333333333334</v>
+        <v>-5972.241400000001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>977</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
@@ -1796,30 +1842,32 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="C36" t="n">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="D36" t="n">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="E36" t="n">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="F36" t="n">
-        <v>319.5</v>
+        <v>38.0944</v>
       </c>
       <c r="G36" t="n">
-        <v>986</v>
+        <v>-5934.147000000001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>977</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
@@ -1836,30 +1884,32 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="C37" t="n">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="D37" t="n">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="E37" t="n">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="F37" t="n">
-        <v>74.76009999999999</v>
+        <v>150.6593</v>
       </c>
       <c r="G37" t="n">
-        <v>986</v>
+        <v>-6084.806300000001</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>978</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
@@ -1876,30 +1926,32 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="C38" t="n">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="D38" t="n">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="E38" t="n">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="F38" t="n">
-        <v>15.7195</v>
+        <v>2.4787</v>
       </c>
       <c r="G38" t="n">
-        <v>985.6666666666666</v>
+        <v>-6084.806300000001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>977</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
@@ -1916,30 +1968,32 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="C39" t="n">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="D39" t="n">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="E39" t="n">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="F39" t="n">
-        <v>7.7443</v>
+        <v>3.3948</v>
       </c>
       <c r="G39" t="n">
-        <v>985.6666666666666</v>
+        <v>-6084.806300000001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>977</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
@@ -1956,30 +2010,32 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="C40" t="n">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="D40" t="n">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="E40" t="n">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="F40" t="n">
-        <v>46.4917</v>
+        <v>2.0342</v>
       </c>
       <c r="G40" t="n">
-        <v>986</v>
+        <v>-6084.806300000001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>977</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
@@ -1996,30 +2052,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="C41" t="n">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="D41" t="n">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="E41" t="n">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="F41" t="n">
-        <v>47.947</v>
+        <v>16.4</v>
       </c>
       <c r="G41" t="n">
-        <v>986.3333333333334</v>
+        <v>-6084.806300000001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>977</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
@@ -2036,30 +2094,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="C42" t="n">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="D42" t="n">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="E42" t="n">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="F42" t="n">
-        <v>38.8</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>986.3333333333334</v>
+        <v>-6083.806300000001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>977</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
@@ -2076,30 +2136,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="C43" t="n">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="D43" t="n">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="E43" t="n">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="F43" t="n">
-        <v>172.4512</v>
+        <v>262.7167</v>
       </c>
       <c r="G43" t="n">
-        <v>986.6666666666666</v>
+        <v>-5821.089600000001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>979</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
@@ -2116,22 +2178,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="C44" t="n">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="D44" t="n">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="E44" t="n">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="F44" t="n">
-        <v>3</v>
+        <v>636.2447</v>
       </c>
       <c r="G44" t="n">
-        <v>985</v>
+        <v>-5184.844900000001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2156,32 +2218,30 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C45" t="n">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="D45" t="n">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E45" t="n">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="F45" t="n">
-        <v>2.7272</v>
+        <v>2.0387</v>
       </c>
       <c r="G45" t="n">
-        <v>983</v>
+        <v>-5186.883600000001</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>982</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
@@ -2198,32 +2258,30 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C46" t="n">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="D46" t="n">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="E46" t="n">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="F46" t="n">
-        <v>89.5</v>
+        <v>50</v>
       </c>
       <c r="G46" t="n">
-        <v>983</v>
+        <v>-5236.883600000001</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>980</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
@@ -2240,22 +2298,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C47" t="n">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="D47" t="n">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="E47" t="n">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F47" t="n">
-        <v>934.9802</v>
+        <v>97.96250000000001</v>
       </c>
       <c r="G47" t="n">
-        <v>982</v>
+        <v>-5138.921100000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2280,22 +2338,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="C48" t="n">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="D48" t="n">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="E48" t="n">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="F48" t="n">
-        <v>182</v>
+        <v>194.7607</v>
       </c>
       <c r="G48" t="n">
-        <v>984.6666666666666</v>
+        <v>-5138.921100000001</v>
       </c>
       <c r="H48" t="n">
         <v>1</v>
@@ -2304,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
@@ -2334,20 +2392,18 @@
         <v>981</v>
       </c>
       <c r="F49" t="n">
-        <v>50.0288</v>
+        <v>8.1821</v>
       </c>
       <c r="G49" t="n">
-        <v>982.6666666666666</v>
+        <v>-5138.921100000001</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>988</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
@@ -2364,22 +2420,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="C50" t="n">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="D50" t="n">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="E50" t="n">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="F50" t="n">
-        <v>42.431</v>
+        <v>50</v>
       </c>
       <c r="G50" t="n">
-        <v>985.3333333333334</v>
+        <v>-5188.921100000001</v>
       </c>
       <c r="H50" t="n">
         <v>1</v>
@@ -2406,22 +2462,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="C51" t="n">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="D51" t="n">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="E51" t="n">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="F51" t="n">
-        <v>6.3335</v>
+        <v>250.9041</v>
       </c>
       <c r="G51" t="n">
-        <v>985</v>
+        <v>-5439.825200000001</v>
       </c>
       <c r="H51" t="n">
         <v>1</v>
@@ -2430,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
@@ -2448,22 +2504,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="C52" t="n">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="D52" t="n">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="E52" t="n">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="F52" t="n">
-        <v>377.8027</v>
+        <v>1029.4067</v>
       </c>
       <c r="G52" t="n">
-        <v>987</v>
+        <v>-6469.231900000001</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
@@ -2472,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
@@ -2490,22 +2546,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="C53" t="n">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="D53" t="n">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="E53" t="n">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="F53" t="n">
-        <v>2.5746</v>
+        <v>56.6016</v>
       </c>
       <c r="G53" t="n">
-        <v>987.3333333333334</v>
+        <v>-6412.630300000001</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
@@ -2514,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
@@ -2532,22 +2588,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="C54" t="n">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="D54" t="n">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="E54" t="n">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="F54" t="n">
-        <v>44.2215</v>
+        <v>33.3218</v>
       </c>
       <c r="G54" t="n">
-        <v>987.6666666666666</v>
+        <v>-6445.9521</v>
       </c>
       <c r="H54" t="n">
         <v>1</v>
@@ -2556,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
@@ -2574,22 +2630,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="C55" t="n">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="D55" t="n">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="E55" t="n">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="F55" t="n">
-        <v>350.0521</v>
+        <v>188.3645</v>
       </c>
       <c r="G55" t="n">
-        <v>988.3333333333334</v>
+        <v>-6445.9521</v>
       </c>
       <c r="H55" t="n">
         <v>1</v>
@@ -2598,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
@@ -2616,22 +2672,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="C56" t="n">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="D56" t="n">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="E56" t="n">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="F56" t="n">
-        <v>300.0018</v>
+        <v>665.0402</v>
       </c>
       <c r="G56" t="n">
-        <v>988.6666666666666</v>
+        <v>-5780.9119</v>
       </c>
       <c r="H56" t="n">
         <v>1</v>
@@ -2640,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
@@ -2658,30 +2714,32 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="C57" t="n">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="D57" t="n">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="E57" t="n">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="F57" t="n">
-        <v>3.3144</v>
+        <v>478.6138</v>
       </c>
       <c r="G57" t="n">
-        <v>989.3333333333334</v>
+        <v>-5780.9119</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>983</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
@@ -2698,32 +2756,30 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="C58" t="n">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="D58" t="n">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="E58" t="n">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="F58" t="n">
-        <v>96.1442</v>
+        <v>1045.1708</v>
       </c>
       <c r="G58" t="n">
-        <v>989.6666666666666</v>
+        <v>-4735.7411</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>990</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
@@ -2740,32 +2796,30 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="C59" t="n">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="D59" t="n">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="E59" t="n">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="F59" t="n">
-        <v>779.3949</v>
+        <v>1.7732</v>
       </c>
       <c r="G59" t="n">
-        <v>990.6666666666666</v>
+        <v>-4735.7411</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>990</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
@@ -2782,32 +2836,30 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="C60" t="n">
-        <v>999</v>
+        <v>984</v>
       </c>
       <c r="D60" t="n">
-        <v>999</v>
+        <v>984</v>
       </c>
       <c r="E60" t="n">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="F60" t="n">
-        <v>1682.6839</v>
+        <v>220.5</v>
       </c>
       <c r="G60" t="n">
-        <v>993.6666666666666</v>
+        <v>-4735.7411</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>992</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
@@ -2824,32 +2876,30 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>999</v>
+        <v>984</v>
       </c>
       <c r="C61" t="n">
-        <v>999</v>
+        <v>984</v>
       </c>
       <c r="D61" t="n">
-        <v>999</v>
+        <v>984</v>
       </c>
       <c r="E61" t="n">
-        <v>999</v>
+        <v>984</v>
       </c>
       <c r="F61" t="n">
-        <v>282.2377</v>
+        <v>24.8822</v>
       </c>
       <c r="G61" t="n">
-        <v>996.6666666666666</v>
+        <v>-4735.7411</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>999</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
@@ -2866,32 +2916,30 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>999</v>
+        <v>984</v>
       </c>
       <c r="C62" t="n">
-        <v>1000</v>
+        <v>984</v>
       </c>
       <c r="D62" t="n">
-        <v>1000</v>
+        <v>984</v>
       </c>
       <c r="E62" t="n">
-        <v>999</v>
+        <v>984</v>
       </c>
       <c r="F62" t="n">
-        <v>1850.9596</v>
+        <v>3.6877</v>
       </c>
       <c r="G62" t="n">
-        <v>999.3333333333334</v>
+        <v>-4735.7411</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>999</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
@@ -2908,22 +2956,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1000</v>
+        <v>984</v>
       </c>
       <c r="C63" t="n">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="D63" t="n">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="E63" t="n">
-        <v>1000</v>
+        <v>984</v>
       </c>
       <c r="F63" t="n">
-        <v>524.3314</v>
+        <v>8.726000000000001</v>
       </c>
       <c r="G63" t="n">
-        <v>999.6666666666666</v>
+        <v>-4727.015100000001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2948,22 +2996,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1000</v>
+        <v>987</v>
       </c>
       <c r="C64" t="n">
-        <v>1000</v>
+        <v>987</v>
       </c>
       <c r="D64" t="n">
-        <v>1000</v>
+        <v>987</v>
       </c>
       <c r="E64" t="n">
-        <v>1000</v>
+        <v>987</v>
       </c>
       <c r="F64" t="n">
-        <v>573.9779</v>
+        <v>3</v>
       </c>
       <c r="G64" t="n">
-        <v>1000</v>
+        <v>-4724.015100000001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2988,22 +3036,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="C65" t="n">
-        <v>1002</v>
+        <v>986</v>
       </c>
       <c r="D65" t="n">
-        <v>1002</v>
+        <v>986</v>
       </c>
       <c r="E65" t="n">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F65" t="n">
-        <v>2032.9401</v>
+        <v>319.5</v>
       </c>
       <c r="G65" t="n">
-        <v>1000.666666666667</v>
+        <v>-5043.515100000001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3028,22 +3076,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1003</v>
+        <v>982</v>
       </c>
       <c r="C66" t="n">
-        <v>1002</v>
+        <v>985</v>
       </c>
       <c r="D66" t="n">
-        <v>1003</v>
+        <v>985</v>
       </c>
       <c r="E66" t="n">
-        <v>1002</v>
+        <v>982</v>
       </c>
       <c r="F66" t="n">
-        <v>335.311</v>
+        <v>74.76009999999999</v>
       </c>
       <c r="G66" t="n">
-        <v>1001.333333333333</v>
+        <v>-5118.275200000001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3068,22 +3116,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1002</v>
+        <v>986</v>
       </c>
       <c r="C67" t="n">
-        <v>1002</v>
+        <v>986</v>
       </c>
       <c r="D67" t="n">
-        <v>1002</v>
+        <v>986</v>
       </c>
       <c r="E67" t="n">
-        <v>1002</v>
+        <v>986</v>
       </c>
       <c r="F67" t="n">
-        <v>111.477</v>
+        <v>15.7195</v>
       </c>
       <c r="G67" t="n">
-        <v>1002</v>
+        <v>-5102.555700000001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3108,22 +3156,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1003</v>
+        <v>986</v>
       </c>
       <c r="C68" t="n">
-        <v>1008</v>
+        <v>986</v>
       </c>
       <c r="D68" t="n">
-        <v>1008</v>
+        <v>986</v>
       </c>
       <c r="E68" t="n">
-        <v>1003</v>
+        <v>986</v>
       </c>
       <c r="F68" t="n">
-        <v>938.1069631944445</v>
+        <v>7.7443</v>
       </c>
       <c r="G68" t="n">
-        <v>1004</v>
+        <v>-5102.555700000001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3148,22 +3196,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1007</v>
+        <v>986</v>
       </c>
       <c r="C69" t="n">
-        <v>1007</v>
+        <v>986</v>
       </c>
       <c r="D69" t="n">
-        <v>1007</v>
+        <v>986</v>
       </c>
       <c r="E69" t="n">
-        <v>1007</v>
+        <v>986</v>
       </c>
       <c r="F69" t="n">
-        <v>1.4583</v>
+        <v>46.4917</v>
       </c>
       <c r="G69" t="n">
-        <v>1005.666666666667</v>
+        <v>-5102.555700000001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3188,22 +3236,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1001</v>
+        <v>986</v>
       </c>
       <c r="C70" t="n">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="D70" t="n">
-        <v>1001</v>
+        <v>987</v>
       </c>
       <c r="E70" t="n">
-        <v>996</v>
+        <v>986</v>
       </c>
       <c r="F70" t="n">
-        <v>1075.0456</v>
+        <v>47.947</v>
       </c>
       <c r="G70" t="n">
-        <v>1003.666666666667</v>
+        <v>-5054.608700000001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3228,22 +3276,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1000</v>
+        <v>986</v>
       </c>
       <c r="C71" t="n">
-        <v>1003</v>
+        <v>986</v>
       </c>
       <c r="D71" t="n">
-        <v>1003</v>
+        <v>986</v>
       </c>
       <c r="E71" t="n">
-        <v>1000</v>
+        <v>986</v>
       </c>
       <c r="F71" t="n">
-        <v>20.672</v>
+        <v>38.8</v>
       </c>
       <c r="G71" t="n">
-        <v>1002</v>
+        <v>-5093.408700000001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3268,22 +3316,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1004</v>
+        <v>985</v>
       </c>
       <c r="C72" t="n">
-        <v>1004</v>
+        <v>987</v>
       </c>
       <c r="D72" t="n">
-        <v>1004</v>
+        <v>987</v>
       </c>
       <c r="E72" t="n">
-        <v>1004</v>
+        <v>985</v>
       </c>
       <c r="F72" t="n">
-        <v>321.5653</v>
+        <v>172.4512</v>
       </c>
       <c r="G72" t="n">
-        <v>1001</v>
+        <v>-4920.9575</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3308,30 +3356,32 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1004</v>
+        <v>987</v>
       </c>
       <c r="C73" t="n">
-        <v>1004</v>
+        <v>982</v>
       </c>
       <c r="D73" t="n">
-        <v>1004</v>
+        <v>987</v>
       </c>
       <c r="E73" t="n">
-        <v>1004</v>
+        <v>982</v>
       </c>
       <c r="F73" t="n">
-        <v>144.7043</v>
+        <v>3</v>
       </c>
       <c r="G73" t="n">
-        <v>1003.666666666667</v>
+        <v>-4923.9575</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>987</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
@@ -3348,30 +3398,32 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1004</v>
+        <v>980</v>
       </c>
       <c r="C74" t="n">
-        <v>1004</v>
+        <v>980</v>
       </c>
       <c r="D74" t="n">
-        <v>1004</v>
+        <v>980</v>
       </c>
       <c r="E74" t="n">
-        <v>1004</v>
+        <v>980</v>
       </c>
       <c r="F74" t="n">
-        <v>11.1654</v>
+        <v>2.7272</v>
       </c>
       <c r="G74" t="n">
-        <v>1004</v>
+        <v>-4926.684700000001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>982</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
@@ -3388,30 +3440,32 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1007</v>
+        <v>987</v>
       </c>
       <c r="C75" t="n">
-        <v>1007</v>
+        <v>987</v>
       </c>
       <c r="D75" t="n">
-        <v>1007</v>
+        <v>987</v>
       </c>
       <c r="E75" t="n">
-        <v>1007</v>
+        <v>987</v>
       </c>
       <c r="F75" t="n">
-        <v>468.5451</v>
+        <v>89.5</v>
       </c>
       <c r="G75" t="n">
-        <v>1005</v>
+        <v>-4837.184700000001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>980</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
@@ -3428,30 +3482,32 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1007</v>
+        <v>979</v>
       </c>
       <c r="C76" t="n">
-        <v>1007</v>
+        <v>979</v>
       </c>
       <c r="D76" t="n">
-        <v>1007</v>
+        <v>979</v>
       </c>
       <c r="E76" t="n">
-        <v>1007</v>
+        <v>979</v>
       </c>
       <c r="F76" t="n">
-        <v>654.8625</v>
+        <v>934.9802</v>
       </c>
       <c r="G76" t="n">
-        <v>1006</v>
+        <v>-5772.164900000001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>987</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
@@ -3468,30 +3524,32 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1007</v>
+        <v>987</v>
       </c>
       <c r="C77" t="n">
-        <v>1007</v>
+        <v>988</v>
       </c>
       <c r="D77" t="n">
-        <v>1007</v>
+        <v>988</v>
       </c>
       <c r="E77" t="n">
-        <v>1007</v>
+        <v>987</v>
       </c>
       <c r="F77" t="n">
-        <v>6.5389</v>
+        <v>182</v>
       </c>
       <c r="G77" t="n">
-        <v>1007</v>
+        <v>-5590.164900000001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>979</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
@@ -3508,22 +3566,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1007</v>
+        <v>981</v>
       </c>
       <c r="C78" t="n">
-        <v>1007</v>
+        <v>981</v>
       </c>
       <c r="D78" t="n">
-        <v>1007</v>
+        <v>981</v>
       </c>
       <c r="E78" t="n">
-        <v>1007</v>
+        <v>981</v>
       </c>
       <c r="F78" t="n">
-        <v>1352.6154</v>
+        <v>50.0288</v>
       </c>
       <c r="G78" t="n">
-        <v>1007</v>
+        <v>-5640.193700000001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3548,22 +3606,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1007</v>
+        <v>987</v>
       </c>
       <c r="C79" t="n">
-        <v>1010</v>
+        <v>987</v>
       </c>
       <c r="D79" t="n">
-        <v>1010</v>
+        <v>987</v>
       </c>
       <c r="E79" t="n">
-        <v>1007</v>
+        <v>987</v>
       </c>
       <c r="F79" t="n">
-        <v>2203.7552</v>
+        <v>42.431</v>
       </c>
       <c r="G79" t="n">
-        <v>1008</v>
+        <v>-5597.762700000001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3588,22 +3646,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1011</v>
+        <v>987</v>
       </c>
       <c r="C80" t="n">
-        <v>1013</v>
+        <v>987</v>
       </c>
       <c r="D80" t="n">
-        <v>1013</v>
+        <v>987</v>
       </c>
       <c r="E80" t="n">
-        <v>1011</v>
+        <v>987</v>
       </c>
       <c r="F80" t="n">
-        <v>210.1605</v>
+        <v>6.3335</v>
       </c>
       <c r="G80" t="n">
-        <v>1010</v>
+        <v>-5597.762700000001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3628,22 +3686,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1013</v>
+        <v>984</v>
       </c>
       <c r="C81" t="n">
-        <v>1015</v>
+        <v>987</v>
       </c>
       <c r="D81" t="n">
-        <v>1015</v>
+        <v>987</v>
       </c>
       <c r="E81" t="n">
-        <v>1013</v>
+        <v>984</v>
       </c>
       <c r="F81" t="n">
-        <v>1538.5972</v>
+        <v>377.8027</v>
       </c>
       <c r="G81" t="n">
-        <v>1012.666666666667</v>
+        <v>-5597.762700000001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3668,22 +3726,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1015</v>
+        <v>988</v>
       </c>
       <c r="C82" t="n">
-        <v>1015</v>
+        <v>988</v>
       </c>
       <c r="D82" t="n">
-        <v>1015</v>
+        <v>988</v>
       </c>
       <c r="E82" t="n">
-        <v>1015</v>
+        <v>988</v>
       </c>
       <c r="F82" t="n">
-        <v>17.2832</v>
+        <v>2.5746</v>
       </c>
       <c r="G82" t="n">
-        <v>1014.333333333333</v>
+        <v>-5595.188100000001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3708,22 +3766,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1015</v>
+        <v>988</v>
       </c>
       <c r="C83" t="n">
-        <v>1015</v>
+        <v>988</v>
       </c>
       <c r="D83" t="n">
-        <v>1015</v>
+        <v>988</v>
       </c>
       <c r="E83" t="n">
-        <v>1015</v>
+        <v>988</v>
       </c>
       <c r="F83" t="n">
-        <v>1.2021</v>
+        <v>44.2215</v>
       </c>
       <c r="G83" t="n">
-        <v>1015</v>
+        <v>-5595.188100000001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3748,22 +3806,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1018</v>
+        <v>988</v>
       </c>
       <c r="C84" t="n">
-        <v>1018</v>
+        <v>989</v>
       </c>
       <c r="D84" t="n">
-        <v>1018</v>
+        <v>989</v>
       </c>
       <c r="E84" t="n">
-        <v>1018</v>
+        <v>988</v>
       </c>
       <c r="F84" t="n">
-        <v>14</v>
+        <v>350.0521</v>
       </c>
       <c r="G84" t="n">
-        <v>1016</v>
+        <v>-5245.136000000001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3788,22 +3846,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1018</v>
+        <v>989</v>
       </c>
       <c r="C85" t="n">
-        <v>1020</v>
+        <v>989</v>
       </c>
       <c r="D85" t="n">
-        <v>1020</v>
+        <v>989</v>
       </c>
       <c r="E85" t="n">
-        <v>1018</v>
+        <v>989</v>
       </c>
       <c r="F85" t="n">
-        <v>53.8315</v>
+        <v>300.0018</v>
       </c>
       <c r="G85" t="n">
-        <v>1017.666666666667</v>
+        <v>-5245.136000000001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3828,22 +3886,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1020</v>
+        <v>990</v>
       </c>
       <c r="C86" t="n">
-        <v>1021</v>
+        <v>990</v>
       </c>
       <c r="D86" t="n">
-        <v>1021</v>
+        <v>990</v>
       </c>
       <c r="E86" t="n">
-        <v>1020</v>
+        <v>990</v>
       </c>
       <c r="F86" t="n">
-        <v>62</v>
+        <v>3.3144</v>
       </c>
       <c r="G86" t="n">
-        <v>1019.666666666667</v>
+        <v>-5241.821600000001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3868,22 +3926,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1021</v>
+        <v>990</v>
       </c>
       <c r="C87" t="n">
-        <v>1021</v>
+        <v>990</v>
       </c>
       <c r="D87" t="n">
-        <v>1021</v>
+        <v>990</v>
       </c>
       <c r="E87" t="n">
-        <v>1021</v>
+        <v>990</v>
       </c>
       <c r="F87" t="n">
-        <v>4.8747</v>
+        <v>96.1442</v>
       </c>
       <c r="G87" t="n">
-        <v>1020.666666666667</v>
+        <v>-5241.821600000001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3908,30 +3966,32 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1021</v>
+        <v>990</v>
       </c>
       <c r="C88" t="n">
-        <v>1022</v>
+        <v>992</v>
       </c>
       <c r="D88" t="n">
-        <v>1022</v>
+        <v>992</v>
       </c>
       <c r="E88" t="n">
-        <v>1021</v>
+        <v>990</v>
       </c>
       <c r="F88" t="n">
-        <v>207.5987</v>
+        <v>779.3949</v>
       </c>
       <c r="G88" t="n">
-        <v>1021.333333333333</v>
+        <v>-4462.426700000001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>990</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
@@ -3948,22 +4008,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1023</v>
+        <v>992</v>
       </c>
       <c r="C89" t="n">
-        <v>1025</v>
+        <v>999</v>
       </c>
       <c r="D89" t="n">
-        <v>1025</v>
+        <v>999</v>
       </c>
       <c r="E89" t="n">
-        <v>1023</v>
+        <v>992</v>
       </c>
       <c r="F89" t="n">
-        <v>288.6718</v>
+        <v>1682.6839</v>
       </c>
       <c r="G89" t="n">
-        <v>1022.666666666667</v>
+        <v>-2779.742800000001</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3988,22 +4048,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1025</v>
+        <v>999</v>
       </c>
       <c r="C90" t="n">
-        <v>1025</v>
+        <v>999</v>
       </c>
       <c r="D90" t="n">
-        <v>1025</v>
+        <v>999</v>
       </c>
       <c r="E90" t="n">
-        <v>1025</v>
+        <v>999</v>
       </c>
       <c r="F90" t="n">
-        <v>861.7903</v>
+        <v>282.2377</v>
       </c>
       <c r="G90" t="n">
-        <v>1024</v>
+        <v>-2779.742800000001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4028,22 +4088,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1025</v>
+        <v>999</v>
       </c>
       <c r="C91" t="n">
-        <v>1028</v>
+        <v>1000</v>
       </c>
       <c r="D91" t="n">
-        <v>1029</v>
+        <v>1000</v>
       </c>
       <c r="E91" t="n">
-        <v>1025</v>
+        <v>999</v>
       </c>
       <c r="F91" t="n">
-        <v>1555.2175</v>
+        <v>1850.9596</v>
       </c>
       <c r="G91" t="n">
-        <v>1026</v>
+        <v>-928.783200000001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4068,22 +4128,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1028</v>
+        <v>1000</v>
       </c>
       <c r="C92" t="n">
-        <v>1028</v>
+        <v>1000</v>
       </c>
       <c r="D92" t="n">
-        <v>1028</v>
+        <v>1000</v>
       </c>
       <c r="E92" t="n">
-        <v>1028</v>
+        <v>1000</v>
       </c>
       <c r="F92" t="n">
-        <v>28.931</v>
+        <v>524.3314</v>
       </c>
       <c r="G92" t="n">
-        <v>1027</v>
+        <v>-928.783200000001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4108,22 +4168,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1028</v>
+        <v>1000</v>
       </c>
       <c r="C93" t="n">
-        <v>1030</v>
+        <v>1000</v>
       </c>
       <c r="D93" t="n">
-        <v>1030</v>
+        <v>1000</v>
       </c>
       <c r="E93" t="n">
-        <v>1028</v>
+        <v>1000</v>
       </c>
       <c r="F93" t="n">
-        <v>595.8453</v>
+        <v>573.9779</v>
       </c>
       <c r="G93" t="n">
-        <v>1028.666666666667</v>
+        <v>-928.783200000001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4148,22 +4208,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1028</v>
+        <v>1000</v>
       </c>
       <c r="C94" t="n">
-        <v>1028</v>
+        <v>1002</v>
       </c>
       <c r="D94" t="n">
-        <v>1028</v>
+        <v>1002</v>
       </c>
       <c r="E94" t="n">
-        <v>1028</v>
+        <v>1000</v>
       </c>
       <c r="F94" t="n">
-        <v>415.3651</v>
+        <v>2032.9401</v>
       </c>
       <c r="G94" t="n">
-        <v>1028.666666666667</v>
+        <v>1104.156899999999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4188,22 +4248,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1020</v>
+        <v>1003</v>
       </c>
       <c r="C95" t="n">
-        <v>1041</v>
+        <v>1002</v>
       </c>
       <c r="D95" t="n">
-        <v>1045</v>
+        <v>1003</v>
       </c>
       <c r="E95" t="n">
-        <v>1019</v>
+        <v>1002</v>
       </c>
       <c r="F95" t="n">
-        <v>2937.3556</v>
+        <v>335.311</v>
       </c>
       <c r="G95" t="n">
-        <v>1033</v>
+        <v>1104.156899999999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4228,22 +4288,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1040</v>
+        <v>1002</v>
       </c>
       <c r="C96" t="n">
-        <v>1046</v>
+        <v>1002</v>
       </c>
       <c r="D96" t="n">
-        <v>1046</v>
+        <v>1002</v>
       </c>
       <c r="E96" t="n">
-        <v>1040</v>
+        <v>1002</v>
       </c>
       <c r="F96" t="n">
-        <v>2117.186382217973</v>
+        <v>111.477</v>
       </c>
       <c r="G96" t="n">
-        <v>1038.333333333333</v>
+        <v>1104.156899999999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4268,22 +4328,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1047</v>
+        <v>1003</v>
       </c>
       <c r="C97" t="n">
-        <v>1047</v>
+        <v>1008</v>
       </c>
       <c r="D97" t="n">
-        <v>1047</v>
+        <v>1008</v>
       </c>
       <c r="E97" t="n">
-        <v>1047</v>
+        <v>1003</v>
       </c>
       <c r="F97" t="n">
-        <v>447.918</v>
+        <v>938.1069631944445</v>
       </c>
       <c r="G97" t="n">
-        <v>1044.666666666667</v>
+        <v>2042.263863194444</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4308,22 +4368,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1042</v>
+        <v>1007</v>
       </c>
       <c r="C98" t="n">
-        <v>1050</v>
+        <v>1007</v>
       </c>
       <c r="D98" t="n">
-        <v>1050</v>
+        <v>1007</v>
       </c>
       <c r="E98" t="n">
-        <v>1042</v>
+        <v>1007</v>
       </c>
       <c r="F98" t="n">
-        <v>677.9824</v>
+        <v>1.4583</v>
       </c>
       <c r="G98" t="n">
-        <v>1047.666666666667</v>
+        <v>2040.805563194443</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4348,22 +4408,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1050</v>
+        <v>1001</v>
       </c>
       <c r="C99" t="n">
-        <v>1046</v>
+        <v>996</v>
       </c>
       <c r="D99" t="n">
-        <v>1050</v>
+        <v>1001</v>
       </c>
       <c r="E99" t="n">
-        <v>1046</v>
+        <v>996</v>
       </c>
       <c r="F99" t="n">
-        <v>1845.6438</v>
+        <v>1075.0456</v>
       </c>
       <c r="G99" t="n">
-        <v>1047.666666666667</v>
+        <v>965.7599631944436</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4388,22 +4448,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1054</v>
+        <v>1000</v>
       </c>
       <c r="C100" t="n">
-        <v>1056</v>
+        <v>1003</v>
       </c>
       <c r="D100" t="n">
-        <v>1056</v>
+        <v>1003</v>
       </c>
       <c r="E100" t="n">
-        <v>1054</v>
+        <v>1000</v>
       </c>
       <c r="F100" t="n">
-        <v>1053.9807</v>
+        <v>20.672</v>
       </c>
       <c r="G100" t="n">
-        <v>1050.666666666667</v>
+        <v>986.4319631944436</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4428,22 +4488,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1051</v>
+        <v>1004</v>
       </c>
       <c r="C101" t="n">
-        <v>1051</v>
+        <v>1004</v>
       </c>
       <c r="D101" t="n">
-        <v>1051</v>
+        <v>1004</v>
       </c>
       <c r="E101" t="n">
-        <v>1051</v>
+        <v>1004</v>
       </c>
       <c r="F101" t="n">
-        <v>30.6355</v>
+        <v>321.5653</v>
       </c>
       <c r="G101" t="n">
-        <v>1051</v>
+        <v>1307.997263194444</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4468,22 +4528,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1052</v>
+        <v>1004</v>
       </c>
       <c r="C102" t="n">
-        <v>1040</v>
+        <v>1004</v>
       </c>
       <c r="D102" t="n">
-        <v>1052</v>
+        <v>1004</v>
       </c>
       <c r="E102" t="n">
-        <v>1040</v>
+        <v>1004</v>
       </c>
       <c r="F102" t="n">
-        <v>380.6762</v>
+        <v>144.7043</v>
       </c>
       <c r="G102" t="n">
-        <v>1049</v>
+        <v>1307.997263194444</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4508,22 +4568,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1042</v>
+        <v>1004</v>
       </c>
       <c r="C103" t="n">
-        <v>1042</v>
+        <v>1004</v>
       </c>
       <c r="D103" t="n">
-        <v>1042</v>
+        <v>1004</v>
       </c>
       <c r="E103" t="n">
-        <v>1042</v>
+        <v>1004</v>
       </c>
       <c r="F103" t="n">
-        <v>1225.4302</v>
+        <v>11.1654</v>
       </c>
       <c r="G103" t="n">
-        <v>1044.333333333333</v>
+        <v>1307.997263194444</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4548,22 +4608,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1042</v>
+        <v>1007</v>
       </c>
       <c r="C104" t="n">
-        <v>1040</v>
+        <v>1007</v>
       </c>
       <c r="D104" t="n">
-        <v>1042</v>
+        <v>1007</v>
       </c>
       <c r="E104" t="n">
-        <v>1040</v>
+        <v>1007</v>
       </c>
       <c r="F104" t="n">
-        <v>1468.0038</v>
+        <v>468.5451</v>
       </c>
       <c r="G104" t="n">
-        <v>1040.666666666667</v>
+        <v>1776.542363194444</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4588,22 +4648,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1043</v>
+        <v>1007</v>
       </c>
       <c r="C105" t="n">
-        <v>1042</v>
+        <v>1007</v>
       </c>
       <c r="D105" t="n">
-        <v>1043</v>
+        <v>1007</v>
       </c>
       <c r="E105" t="n">
-        <v>1042</v>
+        <v>1007</v>
       </c>
       <c r="F105" t="n">
-        <v>648.2537</v>
+        <v>654.8625</v>
       </c>
       <c r="G105" t="n">
-        <v>1041.333333333333</v>
+        <v>1776.542363194444</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4628,22 +4688,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1044</v>
+        <v>1007</v>
       </c>
       <c r="C106" t="n">
-        <v>1044</v>
+        <v>1007</v>
       </c>
       <c r="D106" t="n">
-        <v>1044</v>
+        <v>1007</v>
       </c>
       <c r="E106" t="n">
-        <v>1044</v>
+        <v>1007</v>
       </c>
       <c r="F106" t="n">
-        <v>1468.0038</v>
+        <v>6.5389</v>
       </c>
       <c r="G106" t="n">
-        <v>1042</v>
+        <v>1776.542363194444</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4668,22 +4728,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1055</v>
+        <v>1007</v>
       </c>
       <c r="C107" t="n">
-        <v>1055</v>
+        <v>1007</v>
       </c>
       <c r="D107" t="n">
-        <v>1055</v>
+        <v>1007</v>
       </c>
       <c r="E107" t="n">
-        <v>1055</v>
+        <v>1007</v>
       </c>
       <c r="F107" t="n">
-        <v>105.9185</v>
+        <v>1352.6154</v>
       </c>
       <c r="G107" t="n">
-        <v>1047</v>
+        <v>1776.542363194444</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4708,22 +4768,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1046</v>
+        <v>1007</v>
       </c>
       <c r="C108" t="n">
-        <v>1058</v>
+        <v>1010</v>
       </c>
       <c r="D108" t="n">
-        <v>1058</v>
+        <v>1010</v>
       </c>
       <c r="E108" t="n">
-        <v>1046</v>
+        <v>1007</v>
       </c>
       <c r="F108" t="n">
-        <v>2027.3717</v>
+        <v>2203.7552</v>
       </c>
       <c r="G108" t="n">
-        <v>1052.333333333333</v>
+        <v>3980.297563194444</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4748,22 +4808,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1058</v>
+        <v>1011</v>
       </c>
       <c r="C109" t="n">
-        <v>1059</v>
+        <v>1013</v>
       </c>
       <c r="D109" t="n">
-        <v>1059</v>
+        <v>1013</v>
       </c>
       <c r="E109" t="n">
-        <v>1058</v>
+        <v>1011</v>
       </c>
       <c r="F109" t="n">
-        <v>584.5315000000001</v>
+        <v>210.1605</v>
       </c>
       <c r="G109" t="n">
-        <v>1057.333333333333</v>
+        <v>4190.458063194444</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4788,22 +4848,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1057</v>
+        <v>1013</v>
       </c>
       <c r="C110" t="n">
-        <v>1052</v>
+        <v>1015</v>
       </c>
       <c r="D110" t="n">
-        <v>1057</v>
+        <v>1015</v>
       </c>
       <c r="E110" t="n">
-        <v>1052</v>
+        <v>1013</v>
       </c>
       <c r="F110" t="n">
-        <v>449.8863</v>
+        <v>1538.5972</v>
       </c>
       <c r="G110" t="n">
-        <v>1056.333333333333</v>
+        <v>5729.055263194444</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4828,22 +4888,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1054</v>
+        <v>1015</v>
       </c>
       <c r="C111" t="n">
-        <v>1053</v>
+        <v>1015</v>
       </c>
       <c r="D111" t="n">
-        <v>1057</v>
+        <v>1015</v>
       </c>
       <c r="E111" t="n">
-        <v>1053</v>
+        <v>1015</v>
       </c>
       <c r="F111" t="n">
-        <v>878.7430000000001</v>
+        <v>17.2832</v>
       </c>
       <c r="G111" t="n">
-        <v>1054.666666666667</v>
+        <v>5729.055263194444</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4868,72 +4928,76 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1057</v>
+        <v>1015</v>
       </c>
       <c r="C112" t="n">
-        <v>1052</v>
+        <v>1015</v>
       </c>
       <c r="D112" t="n">
-        <v>1057</v>
+        <v>1015</v>
       </c>
       <c r="E112" t="n">
-        <v>1052</v>
+        <v>1015</v>
       </c>
       <c r="F112" t="n">
-        <v>331.62</v>
+        <v>1.2021</v>
       </c>
       <c r="G112" t="n">
-        <v>1052.333333333333</v>
+        <v>5729.055263194444</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1052</v>
+        <v>1018</v>
       </c>
       <c r="C113" t="n">
-        <v>1052</v>
+        <v>1018</v>
       </c>
       <c r="D113" t="n">
-        <v>1052</v>
+        <v>1018</v>
       </c>
       <c r="E113" t="n">
-        <v>1052</v>
+        <v>1018</v>
       </c>
       <c r="F113" t="n">
-        <v>1.2393</v>
+        <v>14</v>
       </c>
       <c r="G113" t="n">
-        <v>1052.333333333333</v>
+        <v>5743.055263194444</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4944,32 +5008,36 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1050</v>
+        <v>1018</v>
       </c>
       <c r="C114" t="n">
-        <v>1050</v>
+        <v>1020</v>
       </c>
       <c r="D114" t="n">
-        <v>1050</v>
+        <v>1020</v>
       </c>
       <c r="E114" t="n">
-        <v>1050</v>
+        <v>1018</v>
       </c>
       <c r="F114" t="n">
-        <v>3.7128</v>
+        <v>53.8315</v>
       </c>
       <c r="G114" t="n">
-        <v>1051.333333333333</v>
+        <v>5796.886763194444</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4980,32 +5048,36 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1051</v>
+        <v>1020</v>
       </c>
       <c r="C115" t="n">
-        <v>1051</v>
+        <v>1021</v>
       </c>
       <c r="D115" t="n">
-        <v>1051</v>
+        <v>1021</v>
       </c>
       <c r="E115" t="n">
-        <v>1051</v>
+        <v>1020</v>
       </c>
       <c r="F115" t="n">
-        <v>329.6194</v>
+        <v>62</v>
       </c>
       <c r="G115" t="n">
-        <v>1051</v>
+        <v>5858.886763194444</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5016,32 +5088,36 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1049</v>
+        <v>1021</v>
       </c>
       <c r="C116" t="n">
-        <v>1050</v>
+        <v>1021</v>
       </c>
       <c r="D116" t="n">
-        <v>1050</v>
+        <v>1021</v>
       </c>
       <c r="E116" t="n">
-        <v>1049</v>
+        <v>1021</v>
       </c>
       <c r="F116" t="n">
-        <v>202.8671</v>
+        <v>4.8747</v>
       </c>
       <c r="G116" t="n">
-        <v>1050.333333333333</v>
+        <v>5858.886763194444</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5052,32 +5128,36 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1045</v>
+        <v>1021</v>
       </c>
       <c r="C117" t="n">
-        <v>1042</v>
+        <v>1022</v>
       </c>
       <c r="D117" t="n">
-        <v>1045</v>
+        <v>1022</v>
       </c>
       <c r="E117" t="n">
-        <v>1042</v>
+        <v>1021</v>
       </c>
       <c r="F117" t="n">
-        <v>272.2119</v>
+        <v>207.5987</v>
       </c>
       <c r="G117" t="n">
-        <v>1047.666666666667</v>
+        <v>6066.485463194444</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5088,22 +5168,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1044</v>
+        <v>1023</v>
       </c>
       <c r="C118" t="n">
-        <v>1043</v>
+        <v>1025</v>
       </c>
       <c r="D118" t="n">
-        <v>1044</v>
+        <v>1025</v>
       </c>
       <c r="E118" t="n">
-        <v>1043</v>
+        <v>1023</v>
       </c>
       <c r="F118" t="n">
-        <v>441.9281</v>
+        <v>288.6718</v>
       </c>
       <c r="G118" t="n">
-        <v>1045</v>
+        <v>6355.157263194444</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5113,7 +5193,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5124,32 +5208,36 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1045</v>
+        <v>1025</v>
       </c>
       <c r="C119" t="n">
-        <v>1052</v>
+        <v>1025</v>
       </c>
       <c r="D119" t="n">
-        <v>1052</v>
+        <v>1025</v>
       </c>
       <c r="E119" t="n">
-        <v>1045</v>
+        <v>1025</v>
       </c>
       <c r="F119" t="n">
-        <v>200.9649</v>
+        <v>861.7903</v>
       </c>
       <c r="G119" t="n">
-        <v>1045.666666666667</v>
+        <v>6355.157263194444</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5160,32 +5248,36 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1053</v>
+        <v>1025</v>
       </c>
       <c r="C120" t="n">
-        <v>1053</v>
+        <v>1028</v>
       </c>
       <c r="D120" t="n">
-        <v>1053</v>
+        <v>1029</v>
       </c>
       <c r="E120" t="n">
-        <v>1053</v>
+        <v>1025</v>
       </c>
       <c r="F120" t="n">
-        <v>689.6488000000001</v>
+        <v>1555.2175</v>
       </c>
       <c r="G120" t="n">
-        <v>1049.333333333333</v>
+        <v>7910.374763194443</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5196,32 +5288,36 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1053</v>
+        <v>1028</v>
       </c>
       <c r="C121" t="n">
-        <v>1053</v>
+        <v>1028</v>
       </c>
       <c r="D121" t="n">
-        <v>1053</v>
+        <v>1028</v>
       </c>
       <c r="E121" t="n">
-        <v>1053</v>
+        <v>1028</v>
       </c>
       <c r="F121" t="n">
-        <v>284.6641</v>
+        <v>28.931</v>
       </c>
       <c r="G121" t="n">
-        <v>1052.666666666667</v>
+        <v>7910.374763194443</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5232,32 +5328,36 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1048</v>
+        <v>1028</v>
       </c>
       <c r="C122" t="n">
-        <v>1047</v>
+        <v>1030</v>
       </c>
       <c r="D122" t="n">
-        <v>1048</v>
+        <v>1030</v>
       </c>
       <c r="E122" t="n">
-        <v>1047</v>
+        <v>1028</v>
       </c>
       <c r="F122" t="n">
-        <v>219.7906</v>
+        <v>595.8453</v>
       </c>
       <c r="G122" t="n">
-        <v>1051</v>
+        <v>8506.220063194443</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5268,32 +5368,36 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1047</v>
+        <v>1028</v>
       </c>
       <c r="C123" t="n">
-        <v>1048</v>
+        <v>1028</v>
       </c>
       <c r="D123" t="n">
-        <v>1048</v>
+        <v>1028</v>
       </c>
       <c r="E123" t="n">
-        <v>1047</v>
+        <v>1028</v>
       </c>
       <c r="F123" t="n">
-        <v>23.9629</v>
+        <v>415.3651</v>
       </c>
       <c r="G123" t="n">
-        <v>1049.333333333333</v>
+        <v>8090.854963194443</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5304,32 +5408,36 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1040</v>
+        <v>1020</v>
       </c>
       <c r="C124" t="n">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D124" t="n">
-        <v>1040</v>
+        <v>1045</v>
       </c>
       <c r="E124" t="n">
-        <v>1040</v>
+        <v>1019</v>
       </c>
       <c r="F124" t="n">
-        <v>6</v>
+        <v>2937.3556</v>
       </c>
       <c r="G124" t="n">
-        <v>1045</v>
+        <v>11028.21056319444</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5340,32 +5448,36 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C125" t="n">
-        <v>1039</v>
+        <v>1046</v>
       </c>
       <c r="D125" t="n">
-        <v>1039</v>
+        <v>1046</v>
       </c>
       <c r="E125" t="n">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="F125" t="n">
-        <v>78.5754</v>
+        <v>2117.186382217973</v>
       </c>
       <c r="G125" t="n">
-        <v>1042.333333333333</v>
+        <v>13145.39694541242</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5376,22 +5488,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1039</v>
+        <v>1047</v>
       </c>
       <c r="C126" t="n">
-        <v>1039</v>
+        <v>1047</v>
       </c>
       <c r="D126" t="n">
-        <v>1039</v>
+        <v>1047</v>
       </c>
       <c r="E126" t="n">
-        <v>1039</v>
+        <v>1047</v>
       </c>
       <c r="F126" t="n">
-        <v>1.6571</v>
+        <v>447.918</v>
       </c>
       <c r="G126" t="n">
-        <v>1039.333333333333</v>
+        <v>13593.31494541242</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5401,7 +5513,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5412,32 +5528,36 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="C127" t="n">
-        <v>1039</v>
+        <v>1050</v>
       </c>
       <c r="D127" t="n">
-        <v>1039</v>
+        <v>1050</v>
       </c>
       <c r="E127" t="n">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="F127" t="n">
-        <v>466.0804</v>
+        <v>677.9824</v>
       </c>
       <c r="G127" t="n">
-        <v>1039</v>
+        <v>14271.29734541242</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5448,22 +5568,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1039</v>
+        <v>1050</v>
       </c>
       <c r="C128" t="n">
-        <v>1039</v>
+        <v>1046</v>
       </c>
       <c r="D128" t="n">
-        <v>1039</v>
+        <v>1050</v>
       </c>
       <c r="E128" t="n">
-        <v>1039</v>
+        <v>1046</v>
       </c>
       <c r="F128" t="n">
-        <v>23.7437</v>
+        <v>1845.6438</v>
       </c>
       <c r="G128" t="n">
-        <v>1039</v>
+        <v>12425.65354541242</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5473,7 +5593,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5484,32 +5608,36 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1044</v>
+        <v>1054</v>
       </c>
       <c r="C129" t="n">
-        <v>1044</v>
+        <v>1056</v>
       </c>
       <c r="D129" t="n">
-        <v>1045</v>
+        <v>1056</v>
       </c>
       <c r="E129" t="n">
-        <v>1044</v>
+        <v>1054</v>
       </c>
       <c r="F129" t="n">
-        <v>254.0493</v>
+        <v>1053.9807</v>
       </c>
       <c r="G129" t="n">
-        <v>1040.666666666667</v>
+        <v>13479.63424541242</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5520,7 +5648,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1046</v>
+        <v>1051</v>
       </c>
       <c r="C130" t="n">
         <v>1051</v>
@@ -5529,23 +5657,27 @@
         <v>1051</v>
       </c>
       <c r="E130" t="n">
-        <v>1046</v>
+        <v>1051</v>
       </c>
       <c r="F130" t="n">
-        <v>1344.4263</v>
+        <v>30.6355</v>
       </c>
       <c r="G130" t="n">
-        <v>1044.666666666667</v>
+        <v>13448.99874541242</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5556,32 +5688,36 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C131" t="n">
-        <v>1051</v>
+        <v>1040</v>
       </c>
       <c r="D131" t="n">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="E131" t="n">
-        <v>1051</v>
+        <v>1040</v>
       </c>
       <c r="F131" t="n">
-        <v>7.8051</v>
+        <v>380.6762</v>
       </c>
       <c r="G131" t="n">
-        <v>1048.666666666667</v>
+        <v>13068.32254541242</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5592,32 +5728,36 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1051</v>
+        <v>1042</v>
       </c>
       <c r="C132" t="n">
-        <v>1057</v>
+        <v>1042</v>
       </c>
       <c r="D132" t="n">
-        <v>1057</v>
+        <v>1042</v>
       </c>
       <c r="E132" t="n">
-        <v>1051</v>
+        <v>1042</v>
       </c>
       <c r="F132" t="n">
-        <v>271.2757</v>
+        <v>1225.4302</v>
       </c>
       <c r="G132" t="n">
-        <v>1053</v>
+        <v>14293.75274541242</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5628,32 +5768,36 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1059</v>
+        <v>1042</v>
       </c>
       <c r="C133" t="n">
-        <v>1059</v>
+        <v>1040</v>
       </c>
       <c r="D133" t="n">
-        <v>1059</v>
+        <v>1042</v>
       </c>
       <c r="E133" t="n">
-        <v>1059</v>
+        <v>1040</v>
       </c>
       <c r="F133" t="n">
-        <v>871.4217</v>
+        <v>1468.0038</v>
       </c>
       <c r="G133" t="n">
-        <v>1055.666666666667</v>
+        <v>12825.74894541242</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5664,32 +5808,36 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1062</v>
+        <v>1043</v>
       </c>
       <c r="C134" t="n">
-        <v>1062</v>
+        <v>1042</v>
       </c>
       <c r="D134" t="n">
-        <v>1062</v>
+        <v>1043</v>
       </c>
       <c r="E134" t="n">
-        <v>1062</v>
+        <v>1042</v>
       </c>
       <c r="F134" t="n">
-        <v>11.0542</v>
+        <v>648.2537</v>
       </c>
       <c r="G134" t="n">
-        <v>1059.333333333333</v>
+        <v>13474.00264541242</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5700,32 +5848,36 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1063</v>
+        <v>1044</v>
       </c>
       <c r="C135" t="n">
-        <v>1064</v>
+        <v>1044</v>
       </c>
       <c r="D135" t="n">
-        <v>1064</v>
+        <v>1044</v>
       </c>
       <c r="E135" t="n">
-        <v>1063</v>
+        <v>1044</v>
       </c>
       <c r="F135" t="n">
-        <v>636.9061</v>
+        <v>1468.0038</v>
       </c>
       <c r="G135" t="n">
-        <v>1061.666666666667</v>
+        <v>14942.00644541242</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5736,32 +5888,36 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1064</v>
+        <v>1055</v>
       </c>
       <c r="C136" t="n">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="D136" t="n">
-        <v>1064</v>
+        <v>1055</v>
       </c>
       <c r="E136" t="n">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="F136" t="n">
-        <v>2511.1453</v>
+        <v>105.9185</v>
       </c>
       <c r="G136" t="n">
-        <v>1062</v>
+        <v>15047.92494541242</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5772,22 +5928,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1060</v>
+        <v>1046</v>
       </c>
       <c r="C137" t="n">
         <v>1058</v>
       </c>
       <c r="D137" t="n">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="E137" t="n">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="F137" t="n">
-        <v>1518.9036</v>
+        <v>2027.3717</v>
       </c>
       <c r="G137" t="n">
-        <v>1060.666666666667</v>
+        <v>17075.29664541242</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5797,10 +5953,12 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
@@ -5811,19 +5969,19 @@
         <v>1058</v>
       </c>
       <c r="C138" t="n">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="D138" t="n">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="E138" t="n">
         <v>1058</v>
       </c>
       <c r="F138" t="n">
-        <v>50</v>
+        <v>584.5315000000001</v>
       </c>
       <c r="G138" t="n">
-        <v>1058.666666666667</v>
+        <v>17659.82814541242</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5844,22 +6002,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C139" t="n">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="D139" t="n">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E139" t="n">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="F139" t="n">
-        <v>47.8473</v>
+        <v>449.8863</v>
       </c>
       <c r="G139" t="n">
-        <v>1058</v>
+        <v>17209.94184541242</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5880,22 +6038,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="C140" t="n">
-        <v>1063</v>
+        <v>1053</v>
       </c>
       <c r="D140" t="n">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="E140" t="n">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="F140" t="n">
-        <v>291.1185</v>
+        <v>878.7430000000001</v>
       </c>
       <c r="G140" t="n">
-        <v>1059.666666666667</v>
+        <v>18088.68484541242</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5911,6 +6069,1050 @@
       </c>
       <c r="N140" t="inlineStr"/>
     </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1057</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1052</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1057</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1052</v>
+      </c>
+      <c r="F141" t="n">
+        <v>331.62</v>
+      </c>
+      <c r="G141" t="n">
+        <v>17757.06484541242</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1052</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1052</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1052</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1052</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1.2393</v>
+      </c>
+      <c r="G142" t="n">
+        <v>17757.06484541242</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1050</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1050</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1050</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3.7128</v>
+      </c>
+      <c r="G143" t="n">
+        <v>17753.35204541242</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1051</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1051</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1051</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1051</v>
+      </c>
+      <c r="F144" t="n">
+        <v>329.6194</v>
+      </c>
+      <c r="G144" t="n">
+        <v>18082.97144541242</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1049</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1050</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1049</v>
+      </c>
+      <c r="F145" t="n">
+        <v>202.8671</v>
+      </c>
+      <c r="G145" t="n">
+        <v>17880.10434541242</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1045</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1042</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1045</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1042</v>
+      </c>
+      <c r="F146" t="n">
+        <v>272.2119</v>
+      </c>
+      <c r="G146" t="n">
+        <v>17607.89244541242</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1044</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1043</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1044</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1043</v>
+      </c>
+      <c r="F147" t="n">
+        <v>441.9281</v>
+      </c>
+      <c r="G147" t="n">
+        <v>18049.82054541242</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1045</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1052</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1052</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1045</v>
+      </c>
+      <c r="F148" t="n">
+        <v>200.9649</v>
+      </c>
+      <c r="G148" t="n">
+        <v>18250.78544541242</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1053</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1053</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1053</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1053</v>
+      </c>
+      <c r="F149" t="n">
+        <v>689.6488000000001</v>
+      </c>
+      <c r="G149" t="n">
+        <v>18940.43424541242</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1053</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1053</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1053</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1053</v>
+      </c>
+      <c r="F150" t="n">
+        <v>284.6641</v>
+      </c>
+      <c r="G150" t="n">
+        <v>18940.43424541242</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1048</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1047</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1048</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1047</v>
+      </c>
+      <c r="F151" t="n">
+        <v>219.7906</v>
+      </c>
+      <c r="G151" t="n">
+        <v>18720.64364541242</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1047</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1048</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1048</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1047</v>
+      </c>
+      <c r="F152" t="n">
+        <v>23.9629</v>
+      </c>
+      <c r="G152" t="n">
+        <v>18744.60654541242</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1040</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1040</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1040</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1040</v>
+      </c>
+      <c r="F153" t="n">
+        <v>6</v>
+      </c>
+      <c r="G153" t="n">
+        <v>18738.60654541242</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1039</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1039</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1039</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1039</v>
+      </c>
+      <c r="F154" t="n">
+        <v>78.5754</v>
+      </c>
+      <c r="G154" t="n">
+        <v>18660.03114541242</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1039</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1039</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1039</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1039</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1.6571</v>
+      </c>
+      <c r="G155" t="n">
+        <v>18660.03114541242</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1039</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1039</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1039</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1039</v>
+      </c>
+      <c r="F156" t="n">
+        <v>466.0804</v>
+      </c>
+      <c r="G156" t="n">
+        <v>18660.03114541242</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1039</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1039</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1039</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1039</v>
+      </c>
+      <c r="F157" t="n">
+        <v>23.7437</v>
+      </c>
+      <c r="G157" t="n">
+        <v>18660.03114541242</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1044</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1044</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1045</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1044</v>
+      </c>
+      <c r="F158" t="n">
+        <v>254.0493</v>
+      </c>
+      <c r="G158" t="n">
+        <v>18914.08044541242</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1046</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1051</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1051</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1046</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1344.4263</v>
+      </c>
+      <c r="G159" t="n">
+        <v>20258.50674541241</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1051</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1051</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1051</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1051</v>
+      </c>
+      <c r="F160" t="n">
+        <v>7.8051</v>
+      </c>
+      <c r="G160" t="n">
+        <v>20258.50674541241</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1051</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1057</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1057</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1051</v>
+      </c>
+      <c r="F161" t="n">
+        <v>271.2757</v>
+      </c>
+      <c r="G161" t="n">
+        <v>20529.78244541241</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1059</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1059</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1059</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1059</v>
+      </c>
+      <c r="F162" t="n">
+        <v>871.4217</v>
+      </c>
+      <c r="G162" t="n">
+        <v>21401.20414541241</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1062</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1062</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1062</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1062</v>
+      </c>
+      <c r="F163" t="n">
+        <v>11.0542</v>
+      </c>
+      <c r="G163" t="n">
+        <v>21412.25834541241</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1063</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1064</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1064</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1063</v>
+      </c>
+      <c r="F164" t="n">
+        <v>636.9061</v>
+      </c>
+      <c r="G164" t="n">
+        <v>22049.16444541241</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1064</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1060</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1064</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1058</v>
+      </c>
+      <c r="F165" t="n">
+        <v>2511.1453</v>
+      </c>
+      <c r="G165" t="n">
+        <v>19538.01914541241</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1060</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1058</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1065</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1049</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1518.9036</v>
+      </c>
+      <c r="G166" t="n">
+        <v>18019.11554541241</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1058</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1058</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1058</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1058</v>
+      </c>
+      <c r="F167" t="n">
+        <v>50</v>
+      </c>
+      <c r="G167" t="n">
+        <v>18019.11554541241</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1058</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1058</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1058</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1058</v>
+      </c>
+      <c r="F168" t="n">
+        <v>47.8473</v>
+      </c>
+      <c r="G168" t="n">
+        <v>18019.11554541241</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1058</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1063</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1063</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1058</v>
+      </c>
+      <c r="F169" t="n">
+        <v>291.1185</v>
+      </c>
+      <c r="G169" t="n">
+        <v>18310.23404541241</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-27 BackTest OMG.xlsx
+++ b/BackTest/2019-10-27 BackTest OMG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N169"/>
+  <dimension ref="A1:M169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>449.6988000000002</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,24 +484,21 @@
         <v>401.9171000000002</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
         <v>967</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,24 +523,21 @@
         <v>-894.2197999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
         <v>966</v>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,24 +562,21 @@
         <v>-885.3197999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
         <v>962</v>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,24 +601,21 @@
         <v>-885.3197999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
         <v>967</v>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,24 +640,21 @@
         <v>-569.9997999999998</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
         <v>967</v>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -702,24 +679,19 @@
         <v>-490.0997999999998</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>968</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -744,24 +716,19 @@
         <v>-461.2701999999998</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>969</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -786,24 +753,19 @@
         <v>771.9133000000003</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>974</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -828,24 +790,19 @@
         <v>789.9162000000002</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>978</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -870,24 +827,19 @@
         <v>789.9162000000002</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>979</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -912,24 +864,19 @@
         <v>786.8407000000002</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>979</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -954,24 +901,19 @@
         <v>-3086.6708</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>975</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -998,20 +940,17 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1038,20 +977,17 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1078,20 +1014,17 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1118,20 +1051,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1158,20 +1088,17 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1198,20 +1125,17 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1238,20 +1162,17 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1278,20 +1199,17 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1318,20 +1236,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1356,24 +1271,19 @@
         <v>-4982.9874</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>978</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1398,24 +1308,19 @@
         <v>-4982.9874</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>975</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1440,24 +1345,19 @@
         <v>-4982.4658</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>975</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1482,24 +1382,19 @@
         <v>-4941.7635</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>979</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1524,24 +1419,19 @@
         <v>-4914.5654</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>980</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1566,24 +1456,19 @@
         <v>-4964.5654</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>986</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1608,24 +1493,19 @@
         <v>-4964.5654</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>985</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1650,24 +1530,19 @@
         <v>-5924.277400000001</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>985</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1692,24 +1567,19 @@
         <v>-5371.772400000001</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>980</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1734,24 +1604,19 @@
         <v>-5359.6724</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>983</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1776,24 +1641,19 @@
         <v>-5972.241400000001</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>984</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1818,24 +1678,19 @@
         <v>-5972.241400000001</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>977</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1860,24 +1715,19 @@
         <v>-5934.147000000001</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>977</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1902,24 +1752,19 @@
         <v>-6084.806300000001</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>978</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1944,24 +1789,19 @@
         <v>-6084.806300000001</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>977</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1986,24 +1826,19 @@
         <v>-6084.806300000001</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>977</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2028,24 +1863,19 @@
         <v>-6084.806300000001</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>977</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2070,24 +1900,19 @@
         <v>-6084.806300000001</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>977</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2112,24 +1937,19 @@
         <v>-6083.806300000001</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>977</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2154,24 +1974,19 @@
         <v>-5821.089600000001</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>979</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2198,20 +2013,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2238,20 +2050,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2278,20 +2087,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2318,20 +2124,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2356,24 +2159,19 @@
         <v>-5138.921100000001</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>981</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2400,20 +2198,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2438,24 +2233,19 @@
         <v>-5188.921100000001</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>981</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2480,24 +2270,19 @@
         <v>-5439.825200000001</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>979</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2522,24 +2307,19 @@
         <v>-6469.231900000001</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>978</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2564,24 +2344,19 @@
         <v>-6412.630300000001</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>977</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2606,24 +2381,19 @@
         <v>-6445.9521</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>984</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2648,24 +2418,19 @@
         <v>-6445.9521</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>982</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2690,24 +2455,19 @@
         <v>-5780.9119</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>982</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2732,24 +2492,19 @@
         <v>-5780.9119</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>983</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2776,20 +2531,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2816,20 +2568,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2856,20 +2605,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2896,20 +2642,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2936,20 +2679,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2976,20 +2716,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3016,20 +2753,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3056,20 +2790,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3096,20 +2827,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3136,20 +2864,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3176,20 +2901,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3216,20 +2938,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3256,20 +2975,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3296,20 +3012,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3336,20 +3049,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3374,24 +3084,19 @@
         <v>-4923.9575</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>987</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3416,24 +3121,19 @@
         <v>-4926.684700000001</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>982</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3458,24 +3158,19 @@
         <v>-4837.184700000001</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>980</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3500,24 +3195,19 @@
         <v>-5772.164900000001</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>987</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3542,24 +3232,19 @@
         <v>-5590.164900000001</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>979</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3586,20 +3271,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3626,20 +3308,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3666,20 +3345,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3706,20 +3382,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3746,20 +3419,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3786,20 +3456,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3826,20 +3493,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3866,20 +3530,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3906,20 +3567,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3946,20 +3604,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3984,24 +3639,19 @@
         <v>-4462.426700000001</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>990</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4028,20 +3678,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4068,20 +3715,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4108,20 +3752,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4148,20 +3789,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4188,20 +3826,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4228,20 +3863,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4268,20 +3900,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4308,20 +3937,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4348,20 +3974,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4388,20 +4011,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4428,20 +4048,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4468,20 +4085,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4508,20 +4122,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4548,20 +4159,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4588,20 +4196,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4628,20 +4233,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4668,20 +4270,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4708,20 +4307,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4748,20 +4344,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4788,20 +4381,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4828,20 +4418,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4868,20 +4455,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4908,20 +4492,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4948,20 +4529,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4988,20 +4566,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5028,20 +4603,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5068,20 +4640,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5108,20 +4677,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5148,20 +4714,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5188,20 +4751,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5226,22 +4786,17 @@
         <v>6355.157263194444</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5268,20 +4823,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5306,22 +4854,15 @@
         <v>7910.374763194443</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5346,22 +4887,15 @@
         <v>8506.220063194443</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5386,22 +4920,15 @@
         <v>8090.854963194443</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5426,22 +4953,15 @@
         <v>11028.21056319444</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5466,22 +4986,15 @@
         <v>13145.39694541242</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5506,22 +5019,15 @@
         <v>13593.31494541242</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5546,22 +5052,15 @@
         <v>14271.29734541242</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5586,22 +5085,15 @@
         <v>12425.65354541242</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5626,22 +5118,15 @@
         <v>13479.63424541242</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5666,22 +5151,15 @@
         <v>13448.99874541242</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5706,22 +5184,15 @@
         <v>13068.32254541242</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5746,22 +5217,15 @@
         <v>14293.75274541242</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5786,22 +5250,15 @@
         <v>12825.74894541242</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5826,22 +5283,15 @@
         <v>13474.00264541242</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5866,22 +5316,15 @@
         <v>14942.00644541242</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5908,20 +5351,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5948,18 +5384,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L137" t="n">
+        <v>1</v>
       </c>
       <c r="M137" t="inlineStr"/>
-      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5984,18 +5415,15 @@
         <v>17659.82814541242</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6022,16 +5450,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6056,18 +5481,15 @@
         <v>18088.68484541242</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6092,18 +5514,15 @@
         <v>17757.06484541242</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6128,18 +5547,15 @@
         <v>17757.06484541242</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6164,18 +5580,15 @@
         <v>17753.35204541242</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6200,18 +5613,15 @@
         <v>18082.97144541242</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6236,18 +5646,15 @@
         <v>17880.10434541242</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6272,18 +5679,15 @@
         <v>17607.89244541242</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6310,16 +5714,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6346,16 +5747,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6380,18 +5778,15 @@
         <v>18940.43424541242</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6416,18 +5811,15 @@
         <v>18940.43424541242</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6452,18 +5844,15 @@
         <v>18720.64364541242</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6490,16 +5879,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6524,18 +5910,15 @@
         <v>18738.60654541242</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6562,16 +5945,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6598,16 +5978,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6634,16 +6011,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6670,16 +6044,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6704,18 +6075,15 @@
         <v>18914.08044541242</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6740,18 +6108,15 @@
         <v>20258.50674541241</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6778,16 +6143,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6814,16 +6176,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6850,16 +6209,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6886,16 +6242,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6920,18 +6273,15 @@
         <v>22049.16444541241</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6956,18 +6306,15 @@
         <v>19538.01914541241</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6994,16 +6341,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7030,16 +6374,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7064,18 +6405,15 @@
         <v>18019.11554541241</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7102,18 +6440,15 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest OMG.xlsx
+++ b/BackTest/2019-10-27 BackTest OMG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>449.6988000000002</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>401.9171000000002</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>967</v>
@@ -523,7 +523,7 @@
         <v>-894.2197999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>966</v>
@@ -562,7 +562,7 @@
         <v>-885.3197999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>962</v>
@@ -601,7 +601,7 @@
         <v>-885.3197999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>967</v>
@@ -640,7 +640,7 @@
         <v>-569.9997999999998</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>967</v>
@@ -679,9 +679,11 @@
         <v>-490.0997999999998</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>968</v>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
@@ -716,9 +718,11 @@
         <v>-461.2701999999998</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>969</v>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -753,9 +757,11 @@
         <v>771.9133000000003</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>974</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -790,9 +796,11 @@
         <v>789.9162000000002</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>978</v>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -1234,9 +1242,11 @@
         <v>-4921.2284</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>973</v>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -1308,9 +1318,11 @@
         <v>-4982.9874</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>975</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1345,9 +1357,11 @@
         <v>-4982.4658</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>975</v>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -1419,9 +1433,11 @@
         <v>-4914.5654</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>980</v>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -1826,9 +1842,11 @@
         <v>-6084.806300000001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>977</v>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -1900,9 +1918,11 @@
         <v>-6084.806300000001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>977</v>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -1974,9 +1994,11 @@
         <v>-5821.089600000001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>979</v>
+      </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2011,9 +2033,11 @@
         <v>-5184.844900000001</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>981</v>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2159,9 +2183,11 @@
         <v>-5138.921100000001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>981</v>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2196,9 +2222,11 @@
         <v>-5138.921100000001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>981</v>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2233,9 +2261,11 @@
         <v>-5188.921100000001</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>981</v>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2270,9 +2300,11 @@
         <v>-5439.825200000001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>979</v>
+      </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2307,9 +2339,11 @@
         <v>-6469.231900000001</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>978</v>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2344,9 +2378,11 @@
         <v>-6412.630300000001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>977</v>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -3121,9 +3157,11 @@
         <v>-4926.684700000001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>982</v>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -3158,9 +3196,11 @@
         <v>-4837.184700000001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>980</v>
+      </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -3195,9 +3235,11 @@
         <v>-5772.164900000001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>987</v>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3232,9 +3274,11 @@
         <v>-5590.164900000001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>979</v>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3269,9 +3313,11 @@
         <v>-5640.193700000001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>988</v>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3343,9 +3389,11 @@
         <v>-5597.762700000001</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>987</v>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -3639,9 +3687,11 @@
         <v>-4462.426700000001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>990</v>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
@@ -4786,16 +4836,18 @@
         <v>6355.157263194444</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
       <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
@@ -4825,7 +4877,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4854,11 +4910,15 @@
         <v>7910.374763194443</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4887,11 +4947,15 @@
         <v>8506.220063194443</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4920,11 +4984,15 @@
         <v>8090.854963194443</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4953,11 +5021,15 @@
         <v>11028.21056319444</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4986,11 +5058,15 @@
         <v>13145.39694541242</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5019,11 +5095,15 @@
         <v>13593.31494541242</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5052,11 +5132,15 @@
         <v>14271.29734541242</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5085,11 +5169,15 @@
         <v>12425.65354541242</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5118,11 +5206,15 @@
         <v>13479.63424541242</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5151,11 +5243,15 @@
         <v>13448.99874541242</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5184,11 +5280,15 @@
         <v>13068.32254541242</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5217,11 +5317,15 @@
         <v>14293.75274541242</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5250,11 +5354,15 @@
         <v>12825.74894541242</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5283,11 +5391,15 @@
         <v>13474.00264541242</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5316,11 +5428,15 @@
         <v>14942.00644541242</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5353,7 +5469,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5386,7 +5506,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5415,11 +5539,15 @@
         <v>17659.82814541242</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5452,7 +5580,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5481,11 +5613,15 @@
         <v>18088.68484541242</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5514,11 +5650,15 @@
         <v>17757.06484541242</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5547,11 +5687,15 @@
         <v>17757.06484541242</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5580,11 +5724,15 @@
         <v>17753.35204541242</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5613,11 +5761,15 @@
         <v>18082.97144541242</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5646,14 +5798,16 @@
         <v>17880.10434541242</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
@@ -5679,7 +5833,7 @@
         <v>17607.89244541242</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5712,7 +5866,7 @@
         <v>18049.82054541242</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5778,7 +5932,7 @@
         <v>18940.43424541242</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5811,7 +5965,7 @@
         <v>18940.43424541242</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5844,7 +5998,7 @@
         <v>18720.64364541242</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5877,7 +6031,7 @@
         <v>18744.60654541242</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5910,7 +6064,7 @@
         <v>18738.60654541242</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5943,7 +6097,7 @@
         <v>18660.03114541242</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5976,7 +6130,7 @@
         <v>18660.03114541242</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6009,7 +6163,7 @@
         <v>18660.03114541242</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6042,7 +6196,7 @@
         <v>18660.03114541242</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6075,7 +6229,7 @@
         <v>18914.08044541242</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6108,7 +6262,7 @@
         <v>20258.50674541241</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6141,7 +6295,7 @@
         <v>20258.50674541241</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6174,7 +6328,7 @@
         <v>20529.78244541241</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6240,7 +6394,7 @@
         <v>21412.25834541241</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6273,7 +6427,7 @@
         <v>22049.16444541241</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6306,7 +6460,7 @@
         <v>19538.01914541241</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6339,7 +6493,7 @@
         <v>18019.11554541241</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6372,7 +6526,7 @@
         <v>18019.11554541241</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6405,7 +6559,7 @@
         <v>18019.11554541241</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6438,7 +6592,7 @@
         <v>18310.23404541241</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6449,6 +6603,6 @@
       <c r="M169" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest OMG.xlsx
+++ b/BackTest/2019-10-27 BackTest OMG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>449.6988000000002</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,2540 +484,2228 @@
         <v>401.9171000000002</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>965</v>
+      </c>
+      <c r="C4" t="n">
+        <v>962</v>
+      </c>
+      <c r="D4" t="n">
+        <v>965</v>
+      </c>
+      <c r="E4" t="n">
+        <v>961</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1296.1369</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-894.2197999999999</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>967</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="C5" t="n">
+        <v>967</v>
+      </c>
+      <c r="D5" t="n">
+        <v>967</v>
+      </c>
+      <c r="E5" t="n">
+        <v>967</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-885.3197999999999</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>968</v>
+      </c>
+      <c r="C6" t="n">
+        <v>967</v>
+      </c>
+      <c r="D6" t="n">
+        <v>968</v>
+      </c>
+      <c r="E6" t="n">
+        <v>967</v>
+      </c>
+      <c r="F6" t="n">
+        <v>312.3814</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-885.3197999999999</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>968</v>
+      </c>
+      <c r="C7" t="n">
+        <v>968</v>
+      </c>
+      <c r="D7" t="n">
+        <v>968</v>
+      </c>
+      <c r="E7" t="n">
+        <v>968</v>
+      </c>
+      <c r="F7" t="n">
+        <v>315.32</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-569.9997999999998</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>969</v>
+      </c>
+      <c r="C8" t="n">
+        <v>969</v>
+      </c>
+      <c r="D8" t="n">
+        <v>969</v>
+      </c>
+      <c r="E8" t="n">
+        <v>969</v>
+      </c>
+      <c r="F8" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-490.0997999999998</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>974</v>
+      </c>
+      <c r="C9" t="n">
+        <v>974</v>
+      </c>
+      <c r="D9" t="n">
+        <v>974</v>
+      </c>
+      <c r="E9" t="n">
+        <v>974</v>
+      </c>
+      <c r="F9" t="n">
+        <v>28.8296</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-461.2701999999998</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>975</v>
+      </c>
+      <c r="C10" t="n">
+        <v>978</v>
+      </c>
+      <c r="D10" t="n">
+        <v>978</v>
+      </c>
+      <c r="E10" t="n">
+        <v>975</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1233.1835</v>
+      </c>
+      <c r="G10" t="n">
+        <v>771.9133000000003</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>979</v>
+      </c>
+      <c r="C11" t="n">
+        <v>979</v>
+      </c>
+      <c r="D11" t="n">
+        <v>979</v>
+      </c>
+      <c r="E11" t="n">
+        <v>979</v>
+      </c>
+      <c r="F11" t="n">
+        <v>18.0029</v>
+      </c>
+      <c r="G11" t="n">
+        <v>789.9162000000002</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>979</v>
+      </c>
+      <c r="C12" t="n">
+        <v>979</v>
+      </c>
+      <c r="D12" t="n">
+        <v>979</v>
+      </c>
+      <c r="E12" t="n">
+        <v>979</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3.0755</v>
+      </c>
+      <c r="G12" t="n">
+        <v>789.9162000000002</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>975</v>
+      </c>
+      <c r="C13" t="n">
+        <v>975</v>
+      </c>
+      <c r="D13" t="n">
+        <v>975</v>
+      </c>
+      <c r="E13" t="n">
+        <v>975</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3.0755</v>
+      </c>
+      <c r="G13" t="n">
+        <v>786.8407000000002</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>974</v>
+      </c>
+      <c r="C14" t="n">
+        <v>974</v>
+      </c>
+      <c r="D14" t="n">
+        <v>974</v>
+      </c>
+      <c r="E14" t="n">
+        <v>974</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3873.5115</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-3086.6708</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>974</v>
+      </c>
+      <c r="C15" t="n">
+        <v>974</v>
+      </c>
+      <c r="D15" t="n">
+        <v>974</v>
+      </c>
+      <c r="E15" t="n">
+        <v>974</v>
+      </c>
+      <c r="F15" t="n">
+        <v>320.5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-3086.6708</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>974</v>
+      </c>
+      <c r="C16" t="n">
+        <v>974</v>
+      </c>
+      <c r="D16" t="n">
+        <v>974</v>
+      </c>
+      <c r="E16" t="n">
+        <v>974</v>
+      </c>
+      <c r="F16" t="n">
+        <v>766.3102</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-3086.6708</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>974</v>
+      </c>
+      <c r="C17" t="n">
+        <v>974</v>
+      </c>
+      <c r="D17" t="n">
+        <v>974</v>
+      </c>
+      <c r="E17" t="n">
+        <v>974</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.6635</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-3086.6708</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>974</v>
+      </c>
+      <c r="C18" t="n">
+        <v>974</v>
+      </c>
+      <c r="D18" t="n">
+        <v>974</v>
+      </c>
+      <c r="E18" t="n">
+        <v>974</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.3326</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-3086.6708</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>973</v>
+      </c>
+      <c r="C19" t="n">
+        <v>972</v>
+      </c>
+      <c r="D19" t="n">
+        <v>973</v>
+      </c>
+      <c r="E19" t="n">
+        <v>972</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2251</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-5337.6708</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>973</v>
+      </c>
+      <c r="C20" t="n">
+        <v>973</v>
+      </c>
+      <c r="D20" t="n">
+        <v>973</v>
+      </c>
+      <c r="E20" t="n">
+        <v>973</v>
+      </c>
+      <c r="F20" t="n">
+        <v>35</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-5302.6708</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>973</v>
+      </c>
+      <c r="C21" t="n">
+        <v>974</v>
+      </c>
+      <c r="D21" t="n">
+        <v>974</v>
+      </c>
+      <c r="E21" t="n">
+        <v>973</v>
+      </c>
+      <c r="F21" t="n">
+        <v>206.0811</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-5096.5897</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>973</v>
+      </c>
+      <c r="C22" t="n">
+        <v>973</v>
+      </c>
+      <c r="D22" t="n">
+        <v>973</v>
+      </c>
+      <c r="E22" t="n">
+        <v>973</v>
+      </c>
+      <c r="F22" t="n">
+        <v>400</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-5496.5897</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>971</v>
+      </c>
+      <c r="C23" t="n">
+        <v>978</v>
+      </c>
+      <c r="D23" t="n">
+        <v>978</v>
+      </c>
+      <c r="E23" t="n">
+        <v>971</v>
+      </c>
+      <c r="F23" t="n">
+        <v>575.3613</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-4921.2284</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>975</v>
+      </c>
+      <c r="C24" t="n">
+        <v>975</v>
+      </c>
+      <c r="D24" t="n">
+        <v>975</v>
+      </c>
+      <c r="E24" t="n">
+        <v>975</v>
+      </c>
+      <c r="F24" t="n">
+        <v>61.759</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-4982.9874</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>975</v>
+      </c>
+      <c r="C25" t="n">
+        <v>975</v>
+      </c>
+      <c r="D25" t="n">
+        <v>975</v>
+      </c>
+      <c r="E25" t="n">
+        <v>975</v>
+      </c>
+      <c r="F25" t="n">
+        <v>264.241</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-4982.9874</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>979</v>
+      </c>
+      <c r="C26" t="n">
+        <v>979</v>
+      </c>
+      <c r="D26" t="n">
+        <v>979</v>
+      </c>
+      <c r="E26" t="n">
+        <v>979</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.5216</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-4982.4658</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>980</v>
+      </c>
+      <c r="C27" t="n">
+        <v>980</v>
+      </c>
+      <c r="D27" t="n">
+        <v>980</v>
+      </c>
+      <c r="E27" t="n">
+        <v>980</v>
+      </c>
+      <c r="F27" t="n">
+        <v>40.7023</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-4941.7635</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>986</v>
+      </c>
+      <c r="C28" t="n">
+        <v>986</v>
+      </c>
+      <c r="D28" t="n">
+        <v>986</v>
+      </c>
+      <c r="E28" t="n">
+        <v>986</v>
+      </c>
+      <c r="F28" t="n">
+        <v>27.1981</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-4914.5654</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>985</v>
+      </c>
+      <c r="C29" t="n">
+        <v>985</v>
+      </c>
+      <c r="D29" t="n">
+        <v>985</v>
+      </c>
+      <c r="E29" t="n">
+        <v>985</v>
+      </c>
+      <c r="F29" t="n">
+        <v>50</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-4964.5654</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>985</v>
+      </c>
+      <c r="C30" t="n">
+        <v>985</v>
+      </c>
+      <c r="D30" t="n">
+        <v>985</v>
+      </c>
+      <c r="E30" t="n">
+        <v>985</v>
+      </c>
+      <c r="F30" t="n">
+        <v>168</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-4964.5654</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>980</v>
+      </c>
+      <c r="C31" t="n">
+        <v>980</v>
+      </c>
+      <c r="D31" t="n">
+        <v>980</v>
+      </c>
+      <c r="E31" t="n">
+        <v>980</v>
+      </c>
+      <c r="F31" t="n">
+        <v>959.712</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-5924.277400000001</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>979</v>
+      </c>
+      <c r="C32" t="n">
+        <v>983</v>
+      </c>
+      <c r="D32" t="n">
+        <v>983</v>
+      </c>
+      <c r="E32" t="n">
+        <v>979</v>
+      </c>
+      <c r="F32" t="n">
+        <v>552.505</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-5371.772400000001</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>978</v>
+      </c>
+      <c r="C33" t="n">
+        <v>984</v>
+      </c>
+      <c r="D33" t="n">
+        <v>984</v>
+      </c>
+      <c r="E33" t="n">
+        <v>978</v>
+      </c>
+      <c r="F33" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-5359.6724</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>978</v>
+      </c>
+      <c r="C34" t="n">
+        <v>977</v>
+      </c>
+      <c r="D34" t="n">
+        <v>978</v>
+      </c>
+      <c r="E34" t="n">
+        <v>977</v>
+      </c>
+      <c r="F34" t="n">
+        <v>612.569</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-5972.241400000001</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>977</v>
+      </c>
+      <c r="C35" t="n">
+        <v>977</v>
+      </c>
+      <c r="D35" t="n">
+        <v>977</v>
+      </c>
+      <c r="E35" t="n">
+        <v>977</v>
+      </c>
+      <c r="F35" t="n">
+        <v>15.4696</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-5972.241400000001</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>978</v>
+      </c>
+      <c r="C36" t="n">
+        <v>978</v>
+      </c>
+      <c r="D36" t="n">
+        <v>978</v>
+      </c>
+      <c r="E36" t="n">
+        <v>978</v>
+      </c>
+      <c r="F36" t="n">
+        <v>38.0944</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-5934.147000000001</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>977</v>
+      </c>
+      <c r="C37" t="n">
+        <v>977</v>
+      </c>
+      <c r="D37" t="n">
+        <v>977</v>
+      </c>
+      <c r="E37" t="n">
+        <v>977</v>
+      </c>
+      <c r="F37" t="n">
+        <v>150.6593</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-6084.806300000001</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>977</v>
+      </c>
+      <c r="C38" t="n">
+        <v>977</v>
+      </c>
+      <c r="D38" t="n">
+        <v>977</v>
+      </c>
+      <c r="E38" t="n">
+        <v>977</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2.4787</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-6084.806300000001</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>977</v>
+      </c>
+      <c r="C39" t="n">
+        <v>977</v>
+      </c>
+      <c r="D39" t="n">
+        <v>977</v>
+      </c>
+      <c r="E39" t="n">
+        <v>977</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3.3948</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-6084.806300000001</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>977</v>
+      </c>
+      <c r="C40" t="n">
+        <v>977</v>
+      </c>
+      <c r="D40" t="n">
+        <v>977</v>
+      </c>
+      <c r="E40" t="n">
+        <v>977</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2.0342</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-6084.806300000001</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>977</v>
+      </c>
+      <c r="C41" t="n">
+        <v>977</v>
+      </c>
+      <c r="D41" t="n">
+        <v>977</v>
+      </c>
+      <c r="E41" t="n">
+        <v>977</v>
+      </c>
+      <c r="F41" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-6084.806300000001</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>979</v>
+      </c>
+      <c r="C42" t="n">
+        <v>979</v>
+      </c>
+      <c r="D42" t="n">
+        <v>979</v>
+      </c>
+      <c r="E42" t="n">
+        <v>979</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-6083.806300000001</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>980</v>
+      </c>
+      <c r="C43" t="n">
+        <v>981</v>
+      </c>
+      <c r="D43" t="n">
+        <v>981</v>
+      </c>
+      <c r="E43" t="n">
+        <v>980</v>
+      </c>
+      <c r="F43" t="n">
+        <v>262.7167</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-5821.089600000001</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>979</v>
+      </c>
+      <c r="C44" t="n">
+        <v>983</v>
+      </c>
+      <c r="D44" t="n">
+        <v>983</v>
+      </c>
+      <c r="E44" t="n">
+        <v>979</v>
+      </c>
+      <c r="F44" t="n">
+        <v>636.2447</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-5184.844900000001</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>981</v>
+      </c>
+      <c r="C45" t="n">
+        <v>981</v>
+      </c>
+      <c r="D45" t="n">
+        <v>981</v>
+      </c>
+      <c r="E45" t="n">
+        <v>981</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2.0387</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-5186.883600000001</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>980</v>
+      </c>
+      <c r="C46" t="n">
+        <v>980</v>
+      </c>
+      <c r="D46" t="n">
+        <v>980</v>
+      </c>
+      <c r="E46" t="n">
+        <v>980</v>
+      </c>
+      <c r="F46" t="n">
+        <v>50</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-5236.883600000001</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>978</v>
+      </c>
+      <c r="C47" t="n">
+        <v>981</v>
+      </c>
+      <c r="D47" t="n">
+        <v>981</v>
+      </c>
+      <c r="E47" t="n">
+        <v>978</v>
+      </c>
+      <c r="F47" t="n">
+        <v>97.96250000000001</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-5138.921100000001</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>981</v>
+      </c>
+      <c r="C48" t="n">
+        <v>981</v>
+      </c>
+      <c r="D48" t="n">
+        <v>981</v>
+      </c>
+      <c r="E48" t="n">
+        <v>981</v>
+      </c>
+      <c r="F48" t="n">
+        <v>194.7607</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-5138.921100000001</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>981</v>
+      </c>
+      <c r="C49" t="n">
+        <v>981</v>
+      </c>
+      <c r="D49" t="n">
+        <v>981</v>
+      </c>
+      <c r="E49" t="n">
+        <v>981</v>
+      </c>
+      <c r="F49" t="n">
+        <v>8.1821</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-5138.921100000001</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>979</v>
+      </c>
+      <c r="C50" t="n">
+        <v>979</v>
+      </c>
+      <c r="D50" t="n">
+        <v>979</v>
+      </c>
+      <c r="E50" t="n">
+        <v>979</v>
+      </c>
+      <c r="F50" t="n">
+        <v>50</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-5188.921100000001</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>978</v>
+      </c>
+      <c r="C51" t="n">
+        <v>978</v>
+      </c>
+      <c r="D51" t="n">
+        <v>978</v>
+      </c>
+      <c r="E51" t="n">
+        <v>978</v>
+      </c>
+      <c r="F51" t="n">
+        <v>250.9041</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-5439.825200000001</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>978</v>
+      </c>
+      <c r="C52" t="n">
+        <v>977</v>
+      </c>
+      <c r="D52" t="n">
+        <v>978</v>
+      </c>
+      <c r="E52" t="n">
+        <v>977</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1029.4067</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-6469.231900000001</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>984</v>
+      </c>
+      <c r="C53" t="n">
+        <v>984</v>
+      </c>
+      <c r="D53" t="n">
+        <v>984</v>
+      </c>
+      <c r="E53" t="n">
+        <v>984</v>
+      </c>
+      <c r="F53" t="n">
+        <v>56.6016</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-6412.630300000001</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>982</v>
+      </c>
+      <c r="C54" t="n">
+        <v>982</v>
+      </c>
+      <c r="D54" t="n">
+        <v>982</v>
+      </c>
+      <c r="E54" t="n">
+        <v>982</v>
+      </c>
+      <c r="F54" t="n">
+        <v>33.3218</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-6445.9521</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>982</v>
+      </c>
+      <c r="C55" t="n">
+        <v>982</v>
+      </c>
+      <c r="D55" t="n">
+        <v>982</v>
+      </c>
+      <c r="E55" t="n">
+        <v>982</v>
+      </c>
+      <c r="F55" t="n">
+        <v>188.3645</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-6445.9521</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>983</v>
+      </c>
+      <c r="C56" t="n">
+        <v>983</v>
+      </c>
+      <c r="D56" t="n">
+        <v>983</v>
+      </c>
+      <c r="E56" t="n">
+        <v>983</v>
+      </c>
+      <c r="F56" t="n">
+        <v>665.0402</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-5780.9119</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>983</v>
+      </c>
+      <c r="C57" t="n">
+        <v>983</v>
+      </c>
+      <c r="D57" t="n">
+        <v>983</v>
+      </c>
+      <c r="E57" t="n">
+        <v>983</v>
+      </c>
+      <c r="F57" t="n">
+        <v>478.6138</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-5780.9119</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>983</v>
+      </c>
+      <c r="C58" t="n">
+        <v>984</v>
+      </c>
+      <c r="D58" t="n">
+        <v>984</v>
+      </c>
+      <c r="E58" t="n">
+        <v>983</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1045.1708</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-4735.7411</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>984</v>
+      </c>
+      <c r="C59" t="n">
+        <v>984</v>
+      </c>
+      <c r="D59" t="n">
+        <v>984</v>
+      </c>
+      <c r="E59" t="n">
+        <v>984</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.7732</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-4735.7411</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>984</v>
+      </c>
+      <c r="C60" t="n">
+        <v>984</v>
+      </c>
+      <c r="D60" t="n">
+        <v>984</v>
+      </c>
+      <c r="E60" t="n">
+        <v>984</v>
+      </c>
+      <c r="F60" t="n">
+        <v>220.5</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-4735.7411</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>984</v>
+      </c>
+      <c r="C61" t="n">
+        <v>984</v>
+      </c>
+      <c r="D61" t="n">
+        <v>984</v>
+      </c>
+      <c r="E61" t="n">
+        <v>984</v>
+      </c>
+      <c r="F61" t="n">
+        <v>24.8822</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-4735.7411</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>984</v>
+      </c>
+      <c r="C62" t="n">
+        <v>984</v>
+      </c>
+      <c r="D62" t="n">
+        <v>984</v>
+      </c>
+      <c r="E62" t="n">
+        <v>984</v>
+      </c>
+      <c r="F62" t="n">
+        <v>3.6877</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-4735.7411</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>984</v>
+      </c>
+      <c r="C63" t="n">
+        <v>985</v>
+      </c>
+      <c r="D63" t="n">
+        <v>985</v>
+      </c>
+      <c r="E63" t="n">
+        <v>984</v>
+      </c>
+      <c r="F63" t="n">
+        <v>8.726000000000001</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-4727.015100000001</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>987</v>
+      </c>
+      <c r="C64" t="n">
+        <v>987</v>
+      </c>
+      <c r="D64" t="n">
+        <v>987</v>
+      </c>
+      <c r="E64" t="n">
+        <v>987</v>
+      </c>
+      <c r="F64" t="n">
+        <v>3</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-4724.015100000001</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>985</v>
+      </c>
+      <c r="C65" t="n">
+        <v>986</v>
+      </c>
+      <c r="D65" t="n">
+        <v>986</v>
+      </c>
+      <c r="E65" t="n">
+        <v>985</v>
+      </c>
+      <c r="F65" t="n">
+        <v>319.5</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-5043.515100000001</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>982</v>
+      </c>
+      <c r="C66" t="n">
+        <v>985</v>
+      </c>
+      <c r="D66" t="n">
+        <v>985</v>
+      </c>
+      <c r="E66" t="n">
+        <v>982</v>
+      </c>
+      <c r="F66" t="n">
+        <v>74.76009999999999</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-5118.275200000001</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>986</v>
+      </c>
+      <c r="C67" t="n">
+        <v>986</v>
+      </c>
+      <c r="D67" t="n">
+        <v>986</v>
+      </c>
+      <c r="E67" t="n">
+        <v>986</v>
+      </c>
+      <c r="F67" t="n">
+        <v>15.7195</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-5102.555700000001</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>986</v>
+      </c>
+      <c r="C68" t="n">
+        <v>986</v>
+      </c>
+      <c r="D68" t="n">
+        <v>986</v>
+      </c>
+      <c r="E68" t="n">
+        <v>986</v>
+      </c>
+      <c r="F68" t="n">
+        <v>7.7443</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-5102.555700000001</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>986</v>
+      </c>
+      <c r="C69" t="n">
+        <v>986</v>
+      </c>
+      <c r="D69" t="n">
+        <v>986</v>
+      </c>
+      <c r="E69" t="n">
+        <v>986</v>
+      </c>
+      <c r="F69" t="n">
+        <v>46.4917</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-5102.555700000001</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>986</v>
+      </c>
+      <c r="C70" t="n">
+        <v>987</v>
+      </c>
+      <c r="D70" t="n">
+        <v>987</v>
+      </c>
+      <c r="E70" t="n">
+        <v>986</v>
+      </c>
+      <c r="F70" t="n">
+        <v>47.947</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-5054.608700000001</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>986</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>965</v>
-      </c>
-      <c r="C4" t="n">
-        <v>962</v>
-      </c>
-      <c r="D4" t="n">
-        <v>965</v>
-      </c>
-      <c r="E4" t="n">
-        <v>961</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1296.1369</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-894.2197999999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>966</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>967</v>
-      </c>
-      <c r="C5" t="n">
-        <v>967</v>
-      </c>
-      <c r="D5" t="n">
-        <v>967</v>
-      </c>
-      <c r="E5" t="n">
-        <v>967</v>
-      </c>
-      <c r="F5" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-885.3197999999999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>962</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>968</v>
-      </c>
-      <c r="C6" t="n">
-        <v>967</v>
-      </c>
-      <c r="D6" t="n">
-        <v>968</v>
-      </c>
-      <c r="E6" t="n">
-        <v>967</v>
-      </c>
-      <c r="F6" t="n">
-        <v>312.3814</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-885.3197999999999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>967</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>968</v>
-      </c>
-      <c r="C7" t="n">
-        <v>968</v>
-      </c>
-      <c r="D7" t="n">
-        <v>968</v>
-      </c>
-      <c r="E7" t="n">
-        <v>968</v>
-      </c>
-      <c r="F7" t="n">
-        <v>315.32</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-569.9997999999998</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>967</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>969</v>
-      </c>
-      <c r="C8" t="n">
-        <v>969</v>
-      </c>
-      <c r="D8" t="n">
-        <v>969</v>
-      </c>
-      <c r="E8" t="n">
-        <v>969</v>
-      </c>
-      <c r="F8" t="n">
-        <v>79.90000000000001</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-490.0997999999998</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>968</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>974</v>
-      </c>
-      <c r="C9" t="n">
-        <v>974</v>
-      </c>
-      <c r="D9" t="n">
-        <v>974</v>
-      </c>
-      <c r="E9" t="n">
-        <v>974</v>
-      </c>
-      <c r="F9" t="n">
-        <v>28.8296</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-461.2701999999998</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>969</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>975</v>
-      </c>
-      <c r="C10" t="n">
-        <v>978</v>
-      </c>
-      <c r="D10" t="n">
-        <v>978</v>
-      </c>
-      <c r="E10" t="n">
-        <v>975</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1233.1835</v>
-      </c>
-      <c r="G10" t="n">
-        <v>771.9133000000003</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>974</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>979</v>
-      </c>
-      <c r="C11" t="n">
-        <v>979</v>
-      </c>
-      <c r="D11" t="n">
-        <v>979</v>
-      </c>
-      <c r="E11" t="n">
-        <v>979</v>
-      </c>
-      <c r="F11" t="n">
-        <v>18.0029</v>
-      </c>
-      <c r="G11" t="n">
-        <v>789.9162000000002</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>978</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>979</v>
-      </c>
-      <c r="C12" t="n">
-        <v>979</v>
-      </c>
-      <c r="D12" t="n">
-        <v>979</v>
-      </c>
-      <c r="E12" t="n">
-        <v>979</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3.0755</v>
-      </c>
-      <c r="G12" t="n">
-        <v>789.9162000000002</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>975</v>
-      </c>
-      <c r="C13" t="n">
-        <v>975</v>
-      </c>
-      <c r="D13" t="n">
-        <v>975</v>
-      </c>
-      <c r="E13" t="n">
-        <v>975</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3.0755</v>
-      </c>
-      <c r="G13" t="n">
-        <v>786.8407000000002</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>974</v>
-      </c>
-      <c r="C14" t="n">
-        <v>974</v>
-      </c>
-      <c r="D14" t="n">
-        <v>974</v>
-      </c>
-      <c r="E14" t="n">
-        <v>974</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3873.5115</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-3086.6708</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>974</v>
-      </c>
-      <c r="C15" t="n">
-        <v>974</v>
-      </c>
-      <c r="D15" t="n">
-        <v>974</v>
-      </c>
-      <c r="E15" t="n">
-        <v>974</v>
-      </c>
-      <c r="F15" t="n">
-        <v>320.5</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-3086.6708</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>974</v>
-      </c>
-      <c r="C16" t="n">
-        <v>974</v>
-      </c>
-      <c r="D16" t="n">
-        <v>974</v>
-      </c>
-      <c r="E16" t="n">
-        <v>974</v>
-      </c>
-      <c r="F16" t="n">
-        <v>766.3102</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-3086.6708</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>974</v>
-      </c>
-      <c r="C17" t="n">
-        <v>974</v>
-      </c>
-      <c r="D17" t="n">
-        <v>974</v>
-      </c>
-      <c r="E17" t="n">
-        <v>974</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.6635</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-3086.6708</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>974</v>
-      </c>
-      <c r="C18" t="n">
-        <v>974</v>
-      </c>
-      <c r="D18" t="n">
-        <v>974</v>
-      </c>
-      <c r="E18" t="n">
-        <v>974</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.3326</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-3086.6708</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>973</v>
-      </c>
-      <c r="C19" t="n">
-        <v>972</v>
-      </c>
-      <c r="D19" t="n">
-        <v>973</v>
-      </c>
-      <c r="E19" t="n">
-        <v>972</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2251</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-5337.6708</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>973</v>
-      </c>
-      <c r="C20" t="n">
-        <v>973</v>
-      </c>
-      <c r="D20" t="n">
-        <v>973</v>
-      </c>
-      <c r="E20" t="n">
-        <v>973</v>
-      </c>
-      <c r="F20" t="n">
-        <v>35</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-5302.6708</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>973</v>
-      </c>
-      <c r="C21" t="n">
-        <v>974</v>
-      </c>
-      <c r="D21" t="n">
-        <v>974</v>
-      </c>
-      <c r="E21" t="n">
-        <v>973</v>
-      </c>
-      <c r="F21" t="n">
-        <v>206.0811</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-5096.5897</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>973</v>
-      </c>
-      <c r="C22" t="n">
-        <v>973</v>
-      </c>
-      <c r="D22" t="n">
-        <v>973</v>
-      </c>
-      <c r="E22" t="n">
-        <v>973</v>
-      </c>
-      <c r="F22" t="n">
-        <v>400</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-5496.5897</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>971</v>
-      </c>
-      <c r="C23" t="n">
-        <v>978</v>
-      </c>
-      <c r="D23" t="n">
-        <v>978</v>
-      </c>
-      <c r="E23" t="n">
-        <v>971</v>
-      </c>
-      <c r="F23" t="n">
-        <v>575.3613</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-4921.2284</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>973</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>975</v>
-      </c>
-      <c r="C24" t="n">
-        <v>975</v>
-      </c>
-      <c r="D24" t="n">
-        <v>975</v>
-      </c>
-      <c r="E24" t="n">
-        <v>975</v>
-      </c>
-      <c r="F24" t="n">
-        <v>61.759</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-4982.9874</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>975</v>
-      </c>
-      <c r="C25" t="n">
-        <v>975</v>
-      </c>
-      <c r="D25" t="n">
-        <v>975</v>
-      </c>
-      <c r="E25" t="n">
-        <v>975</v>
-      </c>
-      <c r="F25" t="n">
-        <v>264.241</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-4982.9874</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>975</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>979</v>
-      </c>
-      <c r="C26" t="n">
-        <v>979</v>
-      </c>
-      <c r="D26" t="n">
-        <v>979</v>
-      </c>
-      <c r="E26" t="n">
-        <v>979</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.5216</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-4982.4658</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>975</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>980</v>
-      </c>
-      <c r="C27" t="n">
-        <v>980</v>
-      </c>
-      <c r="D27" t="n">
-        <v>980</v>
-      </c>
-      <c r="E27" t="n">
-        <v>980</v>
-      </c>
-      <c r="F27" t="n">
-        <v>40.7023</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-4941.7635</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>986</v>
-      </c>
-      <c r="C28" t="n">
-        <v>986</v>
-      </c>
-      <c r="D28" t="n">
-        <v>986</v>
-      </c>
-      <c r="E28" t="n">
-        <v>986</v>
-      </c>
-      <c r="F28" t="n">
-        <v>27.1981</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-4914.5654</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>980</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>985</v>
-      </c>
-      <c r="C29" t="n">
-        <v>985</v>
-      </c>
-      <c r="D29" t="n">
-        <v>985</v>
-      </c>
-      <c r="E29" t="n">
-        <v>985</v>
-      </c>
-      <c r="F29" t="n">
-        <v>50</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-4964.5654</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>985</v>
-      </c>
-      <c r="C30" t="n">
-        <v>985</v>
-      </c>
-      <c r="D30" t="n">
-        <v>985</v>
-      </c>
-      <c r="E30" t="n">
-        <v>985</v>
-      </c>
-      <c r="F30" t="n">
-        <v>168</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-4964.5654</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>980</v>
-      </c>
-      <c r="C31" t="n">
-        <v>980</v>
-      </c>
-      <c r="D31" t="n">
-        <v>980</v>
-      </c>
-      <c r="E31" t="n">
-        <v>980</v>
-      </c>
-      <c r="F31" t="n">
-        <v>959.712</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-5924.277400000001</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>979</v>
-      </c>
-      <c r="C32" t="n">
-        <v>983</v>
-      </c>
-      <c r="D32" t="n">
-        <v>983</v>
-      </c>
-      <c r="E32" t="n">
-        <v>979</v>
-      </c>
-      <c r="F32" t="n">
-        <v>552.505</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-5371.772400000001</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>978</v>
-      </c>
-      <c r="C33" t="n">
-        <v>984</v>
-      </c>
-      <c r="D33" t="n">
-        <v>984</v>
-      </c>
-      <c r="E33" t="n">
-        <v>978</v>
-      </c>
-      <c r="F33" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-5359.6724</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>978</v>
-      </c>
-      <c r="C34" t="n">
-        <v>977</v>
-      </c>
-      <c r="D34" t="n">
-        <v>978</v>
-      </c>
-      <c r="E34" t="n">
-        <v>977</v>
-      </c>
-      <c r="F34" t="n">
-        <v>612.569</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-5972.241400000001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>977</v>
-      </c>
-      <c r="C35" t="n">
-        <v>977</v>
-      </c>
-      <c r="D35" t="n">
-        <v>977</v>
-      </c>
-      <c r="E35" t="n">
-        <v>977</v>
-      </c>
-      <c r="F35" t="n">
-        <v>15.4696</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-5972.241400000001</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>978</v>
-      </c>
-      <c r="C36" t="n">
-        <v>978</v>
-      </c>
-      <c r="D36" t="n">
-        <v>978</v>
-      </c>
-      <c r="E36" t="n">
-        <v>978</v>
-      </c>
-      <c r="F36" t="n">
-        <v>38.0944</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-5934.147000000001</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>977</v>
-      </c>
-      <c r="C37" t="n">
-        <v>977</v>
-      </c>
-      <c r="D37" t="n">
-        <v>977</v>
-      </c>
-      <c r="E37" t="n">
-        <v>977</v>
-      </c>
-      <c r="F37" t="n">
-        <v>150.6593</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-6084.806300000001</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>977</v>
-      </c>
-      <c r="C38" t="n">
-        <v>977</v>
-      </c>
-      <c r="D38" t="n">
-        <v>977</v>
-      </c>
-      <c r="E38" t="n">
-        <v>977</v>
-      </c>
-      <c r="F38" t="n">
-        <v>2.4787</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-6084.806300000001</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>977</v>
-      </c>
-      <c r="C39" t="n">
-        <v>977</v>
-      </c>
-      <c r="D39" t="n">
-        <v>977</v>
-      </c>
-      <c r="E39" t="n">
-        <v>977</v>
-      </c>
-      <c r="F39" t="n">
-        <v>3.3948</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-6084.806300000001</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>977</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>977</v>
-      </c>
-      <c r="C40" t="n">
-        <v>977</v>
-      </c>
-      <c r="D40" t="n">
-        <v>977</v>
-      </c>
-      <c r="E40" t="n">
-        <v>977</v>
-      </c>
-      <c r="F40" t="n">
-        <v>2.0342</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-6084.806300000001</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>977</v>
-      </c>
-      <c r="C41" t="n">
-        <v>977</v>
-      </c>
-      <c r="D41" t="n">
-        <v>977</v>
-      </c>
-      <c r="E41" t="n">
-        <v>977</v>
-      </c>
-      <c r="F41" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-6084.806300000001</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>977</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>979</v>
-      </c>
-      <c r="C42" t="n">
-        <v>979</v>
-      </c>
-      <c r="D42" t="n">
-        <v>979</v>
-      </c>
-      <c r="E42" t="n">
-        <v>979</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-6083.806300000001</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>980</v>
-      </c>
-      <c r="C43" t="n">
-        <v>981</v>
-      </c>
-      <c r="D43" t="n">
-        <v>981</v>
-      </c>
-      <c r="E43" t="n">
-        <v>980</v>
-      </c>
-      <c r="F43" t="n">
-        <v>262.7167</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-5821.089600000001</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>979</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>979</v>
-      </c>
-      <c r="C44" t="n">
-        <v>983</v>
-      </c>
-      <c r="D44" t="n">
-        <v>983</v>
-      </c>
-      <c r="E44" t="n">
-        <v>979</v>
-      </c>
-      <c r="F44" t="n">
-        <v>636.2447</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-5184.844900000001</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>981</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>981</v>
-      </c>
-      <c r="C45" t="n">
-        <v>981</v>
-      </c>
-      <c r="D45" t="n">
-        <v>981</v>
-      </c>
-      <c r="E45" t="n">
-        <v>981</v>
-      </c>
-      <c r="F45" t="n">
-        <v>2.0387</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-5186.883600000001</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>980</v>
-      </c>
-      <c r="C46" t="n">
-        <v>980</v>
-      </c>
-      <c r="D46" t="n">
-        <v>980</v>
-      </c>
-      <c r="E46" t="n">
-        <v>980</v>
-      </c>
-      <c r="F46" t="n">
-        <v>50</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-5236.883600000001</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>978</v>
-      </c>
-      <c r="C47" t="n">
-        <v>981</v>
-      </c>
-      <c r="D47" t="n">
-        <v>981</v>
-      </c>
-      <c r="E47" t="n">
-        <v>978</v>
-      </c>
-      <c r="F47" t="n">
-        <v>97.96250000000001</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-5138.921100000001</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>981</v>
-      </c>
-      <c r="C48" t="n">
-        <v>981</v>
-      </c>
-      <c r="D48" t="n">
-        <v>981</v>
-      </c>
-      <c r="E48" t="n">
-        <v>981</v>
-      </c>
-      <c r="F48" t="n">
-        <v>194.7607</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-5138.921100000001</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>981</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>981</v>
-      </c>
-      <c r="C49" t="n">
-        <v>981</v>
-      </c>
-      <c r="D49" t="n">
-        <v>981</v>
-      </c>
-      <c r="E49" t="n">
-        <v>981</v>
-      </c>
-      <c r="F49" t="n">
-        <v>8.1821</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-5138.921100000001</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>981</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>979</v>
-      </c>
-      <c r="C50" t="n">
-        <v>979</v>
-      </c>
-      <c r="D50" t="n">
-        <v>979</v>
-      </c>
-      <c r="E50" t="n">
-        <v>979</v>
-      </c>
-      <c r="F50" t="n">
-        <v>50</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-5188.921100000001</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>981</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>978</v>
-      </c>
-      <c r="C51" t="n">
-        <v>978</v>
-      </c>
-      <c r="D51" t="n">
-        <v>978</v>
-      </c>
-      <c r="E51" t="n">
-        <v>978</v>
-      </c>
-      <c r="F51" t="n">
-        <v>250.9041</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-5439.825200000001</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>979</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>978</v>
-      </c>
-      <c r="C52" t="n">
-        <v>977</v>
-      </c>
-      <c r="D52" t="n">
-        <v>978</v>
-      </c>
-      <c r="E52" t="n">
-        <v>977</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1029.4067</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-6469.231900000001</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>978</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>984</v>
-      </c>
-      <c r="C53" t="n">
-        <v>984</v>
-      </c>
-      <c r="D53" t="n">
-        <v>984</v>
-      </c>
-      <c r="E53" t="n">
-        <v>984</v>
-      </c>
-      <c r="F53" t="n">
-        <v>56.6016</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-6412.630300000001</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>977</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>982</v>
-      </c>
-      <c r="C54" t="n">
-        <v>982</v>
-      </c>
-      <c r="D54" t="n">
-        <v>982</v>
-      </c>
-      <c r="E54" t="n">
-        <v>982</v>
-      </c>
-      <c r="F54" t="n">
-        <v>33.3218</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-6445.9521</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>982</v>
-      </c>
-      <c r="C55" t="n">
-        <v>982</v>
-      </c>
-      <c r="D55" t="n">
-        <v>982</v>
-      </c>
-      <c r="E55" t="n">
-        <v>982</v>
-      </c>
-      <c r="F55" t="n">
-        <v>188.3645</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-6445.9521</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>983</v>
-      </c>
-      <c r="C56" t="n">
-        <v>983</v>
-      </c>
-      <c r="D56" t="n">
-        <v>983</v>
-      </c>
-      <c r="E56" t="n">
-        <v>983</v>
-      </c>
-      <c r="F56" t="n">
-        <v>665.0402</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-5780.9119</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>983</v>
-      </c>
-      <c r="C57" t="n">
-        <v>983</v>
-      </c>
-      <c r="D57" t="n">
-        <v>983</v>
-      </c>
-      <c r="E57" t="n">
-        <v>983</v>
-      </c>
-      <c r="F57" t="n">
-        <v>478.6138</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-5780.9119</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>983</v>
-      </c>
-      <c r="C58" t="n">
-        <v>984</v>
-      </c>
-      <c r="D58" t="n">
-        <v>984</v>
-      </c>
-      <c r="E58" t="n">
-        <v>983</v>
-      </c>
-      <c r="F58" t="n">
-        <v>1045.1708</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-4735.7411</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>984</v>
-      </c>
-      <c r="C59" t="n">
-        <v>984</v>
-      </c>
-      <c r="D59" t="n">
-        <v>984</v>
-      </c>
-      <c r="E59" t="n">
-        <v>984</v>
-      </c>
-      <c r="F59" t="n">
-        <v>1.7732</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-4735.7411</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>984</v>
-      </c>
-      <c r="C60" t="n">
-        <v>984</v>
-      </c>
-      <c r="D60" t="n">
-        <v>984</v>
-      </c>
-      <c r="E60" t="n">
-        <v>984</v>
-      </c>
-      <c r="F60" t="n">
-        <v>220.5</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-4735.7411</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>984</v>
-      </c>
-      <c r="C61" t="n">
-        <v>984</v>
-      </c>
-      <c r="D61" t="n">
-        <v>984</v>
-      </c>
-      <c r="E61" t="n">
-        <v>984</v>
-      </c>
-      <c r="F61" t="n">
-        <v>24.8822</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-4735.7411</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>984</v>
-      </c>
-      <c r="C62" t="n">
-        <v>984</v>
-      </c>
-      <c r="D62" t="n">
-        <v>984</v>
-      </c>
-      <c r="E62" t="n">
-        <v>984</v>
-      </c>
-      <c r="F62" t="n">
-        <v>3.6877</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-4735.7411</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>984</v>
-      </c>
-      <c r="C63" t="n">
-        <v>985</v>
-      </c>
-      <c r="D63" t="n">
-        <v>985</v>
-      </c>
-      <c r="E63" t="n">
-        <v>984</v>
-      </c>
-      <c r="F63" t="n">
-        <v>8.726000000000001</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-4727.015100000001</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>987</v>
-      </c>
-      <c r="C64" t="n">
-        <v>987</v>
-      </c>
-      <c r="D64" t="n">
-        <v>987</v>
-      </c>
-      <c r="E64" t="n">
-        <v>987</v>
-      </c>
-      <c r="F64" t="n">
-        <v>3</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-4724.015100000001</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>985</v>
-      </c>
-      <c r="C65" t="n">
-        <v>986</v>
-      </c>
-      <c r="D65" t="n">
-        <v>986</v>
-      </c>
-      <c r="E65" t="n">
-        <v>985</v>
-      </c>
-      <c r="F65" t="n">
-        <v>319.5</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-5043.515100000001</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>982</v>
-      </c>
-      <c r="C66" t="n">
-        <v>985</v>
-      </c>
-      <c r="D66" t="n">
-        <v>985</v>
-      </c>
-      <c r="E66" t="n">
-        <v>982</v>
-      </c>
-      <c r="F66" t="n">
-        <v>74.76009999999999</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-5118.275200000001</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>986</v>
-      </c>
-      <c r="C67" t="n">
-        <v>986</v>
-      </c>
-      <c r="D67" t="n">
-        <v>986</v>
-      </c>
-      <c r="E67" t="n">
-        <v>986</v>
-      </c>
-      <c r="F67" t="n">
-        <v>15.7195</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-5102.555700000001</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>986</v>
-      </c>
-      <c r="C68" t="n">
-        <v>986</v>
-      </c>
-      <c r="D68" t="n">
-        <v>986</v>
-      </c>
-      <c r="E68" t="n">
-        <v>986</v>
-      </c>
-      <c r="F68" t="n">
-        <v>7.7443</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-5102.555700000001</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>986</v>
-      </c>
-      <c r="C69" t="n">
-        <v>986</v>
-      </c>
-      <c r="D69" t="n">
-        <v>986</v>
-      </c>
-      <c r="E69" t="n">
-        <v>986</v>
-      </c>
-      <c r="F69" t="n">
-        <v>46.4917</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-5102.555700000001</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>986</v>
-      </c>
-      <c r="C70" t="n">
-        <v>987</v>
-      </c>
-      <c r="D70" t="n">
-        <v>987</v>
-      </c>
-      <c r="E70" t="n">
-        <v>986</v>
-      </c>
-      <c r="F70" t="n">
-        <v>47.947</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-5054.608700000001</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3046,9 +2734,11 @@
         <v>-5093.408700000001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>987</v>
+      </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -3083,9 +2773,11 @@
         <v>-4920.9575</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>986</v>
+      </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -3120,9 +2812,11 @@
         <v>-4923.9575</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>987</v>
+      </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
@@ -3352,9 +3046,11 @@
         <v>-5597.762700000001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>981</v>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -3428,9 +3124,11 @@
         <v>-5597.762700000001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>987</v>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -3465,9 +3163,11 @@
         <v>-5595.188100000001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>987</v>
+      </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
@@ -3502,9 +3202,11 @@
         <v>-5595.188100000001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>988</v>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -3539,9 +3241,11 @@
         <v>-5245.136000000001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>988</v>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
@@ -3576,9 +3280,11 @@
         <v>-5245.136000000001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>989</v>
+      </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
@@ -3613,9 +3319,11 @@
         <v>-5241.821600000001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>989</v>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -3650,9 +3358,11 @@
         <v>-5241.821600000001</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>990</v>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
@@ -3726,9 +3436,11 @@
         <v>-2779.742800000001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>992</v>
+      </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
@@ -4466,18 +4178,16 @@
         <v>4190.458063194444</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
@@ -4503,15 +4213,11 @@
         <v>5729.055263194444</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4540,15 +4246,11 @@
         <v>5729.055263194444</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4577,15 +4279,11 @@
         <v>5729.055263194444</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4614,15 +4312,11 @@
         <v>5743.055263194444</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4651,15 +4345,11 @@
         <v>5796.886763194444</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4688,15 +4378,11 @@
         <v>5858.886763194444</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4725,15 +4411,11 @@
         <v>5858.886763194444</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4762,15 +4444,11 @@
         <v>6066.485463194444</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4799,15 +4477,11 @@
         <v>6355.157263194444</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4836,15 +4510,11 @@
         <v>6355.157263194444</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4873,15 +4543,11 @@
         <v>7910.374763194443</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4910,15 +4576,11 @@
         <v>7910.374763194443</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4947,15 +4609,11 @@
         <v>8506.220063194443</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4984,15 +4642,11 @@
         <v>8090.854963194443</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5021,15 +4675,11 @@
         <v>11028.21056319444</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5062,11 +4712,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5099,11 +4745,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5136,11 +4778,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5173,11 +4811,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5210,11 +4844,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5247,11 +4877,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5284,11 +4910,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5321,11 +4943,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5358,11 +4976,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5395,11 +5009,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5432,11 +5042,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5469,11 +5075,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5506,11 +5108,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5543,11 +5141,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5580,11 +5174,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5617,11 +5207,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5654,11 +5240,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5691,11 +5273,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5728,11 +5306,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5765,11 +5339,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5798,16 +5368,14 @@
         <v>17880.10434541242</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
       <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
@@ -5833,7 +5401,7 @@
         <v>17607.89244541242</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5866,7 +5434,7 @@
         <v>18049.82054541242</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5932,7 +5500,7 @@
         <v>18940.43424541242</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5965,7 +5533,7 @@
         <v>18940.43424541242</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5998,7 +5566,7 @@
         <v>18720.64364541242</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6031,7 +5599,7 @@
         <v>18744.60654541242</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6064,7 +5632,7 @@
         <v>18738.60654541242</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6097,7 +5665,7 @@
         <v>18660.03114541242</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6130,7 +5698,7 @@
         <v>18660.03114541242</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6163,7 +5731,7 @@
         <v>18660.03114541242</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6196,7 +5764,7 @@
         <v>18660.03114541242</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6229,7 +5797,7 @@
         <v>18914.08044541242</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6262,7 +5830,7 @@
         <v>20258.50674541241</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6295,7 +5863,7 @@
         <v>20258.50674541241</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6328,7 +5896,7 @@
         <v>20529.78244541241</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6394,7 +5962,7 @@
         <v>21412.25834541241</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6427,7 +5995,7 @@
         <v>22049.16444541241</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6460,7 +6028,7 @@
         <v>19538.01914541241</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6493,7 +6061,7 @@
         <v>18019.11554541241</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6526,7 +6094,7 @@
         <v>18019.11554541241</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6559,7 +6127,7 @@
         <v>18019.11554541241</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6592,7 +6160,7 @@
         <v>18310.23404541241</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6603,6 +6171,6 @@
       <c r="M169" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest OMG.xlsx
+++ b/BackTest/2019-10-27 BackTest OMG.xlsx
@@ -451,7 +451,7 @@
         <v>449.6988000000002</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>401.9171000000002</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>967</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>-894.2197999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>966</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>-885.3197999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>962</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>-885.3197999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>967</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -620,7 +644,11 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -653,7 +681,11 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +714,17 @@
         <v>-461.2701999999998</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>969</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +753,17 @@
         <v>771.9133000000003</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>974</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -752,7 +796,11 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -785,7 +833,11 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,7 +870,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -851,7 +907,11 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,7 +944,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +981,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +1018,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1055,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1092,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1129,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1166,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1203,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1240,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1277,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1314,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1351,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1388,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1425,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1462,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1499,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1536,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1573,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1610,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1647,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1684,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1721,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1758,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1795,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1828,17 @@
         <v>-6084.806300000001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>977</v>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1867,17 @@
         <v>-6084.806300000001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>977</v>
+      </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1906,17 @@
         <v>-6084.806300000001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>977</v>
+      </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1945,17 @@
         <v>-6083.806300000001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>977</v>
+      </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1984,17 @@
         <v>-5821.089600000001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>979</v>
+      </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +2023,17 @@
         <v>-5184.844900000001</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>981</v>
+      </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2062,17 @@
         <v>-5186.883600000001</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>983</v>
+      </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2101,17 @@
         <v>-5236.883600000001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>981</v>
+      </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2140,17 @@
         <v>-5138.921100000001</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>980</v>
+      </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2179,17 @@
         <v>-5138.921100000001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>981</v>
+      </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2218,17 @@
         <v>-5138.921100000001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>981</v>
+      </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2257,17 @@
         <v>-5188.921100000001</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>981</v>
+      </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2296,17 @@
         <v>-5439.825200000001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>979</v>
+      </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2335,17 @@
         <v>-6469.231900000001</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>978</v>
+      </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2374,17 @@
         <v>-6412.630300000001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>977</v>
+      </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2417,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2454,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2491,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2528,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2565,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2602,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2639,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2672,17 @@
         <v>-4735.7411</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>984</v>
+      </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2715,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2752,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2789,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2826,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2863,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2900,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2937,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +2970,17 @@
         <v>-5102.555700000001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>986</v>
+      </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2703,7 +3017,7 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -3475,9 +3789,11 @@
         <v>-2779.742800000001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>999</v>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
@@ -3512,9 +3828,11 @@
         <v>-928.783200000001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>999</v>
+      </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
@@ -4178,16 +4496,18 @@
         <v>4190.458063194444</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
       <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
@@ -4213,11 +4533,15 @@
         <v>5729.055263194444</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4246,11 +4570,15 @@
         <v>5729.055263194444</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +4607,15 @@
         <v>5729.055263194444</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4312,11 +4644,15 @@
         <v>5743.055263194444</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4345,11 +4681,15 @@
         <v>5796.886763194444</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4378,11 +4718,15 @@
         <v>5858.886763194444</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4411,11 +4755,15 @@
         <v>5858.886763194444</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4444,11 +4792,15 @@
         <v>6066.485463194444</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4477,11 +4829,15 @@
         <v>6355.157263194444</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4510,11 +4866,15 @@
         <v>6355.157263194444</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4543,11 +4903,15 @@
         <v>7910.374763194443</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4576,11 +4940,15 @@
         <v>7910.374763194443</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4609,11 +4977,15 @@
         <v>8506.220063194443</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4642,11 +5014,15 @@
         <v>8090.854963194443</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4675,11 +5051,15 @@
         <v>11028.21056319444</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4712,7 +5092,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4745,7 +5129,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4778,7 +5166,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4811,7 +5203,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4844,7 +5240,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4877,7 +5277,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4910,7 +5314,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4943,7 +5351,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4976,7 +5388,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5009,7 +5425,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5042,7 +5462,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5075,7 +5499,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5108,7 +5536,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5137,14 +5569,16 @@
         <v>17659.82814541242</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
@@ -5170,7 +5604,7 @@
         <v>17209.94184541242</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5203,7 +5637,7 @@
         <v>18088.68484541242</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5236,7 +5670,7 @@
         <v>17757.06484541242</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5269,7 +5703,7 @@
         <v>17757.06484541242</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5368,7 +5802,7 @@
         <v>17880.10434541242</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5401,7 +5835,7 @@
         <v>17607.89244541242</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5434,7 +5868,7 @@
         <v>18049.82054541242</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5467,7 +5901,7 @@
         <v>18250.78544541242</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5500,7 +5934,7 @@
         <v>18940.43424541242</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5533,7 +5967,7 @@
         <v>18940.43424541242</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5566,7 +6000,7 @@
         <v>18720.64364541242</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5599,7 +6033,7 @@
         <v>18744.60654541242</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5632,7 +6066,7 @@
         <v>18738.60654541242</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5665,7 +6099,7 @@
         <v>18660.03114541242</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5698,7 +6132,7 @@
         <v>18660.03114541242</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5731,7 +6165,7 @@
         <v>18660.03114541242</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5764,7 +6198,7 @@
         <v>18660.03114541242</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5797,7 +6231,7 @@
         <v>18914.08044541242</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5830,7 +6264,7 @@
         <v>20258.50674541241</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5863,7 +6297,7 @@
         <v>20258.50674541241</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5896,7 +6330,7 @@
         <v>20529.78244541241</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5929,7 +6363,7 @@
         <v>21401.20414541241</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5962,7 +6396,7 @@
         <v>21412.25834541241</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5995,7 +6429,7 @@
         <v>22049.16444541241</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6028,7 +6462,7 @@
         <v>19538.01914541241</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6061,7 +6495,7 @@
         <v>18019.11554541241</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6094,7 +6528,7 @@
         <v>18019.11554541241</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6127,7 +6561,7 @@
         <v>18019.11554541241</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6160,7 +6594,7 @@
         <v>18310.23404541241</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>

--- a/BackTest/2019-10-27 BackTest OMG.xlsx
+++ b/BackTest/2019-10-27 BackTest OMG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M169"/>
+  <dimension ref="A1:L169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>16.7687</v>
       </c>
       <c r="G2" t="n">
-        <v>449.6988000000002</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,24 +473,21 @@
         <v>47.7817</v>
       </c>
       <c r="G3" t="n">
-        <v>401.9171000000002</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
         <v>967</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,24 +509,21 @@
         <v>1296.1369</v>
       </c>
       <c r="G4" t="n">
-        <v>-894.2197999999999</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
         <v>966</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,24 +545,21 @@
         <v>8.9</v>
       </c>
       <c r="G5" t="n">
-        <v>-885.3197999999999</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
         <v>962</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,24 +581,21 @@
         <v>312.3814</v>
       </c>
       <c r="G6" t="n">
-        <v>-885.3197999999999</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
         <v>967</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,22 +617,21 @@
         <v>315.32</v>
       </c>
       <c r="G7" t="n">
-        <v>-569.9997999999998</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>967</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,22 +653,21 @@
         <v>79.90000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>-490.0997999999998</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>968</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -711,24 +689,21 @@
         <v>28.8296</v>
       </c>
       <c r="G9" t="n">
-        <v>-461.2701999999998</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
         <v>969</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -750,24 +725,21 @@
         <v>1233.1835</v>
       </c>
       <c r="G10" t="n">
-        <v>771.9133000000003</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
         <v>974</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -789,22 +761,21 @@
         <v>18.0029</v>
       </c>
       <c r="G11" t="n">
-        <v>789.9162000000002</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>978</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -826,22 +797,19 @@
         <v>3.0755</v>
       </c>
       <c r="G12" t="n">
-        <v>789.9162000000002</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -863,22 +831,19 @@
         <v>3.0755</v>
       </c>
       <c r="G13" t="n">
-        <v>786.8407000000002</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -900,22 +865,19 @@
         <v>3873.5115</v>
       </c>
       <c r="G14" t="n">
-        <v>-3086.6708</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -937,22 +899,19 @@
         <v>320.5</v>
       </c>
       <c r="G15" t="n">
-        <v>-3086.6708</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -974,22 +933,19 @@
         <v>766.3102</v>
       </c>
       <c r="G16" t="n">
-        <v>-3086.6708</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1011,22 +967,19 @@
         <v>1.6635</v>
       </c>
       <c r="G17" t="n">
-        <v>-3086.6708</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1048,22 +1001,19 @@
         <v>0.3326</v>
       </c>
       <c r="G18" t="n">
-        <v>-3086.6708</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1085,22 +1035,19 @@
         <v>2251</v>
       </c>
       <c r="G19" t="n">
-        <v>-5337.6708</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1122,22 +1069,19 @@
         <v>35</v>
       </c>
       <c r="G20" t="n">
-        <v>-5302.6708</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1159,22 +1103,19 @@
         <v>206.0811</v>
       </c>
       <c r="G21" t="n">
-        <v>-5096.5897</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1196,22 +1137,19 @@
         <v>400</v>
       </c>
       <c r="G22" t="n">
-        <v>-5496.5897</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1233,22 +1171,19 @@
         <v>575.3613</v>
       </c>
       <c r="G23" t="n">
-        <v>-4921.2284</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1270,22 +1205,19 @@
         <v>61.759</v>
       </c>
       <c r="G24" t="n">
-        <v>-4982.9874</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1307,22 +1239,19 @@
         <v>264.241</v>
       </c>
       <c r="G25" t="n">
-        <v>-4982.9874</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1344,22 +1273,19 @@
         <v>0.5216</v>
       </c>
       <c r="G26" t="n">
-        <v>-4982.4658</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1381,22 +1307,19 @@
         <v>40.7023</v>
       </c>
       <c r="G27" t="n">
-        <v>-4941.7635</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1418,22 +1341,19 @@
         <v>27.1981</v>
       </c>
       <c r="G28" t="n">
-        <v>-4914.5654</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1455,22 +1375,19 @@
         <v>50</v>
       </c>
       <c r="G29" t="n">
-        <v>-4964.5654</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1492,22 +1409,19 @@
         <v>168</v>
       </c>
       <c r="G30" t="n">
-        <v>-4964.5654</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1529,22 +1443,19 @@
         <v>959.712</v>
       </c>
       <c r="G31" t="n">
-        <v>-5924.277400000001</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1566,22 +1477,19 @@
         <v>552.505</v>
       </c>
       <c r="G32" t="n">
-        <v>-5371.772400000001</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1603,22 +1511,19 @@
         <v>12.1</v>
       </c>
       <c r="G33" t="n">
-        <v>-5359.6724</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1640,22 +1545,19 @@
         <v>612.569</v>
       </c>
       <c r="G34" t="n">
-        <v>-5972.241400000001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1677,22 +1579,19 @@
         <v>15.4696</v>
       </c>
       <c r="G35" t="n">
-        <v>-5972.241400000001</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1714,22 +1613,19 @@
         <v>38.0944</v>
       </c>
       <c r="G36" t="n">
-        <v>-5934.147000000001</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1751,22 +1647,19 @@
         <v>150.6593</v>
       </c>
       <c r="G37" t="n">
-        <v>-6084.806300000001</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1788,22 +1681,19 @@
         <v>2.4787</v>
       </c>
       <c r="G38" t="n">
-        <v>-6084.806300000001</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1825,24 +1715,19 @@
         <v>3.3948</v>
       </c>
       <c r="G39" t="n">
-        <v>-6084.806300000001</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>977</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1864,24 +1749,19 @@
         <v>2.0342</v>
       </c>
       <c r="G40" t="n">
-        <v>-6084.806300000001</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>977</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1903,24 +1783,19 @@
         <v>16.4</v>
       </c>
       <c r="G41" t="n">
-        <v>-6084.806300000001</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>977</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1942,24 +1817,19 @@
         <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>-6083.806300000001</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>977</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1981,24 +1851,19 @@
         <v>262.7167</v>
       </c>
       <c r="G43" t="n">
-        <v>-5821.089600000001</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>979</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2020,24 +1885,19 @@
         <v>636.2447</v>
       </c>
       <c r="G44" t="n">
-        <v>-5184.844900000001</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>981</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2059,24 +1919,19 @@
         <v>2.0387</v>
       </c>
       <c r="G45" t="n">
-        <v>-5186.883600000001</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>983</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2098,24 +1953,19 @@
         <v>50</v>
       </c>
       <c r="G46" t="n">
-        <v>-5236.883600000001</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>981</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2137,24 +1987,19 @@
         <v>97.96250000000001</v>
       </c>
       <c r="G47" t="n">
-        <v>-5138.921100000001</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>980</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2176,24 +2021,19 @@
         <v>194.7607</v>
       </c>
       <c r="G48" t="n">
-        <v>-5138.921100000001</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>981</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2215,24 +2055,19 @@
         <v>8.1821</v>
       </c>
       <c r="G49" t="n">
-        <v>-5138.921100000001</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>981</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2254,24 +2089,19 @@
         <v>50</v>
       </c>
       <c r="G50" t="n">
-        <v>-5188.921100000001</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>981</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2293,24 +2123,19 @@
         <v>250.9041</v>
       </c>
       <c r="G51" t="n">
-        <v>-5439.825200000001</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>979</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2332,24 +2157,19 @@
         <v>1029.4067</v>
       </c>
       <c r="G52" t="n">
-        <v>-6469.231900000001</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>978</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2371,24 +2191,19 @@
         <v>56.6016</v>
       </c>
       <c r="G53" t="n">
-        <v>-6412.630300000001</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>977</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2410,22 +2225,19 @@
         <v>33.3218</v>
       </c>
       <c r="G54" t="n">
-        <v>-6445.9521</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2447,22 +2259,19 @@
         <v>188.3645</v>
       </c>
       <c r="G55" t="n">
-        <v>-6445.9521</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2484,22 +2293,19 @@
         <v>665.0402</v>
       </c>
       <c r="G56" t="n">
-        <v>-5780.9119</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2521,22 +2327,19 @@
         <v>478.6138</v>
       </c>
       <c r="G57" t="n">
-        <v>-5780.9119</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2558,22 +2361,19 @@
         <v>1045.1708</v>
       </c>
       <c r="G58" t="n">
-        <v>-4735.7411</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2595,22 +2395,19 @@
         <v>1.7732</v>
       </c>
       <c r="G59" t="n">
-        <v>-4735.7411</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2632,22 +2429,19 @@
         <v>220.5</v>
       </c>
       <c r="G60" t="n">
-        <v>-4735.7411</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2669,24 +2463,19 @@
         <v>24.8822</v>
       </c>
       <c r="G61" t="n">
-        <v>-4735.7411</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>984</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2708,22 +2497,19 @@
         <v>3.6877</v>
       </c>
       <c r="G62" t="n">
-        <v>-4735.7411</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2745,22 +2531,19 @@
         <v>8.726000000000001</v>
       </c>
       <c r="G63" t="n">
-        <v>-4727.015100000001</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2782,22 +2565,19 @@
         <v>3</v>
       </c>
       <c r="G64" t="n">
-        <v>-4724.015100000001</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2819,22 +2599,19 @@
         <v>319.5</v>
       </c>
       <c r="G65" t="n">
-        <v>-5043.515100000001</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2856,22 +2633,19 @@
         <v>74.76009999999999</v>
       </c>
       <c r="G66" t="n">
-        <v>-5118.275200000001</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2893,22 +2667,19 @@
         <v>15.7195</v>
       </c>
       <c r="G67" t="n">
-        <v>-5102.555700000001</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2930,22 +2701,19 @@
         <v>7.7443</v>
       </c>
       <c r="G68" t="n">
-        <v>-5102.555700000001</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2967,24 +2735,19 @@
         <v>46.4917</v>
       </c>
       <c r="G69" t="n">
-        <v>-5102.555700000001</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>986</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3006,24 +2769,19 @@
         <v>47.947</v>
       </c>
       <c r="G70" t="n">
-        <v>-5054.608700000001</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>986</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3045,24 +2803,19 @@
         <v>38.8</v>
       </c>
       <c r="G71" t="n">
-        <v>-5093.408700000001</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>987</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3084,24 +2837,19 @@
         <v>172.4512</v>
       </c>
       <c r="G72" t="n">
-        <v>-4920.9575</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>986</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3123,24 +2871,19 @@
         <v>3</v>
       </c>
       <c r="G73" t="n">
-        <v>-4923.9575</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>987</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3162,24 +2905,19 @@
         <v>2.7272</v>
       </c>
       <c r="G74" t="n">
-        <v>-4926.684700000001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>982</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3201,24 +2939,19 @@
         <v>89.5</v>
       </c>
       <c r="G75" t="n">
-        <v>-4837.184700000001</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>980</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3240,24 +2973,19 @@
         <v>934.9802</v>
       </c>
       <c r="G76" t="n">
-        <v>-5772.164900000001</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>987</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3279,24 +3007,19 @@
         <v>182</v>
       </c>
       <c r="G77" t="n">
-        <v>-5590.164900000001</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>979</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3318,24 +3041,19 @@
         <v>50.0288</v>
       </c>
       <c r="G78" t="n">
-        <v>-5640.193700000001</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>988</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3357,24 +3075,19 @@
         <v>42.431</v>
       </c>
       <c r="G79" t="n">
-        <v>-5597.762700000001</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>981</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3396,24 +3109,19 @@
         <v>6.3335</v>
       </c>
       <c r="G80" t="n">
-        <v>-5597.762700000001</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>987</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3435,24 +3143,19 @@
         <v>377.8027</v>
       </c>
       <c r="G81" t="n">
-        <v>-5597.762700000001</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>987</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3474,24 +3177,19 @@
         <v>2.5746</v>
       </c>
       <c r="G82" t="n">
-        <v>-5595.188100000001</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>987</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3513,24 +3211,19 @@
         <v>44.2215</v>
       </c>
       <c r="G83" t="n">
-        <v>-5595.188100000001</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>988</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3552,24 +3245,19 @@
         <v>350.0521</v>
       </c>
       <c r="G84" t="n">
-        <v>-5245.136000000001</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>988</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3591,24 +3279,19 @@
         <v>300.0018</v>
       </c>
       <c r="G85" t="n">
-        <v>-5245.136000000001</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>989</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3630,24 +3313,19 @@
         <v>3.3144</v>
       </c>
       <c r="G86" t="n">
-        <v>-5241.821600000001</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>989</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3669,24 +3347,19 @@
         <v>96.1442</v>
       </c>
       <c r="G87" t="n">
-        <v>-5241.821600000001</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>990</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3708,24 +3381,19 @@
         <v>779.3949</v>
       </c>
       <c r="G88" t="n">
-        <v>-4462.426700000001</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>990</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3747,24 +3415,19 @@
         <v>1682.6839</v>
       </c>
       <c r="G89" t="n">
-        <v>-2779.742800000001</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>992</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3786,24 +3449,19 @@
         <v>282.2377</v>
       </c>
       <c r="G90" t="n">
-        <v>-2779.742800000001</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>999</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3825,24 +3483,19 @@
         <v>1850.9596</v>
       </c>
       <c r="G91" t="n">
-        <v>-928.783200000001</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>999</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3864,22 +3517,19 @@
         <v>524.3314</v>
       </c>
       <c r="G92" t="n">
-        <v>-928.783200000001</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3901,22 +3551,19 @@
         <v>573.9779</v>
       </c>
       <c r="G93" t="n">
-        <v>-928.783200000001</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3938,22 +3585,19 @@
         <v>2032.9401</v>
       </c>
       <c r="G94" t="n">
-        <v>1104.156899999999</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3975,22 +3619,19 @@
         <v>335.311</v>
       </c>
       <c r="G95" t="n">
-        <v>1104.156899999999</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4012,22 +3653,19 @@
         <v>111.477</v>
       </c>
       <c r="G96" t="n">
-        <v>1104.156899999999</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4049,22 +3687,19 @@
         <v>938.1069631944445</v>
       </c>
       <c r="G97" t="n">
-        <v>2042.263863194444</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4086,22 +3721,19 @@
         <v>1.4583</v>
       </c>
       <c r="G98" t="n">
-        <v>2040.805563194443</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4123,22 +3755,19 @@
         <v>1075.0456</v>
       </c>
       <c r="G99" t="n">
-        <v>965.7599631944436</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4160,22 +3789,19 @@
         <v>20.672</v>
       </c>
       <c r="G100" t="n">
-        <v>986.4319631944436</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4197,22 +3823,19 @@
         <v>321.5653</v>
       </c>
       <c r="G101" t="n">
-        <v>1307.997263194444</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4234,22 +3857,19 @@
         <v>144.7043</v>
       </c>
       <c r="G102" t="n">
-        <v>1307.997263194444</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4271,22 +3891,19 @@
         <v>11.1654</v>
       </c>
       <c r="G103" t="n">
-        <v>1307.997263194444</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4308,22 +3925,19 @@
         <v>468.5451</v>
       </c>
       <c r="G104" t="n">
-        <v>1776.542363194444</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4345,22 +3959,19 @@
         <v>654.8625</v>
       </c>
       <c r="G105" t="n">
-        <v>1776.542363194444</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4382,22 +3993,19 @@
         <v>6.5389</v>
       </c>
       <c r="G106" t="n">
-        <v>1776.542363194444</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4419,22 +4027,19 @@
         <v>1352.6154</v>
       </c>
       <c r="G107" t="n">
-        <v>1776.542363194444</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4456,22 +4061,19 @@
         <v>2203.7552</v>
       </c>
       <c r="G108" t="n">
-        <v>3980.297563194444</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4493,22 +4095,19 @@
         <v>210.1605</v>
       </c>
       <c r="G109" t="n">
-        <v>4190.458063194444</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4530,22 +4129,19 @@
         <v>1538.5972</v>
       </c>
       <c r="G110" t="n">
-        <v>5729.055263194444</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4567,22 +4163,19 @@
         <v>17.2832</v>
       </c>
       <c r="G111" t="n">
-        <v>5729.055263194444</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4604,22 +4197,19 @@
         <v>1.2021</v>
       </c>
       <c r="G112" t="n">
-        <v>5729.055263194444</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4641,22 +4231,19 @@
         <v>14</v>
       </c>
       <c r="G113" t="n">
-        <v>5743.055263194444</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4678,22 +4265,19 @@
         <v>53.8315</v>
       </c>
       <c r="G114" t="n">
-        <v>5796.886763194444</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4715,22 +4299,19 @@
         <v>62</v>
       </c>
       <c r="G115" t="n">
-        <v>5858.886763194444</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4752,22 +4333,19 @@
         <v>4.8747</v>
       </c>
       <c r="G116" t="n">
-        <v>5858.886763194444</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4789,22 +4367,19 @@
         <v>207.5987</v>
       </c>
       <c r="G117" t="n">
-        <v>6066.485463194444</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4826,22 +4401,19 @@
         <v>288.6718</v>
       </c>
       <c r="G118" t="n">
-        <v>6355.157263194444</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4863,22 +4435,19 @@
         <v>861.7903</v>
       </c>
       <c r="G119" t="n">
-        <v>6355.157263194444</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4900,22 +4469,19 @@
         <v>1555.2175</v>
       </c>
       <c r="G120" t="n">
-        <v>7910.374763194443</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4937,22 +4503,19 @@
         <v>28.931</v>
       </c>
       <c r="G121" t="n">
-        <v>7910.374763194443</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4974,22 +4537,19 @@
         <v>595.8453</v>
       </c>
       <c r="G122" t="n">
-        <v>8506.220063194443</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5011,22 +4571,19 @@
         <v>415.3651</v>
       </c>
       <c r="G123" t="n">
-        <v>8090.854963194443</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5048,22 +4605,19 @@
         <v>2937.3556</v>
       </c>
       <c r="G124" t="n">
-        <v>11028.21056319444</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5085,22 +4639,19 @@
         <v>2117.186382217973</v>
       </c>
       <c r="G125" t="n">
-        <v>13145.39694541242</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5122,22 +4673,19 @@
         <v>447.918</v>
       </c>
       <c r="G126" t="n">
-        <v>13593.31494541242</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5159,22 +4707,19 @@
         <v>677.9824</v>
       </c>
       <c r="G127" t="n">
-        <v>14271.29734541242</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5196,22 +4741,19 @@
         <v>1845.6438</v>
       </c>
       <c r="G128" t="n">
-        <v>12425.65354541242</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5233,22 +4775,19 @@
         <v>1053.9807</v>
       </c>
       <c r="G129" t="n">
-        <v>13479.63424541242</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5270,22 +4809,17 @@
         <v>30.6355</v>
       </c>
       <c r="G130" t="n">
-        <v>13448.99874541242</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5307,22 +4841,15 @@
         <v>380.6762</v>
       </c>
       <c r="G131" t="n">
-        <v>13068.32254541242</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5344,22 +4871,15 @@
         <v>1225.4302</v>
       </c>
       <c r="G132" t="n">
-        <v>14293.75274541242</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5381,22 +4901,15 @@
         <v>1468.0038</v>
       </c>
       <c r="G133" t="n">
-        <v>12825.74894541242</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5418,22 +4931,15 @@
         <v>648.2537</v>
       </c>
       <c r="G134" t="n">
-        <v>13474.00264541242</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5455,22 +4961,15 @@
         <v>1468.0038</v>
       </c>
       <c r="G135" t="n">
-        <v>14942.00644541242</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5492,22 +4991,15 @@
         <v>105.9185</v>
       </c>
       <c r="G136" t="n">
-        <v>15047.92494541242</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5529,22 +5021,15 @@
         <v>2027.3717</v>
       </c>
       <c r="G137" t="n">
-        <v>17075.29664541242</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5566,20 +5051,15 @@
         <v>584.5315000000001</v>
       </c>
       <c r="G138" t="n">
-        <v>17659.82814541242</v>
-      </c>
-      <c r="H138" t="n">
         <v>2</v>
       </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K138" t="n">
+        <v>1</v>
       </c>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5601,18 +5081,15 @@
         <v>449.8863</v>
       </c>
       <c r="G139" t="n">
-        <v>17209.94184541242</v>
-      </c>
-      <c r="H139" t="n">
         <v>2</v>
       </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5634,18 +5111,15 @@
         <v>878.7430000000001</v>
       </c>
       <c r="G140" t="n">
-        <v>18088.68484541242</v>
-      </c>
-      <c r="H140" t="n">
         <v>2</v>
       </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5667,18 +5141,15 @@
         <v>331.62</v>
       </c>
       <c r="G141" t="n">
-        <v>17757.06484541242</v>
-      </c>
-      <c r="H141" t="n">
         <v>2</v>
       </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5700,18 +5171,15 @@
         <v>1.2393</v>
       </c>
       <c r="G142" t="n">
-        <v>17757.06484541242</v>
-      </c>
-      <c r="H142" t="n">
         <v>2</v>
       </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5733,18 +5201,15 @@
         <v>3.7128</v>
       </c>
       <c r="G143" t="n">
-        <v>17753.35204541242</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5766,18 +5231,15 @@
         <v>329.6194</v>
       </c>
       <c r="G144" t="n">
-        <v>18082.97144541242</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5799,18 +5261,15 @@
         <v>202.8671</v>
       </c>
       <c r="G145" t="n">
-        <v>17880.10434541242</v>
-      </c>
-      <c r="H145" t="n">
         <v>2</v>
       </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5832,18 +5291,15 @@
         <v>272.2119</v>
       </c>
       <c r="G146" t="n">
-        <v>17607.89244541242</v>
-      </c>
-      <c r="H146" t="n">
         <v>2</v>
       </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5865,18 +5321,15 @@
         <v>441.9281</v>
       </c>
       <c r="G147" t="n">
-        <v>18049.82054541242</v>
-      </c>
-      <c r="H147" t="n">
         <v>2</v>
       </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5898,18 +5351,15 @@
         <v>200.9649</v>
       </c>
       <c r="G148" t="n">
-        <v>18250.78544541242</v>
-      </c>
-      <c r="H148" t="n">
         <v>2</v>
       </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5931,18 +5381,15 @@
         <v>689.6488000000001</v>
       </c>
       <c r="G149" t="n">
-        <v>18940.43424541242</v>
-      </c>
-      <c r="H149" t="n">
         <v>2</v>
       </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5964,18 +5411,15 @@
         <v>284.6641</v>
       </c>
       <c r="G150" t="n">
-        <v>18940.43424541242</v>
-      </c>
-      <c r="H150" t="n">
         <v>2</v>
       </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5997,18 +5441,15 @@
         <v>219.7906</v>
       </c>
       <c r="G151" t="n">
-        <v>18720.64364541242</v>
-      </c>
-      <c r="H151" t="n">
         <v>2</v>
       </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6030,18 +5471,15 @@
         <v>23.9629</v>
       </c>
       <c r="G152" t="n">
-        <v>18744.60654541242</v>
-      </c>
-      <c r="H152" t="n">
         <v>2</v>
       </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6063,18 +5501,15 @@
         <v>6</v>
       </c>
       <c r="G153" t="n">
-        <v>18738.60654541242</v>
-      </c>
-      <c r="H153" t="n">
         <v>2</v>
       </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6096,18 +5531,15 @@
         <v>78.5754</v>
       </c>
       <c r="G154" t="n">
-        <v>18660.03114541242</v>
-      </c>
-      <c r="H154" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6129,18 +5561,15 @@
         <v>1.6571</v>
       </c>
       <c r="G155" t="n">
-        <v>18660.03114541242</v>
-      </c>
-      <c r="H155" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6162,18 +5591,15 @@
         <v>466.0804</v>
       </c>
       <c r="G156" t="n">
-        <v>18660.03114541242</v>
-      </c>
-      <c r="H156" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6195,18 +5621,15 @@
         <v>23.7437</v>
       </c>
       <c r="G157" t="n">
-        <v>18660.03114541242</v>
-      </c>
-      <c r="H157" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6228,18 +5651,15 @@
         <v>254.0493</v>
       </c>
       <c r="G158" t="n">
-        <v>18914.08044541242</v>
-      </c>
-      <c r="H158" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6261,18 +5681,15 @@
         <v>1344.4263</v>
       </c>
       <c r="G159" t="n">
-        <v>20258.50674541241</v>
-      </c>
-      <c r="H159" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6294,18 +5711,15 @@
         <v>7.8051</v>
       </c>
       <c r="G160" t="n">
-        <v>20258.50674541241</v>
-      </c>
-      <c r="H160" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6327,18 +5741,15 @@
         <v>271.2757</v>
       </c>
       <c r="G161" t="n">
-        <v>20529.78244541241</v>
-      </c>
-      <c r="H161" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6360,18 +5771,15 @@
         <v>871.4217</v>
       </c>
       <c r="G162" t="n">
-        <v>21401.20414541241</v>
-      </c>
-      <c r="H162" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6393,18 +5801,15 @@
         <v>11.0542</v>
       </c>
       <c r="G163" t="n">
-        <v>21412.25834541241</v>
-      </c>
-      <c r="H163" t="n">
         <v>2</v>
       </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6426,18 +5831,15 @@
         <v>636.9061</v>
       </c>
       <c r="G164" t="n">
-        <v>22049.16444541241</v>
-      </c>
-      <c r="H164" t="n">
         <v>2</v>
       </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6459,18 +5861,15 @@
         <v>2511.1453</v>
       </c>
       <c r="G165" t="n">
-        <v>19538.01914541241</v>
-      </c>
-      <c r="H165" t="n">
         <v>2</v>
       </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6492,18 +5891,15 @@
         <v>1518.9036</v>
       </c>
       <c r="G166" t="n">
-        <v>18019.11554541241</v>
-      </c>
-      <c r="H166" t="n">
         <v>2</v>
       </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6525,18 +5921,15 @@
         <v>50</v>
       </c>
       <c r="G167" t="n">
-        <v>18019.11554541241</v>
-      </c>
-      <c r="H167" t="n">
         <v>2</v>
       </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6558,18 +5951,15 @@
         <v>47.8473</v>
       </c>
       <c r="G168" t="n">
-        <v>18019.11554541241</v>
-      </c>
-      <c r="H168" t="n">
         <v>2</v>
       </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6591,18 +5981,15 @@
         <v>291.1185</v>
       </c>
       <c r="G169" t="n">
-        <v>18310.23404541241</v>
-      </c>
-      <c r="H169" t="n">
         <v>2</v>
       </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
